--- a/internal/excel/testdata/vpt_java_test.xlsx
+++ b/internal/excel/testdata/vpt_java_test.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="vulnerability" sheetId="2" r:id="rId4"/>
+    <sheet name="漏洞扫描结果" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
@@ -16,46 +16,46 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1731" uniqueCount="1731">
   <si>
-    <t>Target</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Class</t>
-  </si>
-  <si>
-    <t>Vulnerability ID</t>
-  </si>
-  <si>
-    <t>Title</t>
-  </si>
-  <si>
-    <t>Severity Source</t>
-  </si>
-  <si>
-    <t>Severity</t>
-  </si>
-  <si>
-    <t>Package Name</t>
-  </si>
-  <si>
-    <t>Package Version</t>
-  </si>
-  <si>
-    <t>Package Path</t>
-  </si>
-  <si>
-    <t>Fixed Version</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Published Date</t>
-  </si>
-  <si>
-    <t>Last Modified Date</t>
+    <t>扫描对象</t>
+  </si>
+  <si>
+    <t>扫描类型</t>
+  </si>
+  <si>
+    <t>软件包类别</t>
+  </si>
+  <si>
+    <t>漏洞编号</t>
+  </si>
+  <si>
+    <t>漏洞名称</t>
+  </si>
+  <si>
+    <t>威胁等级来源</t>
+  </si>
+  <si>
+    <t>威胁等级</t>
+  </si>
+  <si>
+    <t>软件包名称</t>
+  </si>
+  <si>
+    <t>软件包版本</t>
+  </si>
+  <si>
+    <t>软件包路径</t>
+  </si>
+  <si>
+    <t>修复版本</t>
+  </si>
+  <si>
+    <t>漏洞状态</t>
+  </si>
+  <si>
+    <t>公布时间</t>
+  </si>
+  <si>
+    <t>上次修改时间</t>
   </si>
   <si>
     <t>annor2000/vpt:java-test (debian 8.6)</t>
@@ -64,7 +64,7 @@
     <t>debian</t>
   </si>
   <si>
-    <t>OS Package</t>
+    <t>系统层</t>
   </si>
   <si>
     <t>CVE-2019-3462</t>
@@ -76,7 +76,7 @@
     <t>nvd</t>
   </si>
   <si>
-    <t>HIGH</t>
+    <t>高危</t>
   </si>
   <si>
     <t>apt</t>
@@ -91,13 +91,13 @@
     <t>1.0.9.8.5</t>
   </si>
   <si>
-    <t>this vulnerability is fixed on this platform</t>
-  </si>
-  <si>
-    <t>2019-01-28 21:29:00</t>
-  </si>
-  <si>
-    <t>2023-11-07 03:09:47</t>
+    <t>该软件包已发布修复补丁</t>
+  </si>
+  <si>
+    <t>2019-01-29 05:29:00</t>
+  </si>
+  <si>
+    <t>2023-11-07 11:09:47</t>
   </si>
   <si>
     <t>CVE-2016-1252</t>
@@ -106,16 +106,16 @@
     <t>The apt package in Debian jessie before 1.0.9.8.4, in Debian unstable  ...</t>
   </si>
   <si>
-    <t>MEDIUM</t>
+    <t>中危</t>
   </si>
   <si>
     <t>1.0.9.8.4</t>
   </si>
   <si>
-    <t>2017-12-05 16:29:00</t>
-  </si>
-  <si>
-    <t>2020-08-14 15:26:29</t>
+    <t>2017-12-06 00:29:00</t>
+  </si>
+  <si>
+    <t>2020-08-14 23:26:29</t>
   </si>
   <si>
     <t>CVE-2020-3810</t>
@@ -127,10 +127,10 @@
     <t>1.0.9.8.6</t>
   </si>
   <si>
-    <t>2020-05-15 14:15:11</t>
-  </si>
-  <si>
-    <t>2023-11-07 03:23:04</t>
+    <t>2020-05-15 22:15:11</t>
+  </si>
+  <si>
+    <t>2023-11-07 11:23:04</t>
   </si>
   <si>
     <t>CVE-2016-7543</t>
@@ -148,10 +148,10 @@
     <t>4.3-11+deb8u1</t>
   </si>
   <si>
-    <t>2017-01-19 20:59:00</t>
-  </si>
-  <si>
-    <t>2023-11-07 02:34:43</t>
+    <t>2017-01-20 04:59:00</t>
+  </si>
+  <si>
+    <t>2023-11-07 10:34:43</t>
   </si>
   <si>
     <t>CVE-2019-9924</t>
@@ -163,10 +163,10 @@
     <t>4.3-11+deb8u2</t>
   </si>
   <si>
-    <t>2019-03-22 08:29:00</t>
-  </si>
-  <si>
-    <t>2022-04-05 20:11:00</t>
+    <t>2019-03-22 16:29:00</t>
+  </si>
+  <si>
+    <t>2022-04-06 04:11:00</t>
   </si>
   <si>
     <t>CVE-2016-9401</t>
@@ -175,10 +175,10 @@
     <t>bash: popd controlled free</t>
   </si>
   <si>
-    <t>2017-01-23 21:59:02</t>
-  </si>
-  <si>
-    <t>2020-09-14 18:32:28</t>
+    <t>2017-01-24 05:59:02</t>
+  </si>
+  <si>
+    <t>2020-09-15 02:32:28</t>
   </si>
   <si>
     <t>CVE-2016-0634</t>
@@ -187,13 +187,13 @@
     <t>bash: Arbitrary code execution via malicious hostname</t>
   </si>
   <si>
-    <t>LOW</t>
-  </si>
-  <si>
-    <t>2017-08-28 15:29:01</t>
-  </si>
-  <si>
-    <t>2018-01-05 02:30:27</t>
+    <t>低危</t>
+  </si>
+  <si>
+    <t>2017-08-28 23:29:01</t>
+  </si>
+  <si>
+    <t>2018-01-05 10:30:27</t>
   </si>
   <si>
     <t>CVE-2016-2779</t>
@@ -208,13 +208,13 @@
     <t>1:2.25.2-6</t>
   </si>
   <si>
-    <t>this package is affected by this vulnerability on this platform, but there is no patch released yet</t>
-  </si>
-  <si>
-    <t>2017-02-07 15:59:00</t>
-  </si>
-  <si>
-    <t>2019-01-04 14:14:12</t>
+    <t>该软件包在此平台上受该漏洞的影响，但是暂未发布补丁</t>
+  </si>
+  <si>
+    <t>2017-02-07 23:59:00</t>
+  </si>
+  <si>
+    <t>2019-01-04 22:14:12</t>
   </si>
   <si>
     <t>CVE-2016-5011</t>
@@ -223,10 +223,10 @@
     <t>util-linux: Extended partition loop in MBR partition table leads to DOS</t>
   </si>
   <si>
-    <t>2017-04-11 15:59:00</t>
-  </si>
-  <si>
-    <t>2020-09-11 15:22:28</t>
+    <t>2017-04-11 23:59:00</t>
+  </si>
+  <si>
+    <t>2020-09-11 23:22:28</t>
   </si>
   <si>
     <t>CVE-2019-12900</t>
@@ -235,7 +235,7 @@
     <t>bzip2: out-of-bounds write in function BZ2_decompress</t>
   </si>
   <si>
-    <t>CRITICAL</t>
+    <t>超危</t>
   </si>
   <si>
     <t>bzip2</t>
@@ -247,10 +247,10 @@
     <t>1.0.6-7+deb8u1</t>
   </si>
   <si>
-    <t>2019-06-19 23:15:09</t>
-  </si>
-  <si>
-    <t>2023-11-07 03:03:43</t>
+    <t>2019-06-20 07:15:09</t>
+  </si>
+  <si>
+    <t>2023-11-07 11:03:43</t>
   </si>
   <si>
     <t>CVE-2016-3189</t>
@@ -259,10 +259,10 @@
     <t>bzip2: heap use after free in bzip2recover</t>
   </si>
   <si>
-    <t>2016-06-30 17:59:01</t>
-  </si>
-  <si>
-    <t>2023-11-07 02:32:12</t>
+    <t>2016-07-01 01:59:01</t>
+  </si>
+  <si>
+    <t>2023-11-07 10:32:12</t>
   </si>
   <si>
     <t>DLA-1833-2</t>
@@ -271,7 +271,7 @@
     <t>bzip2 - regression update</t>
   </si>
   <si>
-    <t>UNKNOWN</t>
+    <t>未知</t>
   </si>
   <si>
     <t>1.0.6-7+deb8u2</t>
@@ -304,10 +304,10 @@
     <t>8.23-4</t>
   </si>
   <si>
-    <t>this package is affected by this vulnerability on this platform, but there is currently no intention to fix it (this would primarily be for flaws that are of Low or Moderate impact that pose no significant risk to customers)</t>
-  </si>
-  <si>
-    <t>2023-11-07 02:32:03</t>
+    <t>该软件包在此平台上受该漏洞的影响，但是目前没有修复它的打算（这主要是针对影响较低或中等、对客户不构成重大风险的漏洞）。</t>
+  </si>
+  <si>
+    <t>2023-11-07 10:32:03</t>
   </si>
   <si>
     <t>CVE-2016-7167</t>
@@ -325,10 +325,10 @@
     <t>7.38.0-4+deb8u13</t>
   </si>
   <si>
-    <t>2016-10-07 14:59:08</t>
-  </si>
-  <si>
-    <t>2023-11-07 02:34:16</t>
+    <t>2016-10-07 22:59:08</t>
+  </si>
+  <si>
+    <t>2023-11-07 10:34:16</t>
   </si>
   <si>
     <t>CVE-2016-8618</t>
@@ -340,10 +340,10 @@
     <t>7.38.0-4+deb8u5</t>
   </si>
   <si>
-    <t>2018-07-31 21:29:00</t>
-  </si>
-  <si>
-    <t>2023-11-07 02:36:24</t>
+    <t>2018-08-01 05:29:00</t>
+  </si>
+  <si>
+    <t>2023-11-07 10:36:24</t>
   </si>
   <si>
     <t>CVE-2016-8619</t>
@@ -352,207 +352,207 @@
     <t>curl: Double-free in krb5 code</t>
   </si>
   <si>
+    <t>2018-08-01 14:29:00</t>
+  </si>
+  <si>
+    <t>CVE-2016-8620</t>
+  </si>
+  <si>
+    <t>curl: Glob parser write/read out of bounds</t>
+  </si>
+  <si>
+    <t>CVE-2016-8622</t>
+  </si>
+  <si>
+    <t>curl: URL unescape heap overflow via integer truncation</t>
+  </si>
+  <si>
+    <t>CVE-2017-1000257</t>
+  </si>
+  <si>
+    <t>curl: IMAP FETCH response out of bounds read</t>
+  </si>
+  <si>
+    <t>7.38.0-4+deb8u7</t>
+  </si>
+  <si>
+    <t>2017-11-01 05:29:00</t>
+  </si>
+  <si>
+    <t>2018-11-13 19:29:07</t>
+  </si>
+  <si>
+    <t>CVE-2017-8816</t>
+  </si>
+  <si>
+    <t>curl: NTLM buffer overflow via integer overflow</t>
+  </si>
+  <si>
+    <t>7.38.0-4+deb8u8</t>
+  </si>
+  <si>
+    <t>2017-11-30 02:29:00</t>
+  </si>
+  <si>
+    <t>2018-11-13 19:29:22</t>
+  </si>
+  <si>
+    <t>CVE-2017-8817</t>
+  </si>
+  <si>
+    <t>curl: FTP wildcard out of bounds read</t>
+  </si>
+  <si>
+    <t>CVE-2018-1000007</t>
+  </si>
+  <si>
+    <t>curl: HTTP authentication leak in redirects</t>
+  </si>
+  <si>
+    <t>7.38.0-4+deb8u9</t>
+  </si>
+  <si>
+    <t>2018-01-25 06:29:00</t>
+  </si>
+  <si>
+    <t>2022-06-14 03:10:03</t>
+  </si>
+  <si>
+    <t>CVE-2018-1000120</t>
+  </si>
+  <si>
+    <t>curl: FTP path trickery leads to NIL byte out of bounds write</t>
+  </si>
+  <si>
+    <t>7.38.0-4+deb8u10</t>
+  </si>
+  <si>
+    <t>2018-03-15 02:29:00</t>
+  </si>
+  <si>
+    <t>2019-06-19 06:15:11</t>
+  </si>
+  <si>
+    <t>CVE-2018-1000122</t>
+  </si>
+  <si>
+    <t>curl: RTSP RTP buffer over-read</t>
+  </si>
+  <si>
+    <t>2019-10-03 08:03:26</t>
+  </si>
+  <si>
+    <t>CVE-2018-1000301</t>
+  </si>
+  <si>
+    <t>curl: Out-of-bounds heap read when missing RTSP headers allows information leak or denial of service</t>
+  </si>
+  <si>
+    <t>7.38.0-4+deb8u11</t>
+  </si>
+  <si>
+    <t>2018-05-24 21:29:01</t>
+  </si>
+  <si>
+    <t>CVE-2018-14618</t>
+  </si>
+  <si>
+    <t>curl: NTLM password overflow via integer overflow</t>
+  </si>
+  <si>
+    <t>7.38.0-4+deb8u12</t>
+  </si>
+  <si>
+    <t>2018-09-06 03:29:00</t>
+  </si>
+  <si>
+    <t>2019-04-23 01:48:00</t>
+  </si>
+  <si>
+    <t>CVE-2018-16839</t>
+  </si>
+  <si>
+    <t>curl: Integer overflow leading to heap-based buffer overflow in Curl_sasl_create_plain_message()</t>
+  </si>
+  <si>
+    <t>2018-11-01 02:29:00</t>
+  </si>
+  <si>
+    <t>2023-11-07 10:53:56</t>
+  </si>
+  <si>
+    <t>CVE-2018-16842</t>
+  </si>
+  <si>
+    <t>curl: Heap-based buffer over-read in the curl tool warning formatting</t>
+  </si>
+  <si>
+    <t>2018-11-01 03:29:00</t>
+  </si>
+  <si>
+    <t>2019-08-07 01:15:28</t>
+  </si>
+  <si>
+    <t>CVE-2019-3822</t>
+  </si>
+  <si>
+    <t>curl: NTLMv2 type-3 header stack buffer overflow</t>
+  </si>
+  <si>
+    <t>7.38.0-4+deb8u14</t>
+  </si>
+  <si>
+    <t>2019-02-07 04:29:00</t>
+  </si>
+  <si>
+    <t>2023-11-07 11:10:12</t>
+  </si>
+  <si>
+    <t>CVE-2019-5482</t>
+  </si>
+  <si>
+    <t>heap buffer overflow in function tftp_receive_packet()</t>
+  </si>
+  <si>
+    <t>7.38.0-4+deb8u16</t>
+  </si>
+  <si>
+    <t>2019-09-17 03:15:10</t>
+  </si>
+  <si>
+    <t>2023-11-07 11:11:36</t>
+  </si>
+  <si>
+    <t>CVE-2016-7141</t>
+  </si>
+  <si>
+    <t>curl: Incorrect reuse of client certificates</t>
+  </si>
+  <si>
+    <t>2016-10-04 05:59:08</t>
+  </si>
+  <si>
+    <t>2018-11-13 19:29:02</t>
+  </si>
+  <si>
+    <t>CVE-2016-8615</t>
+  </si>
+  <si>
+    <t>curl: Cookie injection for other servers</t>
+  </si>
+  <si>
+    <t>2023-11-07 10:36:23</t>
+  </si>
+  <si>
+    <t>CVE-2016-8617</t>
+  </si>
+  <si>
+    <t>curl: Out-of-bounds write via unchecked multiplication</t>
+  </si>
+  <si>
     <t>2018-08-01 06:29:00</t>
   </si>
   <si>
-    <t>CVE-2016-8620</t>
-  </si>
-  <si>
-    <t>curl: Glob parser write/read out of bounds</t>
-  </si>
-  <si>
-    <t>CVE-2016-8622</t>
-  </si>
-  <si>
-    <t>curl: URL unescape heap overflow via integer truncation</t>
-  </si>
-  <si>
-    <t>CVE-2017-1000257</t>
-  </si>
-  <si>
-    <t>curl: IMAP FETCH response out of bounds read</t>
-  </si>
-  <si>
-    <t>7.38.0-4+deb8u7</t>
-  </si>
-  <si>
-    <t>2017-10-31 21:29:00</t>
-  </si>
-  <si>
-    <t>2018-11-13 11:29:07</t>
-  </si>
-  <si>
-    <t>CVE-2017-8816</t>
-  </si>
-  <si>
-    <t>curl: NTLM buffer overflow via integer overflow</t>
-  </si>
-  <si>
-    <t>7.38.0-4+deb8u8</t>
-  </si>
-  <si>
-    <t>2017-11-29 18:29:00</t>
-  </si>
-  <si>
-    <t>2018-11-13 11:29:22</t>
-  </si>
-  <si>
-    <t>CVE-2017-8817</t>
-  </si>
-  <si>
-    <t>curl: FTP wildcard out of bounds read</t>
-  </si>
-  <si>
-    <t>CVE-2018-1000007</t>
-  </si>
-  <si>
-    <t>curl: HTTP authentication leak in redirects</t>
-  </si>
-  <si>
-    <t>7.38.0-4+deb8u9</t>
-  </si>
-  <si>
-    <t>2018-01-24 22:29:00</t>
-  </si>
-  <si>
-    <t>2022-06-13 19:10:03</t>
-  </si>
-  <si>
-    <t>CVE-2018-1000120</t>
-  </si>
-  <si>
-    <t>curl: FTP path trickery leads to NIL byte out of bounds write</t>
-  </si>
-  <si>
-    <t>7.38.0-4+deb8u10</t>
-  </si>
-  <si>
-    <t>2018-03-14 18:29:00</t>
-  </si>
-  <si>
-    <t>2019-06-18 22:15:11</t>
-  </si>
-  <si>
-    <t>CVE-2018-1000122</t>
-  </si>
-  <si>
-    <t>curl: RTSP RTP buffer over-read</t>
-  </si>
-  <si>
-    <t>2019-10-03 00:03:26</t>
-  </si>
-  <si>
-    <t>CVE-2018-1000301</t>
-  </si>
-  <si>
-    <t>curl: Out-of-bounds heap read when missing RTSP headers allows information leak or denial of service</t>
-  </si>
-  <si>
-    <t>7.38.0-4+deb8u11</t>
-  </si>
-  <si>
-    <t>2018-05-24 13:29:01</t>
-  </si>
-  <si>
-    <t>CVE-2018-14618</t>
-  </si>
-  <si>
-    <t>curl: NTLM password overflow via integer overflow</t>
-  </si>
-  <si>
-    <t>7.38.0-4+deb8u12</t>
-  </si>
-  <si>
-    <t>2018-09-05 19:29:00</t>
-  </si>
-  <si>
-    <t>2019-04-22 17:48:00</t>
-  </si>
-  <si>
-    <t>CVE-2018-16839</t>
-  </si>
-  <si>
-    <t>curl: Integer overflow leading to heap-based buffer overflow in Curl_sasl_create_plain_message()</t>
-  </si>
-  <si>
-    <t>2018-10-31 18:29:00</t>
-  </si>
-  <si>
-    <t>2023-11-07 02:53:56</t>
-  </si>
-  <si>
-    <t>CVE-2018-16842</t>
-  </si>
-  <si>
-    <t>curl: Heap-based buffer over-read in the curl tool warning formatting</t>
-  </si>
-  <si>
-    <t>2018-10-31 19:29:00</t>
-  </si>
-  <si>
-    <t>2019-08-06 17:15:28</t>
-  </si>
-  <si>
-    <t>CVE-2019-3822</t>
-  </si>
-  <si>
-    <t>curl: NTLMv2 type-3 header stack buffer overflow</t>
-  </si>
-  <si>
-    <t>7.38.0-4+deb8u14</t>
-  </si>
-  <si>
-    <t>2019-02-06 20:29:00</t>
-  </si>
-  <si>
-    <t>2023-11-07 03:10:12</t>
-  </si>
-  <si>
-    <t>CVE-2019-5482</t>
-  </si>
-  <si>
-    <t>heap buffer overflow in function tftp_receive_packet()</t>
-  </si>
-  <si>
-    <t>7.38.0-4+deb8u16</t>
-  </si>
-  <si>
-    <t>2019-09-16 19:15:10</t>
-  </si>
-  <si>
-    <t>2023-11-07 03:11:36</t>
-  </si>
-  <si>
-    <t>CVE-2016-7141</t>
-  </si>
-  <si>
-    <t>curl: Incorrect reuse of client certificates</t>
-  </si>
-  <si>
-    <t>2016-10-03 21:59:08</t>
-  </si>
-  <si>
-    <t>2018-11-13 11:29:02</t>
-  </si>
-  <si>
-    <t>CVE-2016-8615</t>
-  </si>
-  <si>
-    <t>curl: Cookie injection for other servers</t>
-  </si>
-  <si>
-    <t>2023-11-07 02:36:23</t>
-  </si>
-  <si>
-    <t>CVE-2016-8617</t>
-  </si>
-  <si>
-    <t>curl: Out-of-bounds write via unchecked multiplication</t>
-  </si>
-  <si>
-    <t>2018-07-31 22:29:00</t>
-  </si>
-  <si>
     <t>CVE-2016-8621</t>
   </si>
   <si>
@@ -583,10 +583,10 @@
     <t>curl: printf floating point buffer overflow</t>
   </si>
   <si>
-    <t>2018-04-23 18:29:00</t>
-  </si>
-  <si>
-    <t>2023-11-07 02:37:14</t>
+    <t>2018-04-24 02:29:00</t>
+  </si>
+  <si>
+    <t>2023-11-07 10:37:14</t>
   </si>
   <si>
     <t>CVE-2017-1000254</t>
@@ -598,10 +598,10 @@
     <t>7.38.0-4+deb8u6</t>
   </si>
   <si>
-    <t>2017-10-06 13:29:00</t>
-  </si>
-  <si>
-    <t>2023-11-07 02:37:56</t>
+    <t>2017-10-06 21:29:00</t>
+  </si>
+  <si>
+    <t>2023-11-07 10:37:56</t>
   </si>
   <si>
     <t>CVE-2018-1000121</t>
@@ -610,7 +610,7 @@
     <t>curl: LDAP NULL pointer dereference</t>
   </si>
   <si>
-    <t>2019-07-23 23:15:25</t>
+    <t>2019-07-24 07:15:25</t>
   </si>
   <si>
     <t>CVE-2018-16890</t>
@@ -619,7 +619,7 @@
     <t>curl: NTLM type-2 heap out-of-bounds buffer read</t>
   </si>
   <si>
-    <t>2023-11-07 02:53:57</t>
+    <t>2023-11-07 10:53:57</t>
   </si>
   <si>
     <t>CVE-2019-3823</t>
@@ -637,10 +637,10 @@
     <t>7.38.0-4+deb8u15</t>
   </si>
   <si>
-    <t>2019-05-28 19:29:06</t>
-  </si>
-  <si>
-    <t>2023-11-07 03:11:35</t>
+    <t>2019-05-29 03:29:06</t>
+  </si>
+  <si>
+    <t>2023-11-07 11:11:35</t>
   </si>
   <si>
     <t>CVE-2016-8616</t>
@@ -655,10 +655,10 @@
     <t>curl: TFTP sends more than buffer size</t>
   </si>
   <si>
-    <t>2017-10-05 01:29:04</t>
-  </si>
-  <si>
-    <t>2018-11-13 11:29:06</t>
+    <t>2017-10-05 09:29:04</t>
+  </si>
+  <si>
+    <t>2018-11-13 19:29:06</t>
   </si>
   <si>
     <t>CVE-2017-1000101</t>
@@ -682,10 +682,10 @@
     <t>1.8.22-0+deb8u2</t>
   </si>
   <si>
-    <t>2019-06-11 17:29:00</t>
-  </si>
-  <si>
-    <t>2023-11-07 03:03:40</t>
+    <t>2019-06-12 01:29:00</t>
+  </si>
+  <si>
+    <t>2023-11-07 11:03:40</t>
   </si>
   <si>
     <t>CVE-2020-12049</t>
@@ -697,10 +697,10 @@
     <t>1.8.22-0+deb8u3</t>
   </si>
   <si>
-    <t>2020-06-08 17:15:09</t>
-  </si>
-  <si>
-    <t>2023-06-12 07:15:13</t>
+    <t>2020-06-09 01:15:09</t>
+  </si>
+  <si>
+    <t>2023-06-12 15:15:13</t>
   </si>
   <si>
     <t>TEMP-0000000-4DA0A8</t>
@@ -724,10 +724,10 @@
     <t>2:1.02.90-2.2+deb8u1</t>
   </si>
   <si>
-    <t>2020-02-14 05:15:13</t>
-  </si>
-  <si>
-    <t>2024-03-21 02:37:38</t>
+    <t>2020-02-14 13:15:13</t>
+  </si>
+  <si>
+    <t>2024-03-21 10:37:38</t>
   </si>
   <si>
     <t>CVE-2019-5094</t>
@@ -745,10 +745,10 @@
     <t>1.42.12-2+deb8u1</t>
   </si>
   <si>
-    <t>2019-09-24 22:15:13</t>
-  </si>
-  <si>
-    <t>2023-11-07 03:11:26</t>
+    <t>2019-09-25 06:15:13</t>
+  </si>
+  <si>
+    <t>2023-11-07 11:11:26</t>
   </si>
   <si>
     <t>CVE-2019-5188</t>
@@ -760,10 +760,10 @@
     <t>1.42.12-2+deb8u2</t>
   </si>
   <si>
-    <t>2020-01-08 16:15:11</t>
-  </si>
-  <si>
-    <t>2023-11-07 03:11:27</t>
+    <t>2020-01-09 00:15:11</t>
+  </si>
+  <si>
+    <t>2023-11-07 11:11:27</t>
   </si>
   <si>
     <t>e2fsprogs</t>
@@ -781,10 +781,10 @@
     <t>4.8.4-1</t>
   </si>
   <si>
-    <t>2019-05-22 19:29:00</t>
-  </si>
-  <si>
-    <t>2020-08-24 17:37:01</t>
+    <t>2019-05-23 03:29:00</t>
+  </si>
+  <si>
+    <t>2020-08-25 01:37:01</t>
   </si>
   <si>
     <t>CVE-2017-11671</t>
@@ -793,10 +793,10 @@
     <t>gcc: GCC generates incorrect code for RDRAND/RDSEED intrinsics</t>
   </si>
   <si>
-    <t>2017-07-26 21:29:00</t>
-  </si>
-  <si>
-    <t>2018-04-12 01:29:01</t>
+    <t>2017-07-27 05:29:00</t>
+  </si>
+  <si>
+    <t>2018-04-12 09:29:01</t>
   </si>
   <si>
     <t>gcc-4.9-base</t>
@@ -811,10 +811,10 @@
     <t>gcc: Predictable randomness from std::random_device</t>
   </si>
   <si>
-    <t>2015-11-17 15:59:04</t>
-  </si>
-  <si>
-    <t>2019-02-12 19:05:51</t>
+    <t>2015-11-17 23:59:04</t>
+  </si>
+  <si>
+    <t>2019-02-13 03:05:51</t>
   </si>
   <si>
     <t>DLA-1606-1</t>
@@ -850,10 +850,10 @@
     <t>1.4.18-7+deb8u5</t>
   </si>
   <si>
-    <t>2018-06-08 21:29:00</t>
-  </si>
-  <si>
-    <t>2022-04-18 17:30:54</t>
+    <t>2018-06-09 05:29:00</t>
+  </si>
+  <si>
+    <t>2022-04-19 01:30:54</t>
   </si>
   <si>
     <t>CVE-2017-7526</t>
@@ -865,10 +865,10 @@
     <t>1.4.18-7+deb8u4</t>
   </si>
   <si>
-    <t>2018-07-26 13:29:00</t>
-  </si>
-  <si>
-    <t>2023-11-07 02:50:12</t>
+    <t>2018-07-26 21:29:00</t>
+  </si>
+  <si>
+    <t>2023-11-07 10:50:12</t>
   </si>
   <si>
     <t>CVE-2019-14855</t>
@@ -877,10 +877,10 @@
     <t>gnupg2: OpenPGP Key Certification Forgeries with SHA-1</t>
   </si>
   <si>
-    <t>2020-03-20 16:15:14</t>
-  </si>
-  <si>
-    <t>2022-11-08 02:28:51</t>
+    <t>2020-03-21 00:15:14</t>
+  </si>
+  <si>
+    <t>2022-11-08 10:28:51</t>
   </si>
   <si>
     <t>gpgv</t>
@@ -901,10 +901,10 @@
     <t>2:1.9.2.39.3a460-3+deb8u1</t>
   </si>
   <si>
-    <t>2020-03-06 15:15:14</t>
-  </si>
-  <si>
-    <t>2023-11-07 03:14:07</t>
+    <t>2020-03-06 23:15:14</t>
+  </si>
+  <si>
+    <t>2023-11-07 11:14:07</t>
   </si>
   <si>
     <t>CVE-2019-0053</t>
@@ -913,10 +913,10 @@
     <t>Insufficient validation of environment variables in the telnet client  ...</t>
   </si>
   <si>
-    <t>2019-07-11 20:15:11</t>
-  </si>
-  <si>
-    <t>2023-10-08 14:15:11</t>
+    <t>2019-07-12 04:15:11</t>
+  </si>
+  <si>
+    <t>2023-10-08 22:15:11</t>
   </si>
   <si>
     <t>libapt-pkg4.12</t>
@@ -946,10 +946,10 @@
     <t>2.19-18+deb8u10</t>
   </si>
   <si>
-    <t>2017-06-19 16:29:00</t>
-  </si>
-  <si>
-    <t>2020-10-15 13:28:10</t>
+    <t>2017-06-20 00:29:00</t>
+  </si>
+  <si>
+    <t>2020-10-15 21:28:10</t>
   </si>
   <si>
     <t>libc6</t>
@@ -973,7 +973,7 @@
     <t>1.7.5-11+deb8u3</t>
   </si>
   <si>
-    <t>2018-02-16 17:29:00</t>
+    <t>2018-02-17 01:29:00</t>
   </si>
   <si>
     <t>CVE-2018-4180</t>
@@ -985,7 +985,7 @@
     <t>1.7.5-11+deb8u4</t>
   </si>
   <si>
-    <t>2019-01-11 18:29:01</t>
+    <t>2019-01-12 02:29:01</t>
   </si>
   <si>
     <t>CVE-2018-6553</t>
@@ -994,7 +994,7 @@
     <t>cups: AppArmor cupsd Sandbox Bypass Due to Use of Hard Links</t>
   </si>
   <si>
-    <t>2018-08-10 15:29:01</t>
+    <t>2018-08-10 23:29:01</t>
   </si>
   <si>
     <t>CVE-2019-8675</t>
@@ -1006,10 +1006,10 @@
     <t>1.7.5-11+deb8u5</t>
   </si>
   <si>
-    <t>2020-10-27 20:15:17</t>
-  </si>
-  <si>
-    <t>2020-10-29 16:02:18</t>
+    <t>2020-10-28 04:15:17</t>
+  </si>
+  <si>
+    <t>2020-10-30 00:02:18</t>
   </si>
   <si>
     <t>CVE-2019-8696</t>
@@ -1018,7 +1018,7 @@
     <t>cups: stack-buffer-overflow in libcups's asn1_get_packed function</t>
   </si>
   <si>
-    <t>2020-10-30 02:22:20</t>
+    <t>2020-10-30 10:22:20</t>
   </si>
   <si>
     <t>CVE-2020-3898</t>
@@ -1030,10 +1030,10 @@
     <t>1.7.5-11+deb8u8</t>
   </si>
   <si>
-    <t>2020-10-22 18:15:12</t>
-  </si>
-  <si>
-    <t>2021-07-21 11:39:23</t>
+    <t>2020-10-23 02:15:12</t>
+  </si>
+  <si>
+    <t>2021-07-21 19:39:23</t>
   </si>
   <si>
     <t>CVE-2017-18248</t>
@@ -1042,10 +1042,10 @@
     <t>cups: Invalid usernames handled in scheduler/ipp.c:add_job() allow remote attackers to cause a denial of service</t>
   </si>
   <si>
-    <t>2018-03-26 17:29:00</t>
-  </si>
-  <si>
-    <t>2018-07-13 01:29:00</t>
+    <t>2018-03-27 01:29:00</t>
+  </si>
+  <si>
+    <t>2018-07-13 09:29:00</t>
   </si>
   <si>
     <t>CVE-2018-4181</t>
@@ -1063,10 +1063,10 @@
     <t>1.7.5-11+deb8u6</t>
   </si>
   <si>
-    <t>2019-04-03 18:29:06</t>
-  </si>
-  <si>
-    <t>2019-09-28 12:15:10</t>
+    <t>2019-04-04 02:29:06</t>
+  </si>
+  <si>
+    <t>2019-09-28 20:15:10</t>
   </si>
   <si>
     <t>CVE-2019-2180</t>
@@ -1075,7 +1075,7 @@
     <t>In ippSetValueTag of ipp.c in Android 8.0, 8.1 and 9, there is a possi ...</t>
   </si>
   <si>
-    <t>2019-09-05 22:15:12</t>
+    <t>2019-09-06 06:15:12</t>
   </si>
   <si>
     <t>CVE-2019-2228</t>
@@ -1087,10 +1087,10 @@
     <t>1.7.5-11+deb8u7</t>
   </si>
   <si>
-    <t>2019-12-06 23:15:12</t>
-  </si>
-  <si>
-    <t>2019-12-23 01:15:13</t>
+    <t>2019-12-07 07:15:12</t>
+  </si>
+  <si>
+    <t>2019-12-23 09:15:13</t>
   </si>
   <si>
     <t>CVE-2019-8842</t>
@@ -1099,10 +1099,10 @@
     <t>A buffer overflow was addressed with improved bounds checking. This is ...</t>
   </si>
   <si>
-    <t>2020-10-27 20:15:21</t>
-  </si>
-  <si>
-    <t>2023-11-07 03:13:32</t>
+    <t>2020-10-28 04:15:21</t>
+  </si>
+  <si>
+    <t>2023-11-07 11:13:32</t>
   </si>
   <si>
     <t>libcurl3</t>
@@ -1123,10 +1123,10 @@
     <t>5.3.28-9+deb8u1</t>
   </si>
   <si>
-    <t>2018-04-16 17:29:00</t>
-  </si>
-  <si>
-    <t>2020-07-15 18:15:12</t>
+    <t>2018-04-17 01:29:00</t>
+  </si>
+  <si>
+    <t>2020-07-16 02:15:12</t>
   </si>
   <si>
     <t>libdbus-1-3</t>
@@ -1150,10 +1150,10 @@
     <t>2.1.0-6+deb8u4</t>
   </si>
   <si>
-    <t>2018-06-11 21:29:00</t>
-  </si>
-  <si>
-    <t>2022-06-27 16:42:03</t>
+    <t>2018-06-12 05:29:00</t>
+  </si>
+  <si>
+    <t>2022-06-28 00:42:03</t>
   </si>
   <si>
     <t>CVE-2017-9233</t>
@@ -1162,10 +1162,10 @@
     <t>expat: Inifinite loop due to invalid XML in external entity</t>
   </si>
   <si>
-    <t>2017-07-25 20:29:00</t>
-  </si>
-  <si>
-    <t>2023-11-07 02:50:37</t>
+    <t>2017-07-26 04:29:00</t>
+  </si>
+  <si>
+    <t>2023-11-07 10:50:37</t>
   </si>
   <si>
     <t>CVE-2018-20843</t>
@@ -1177,10 +1177,10 @@
     <t>2.1.0-6+deb8u5</t>
   </si>
   <si>
-    <t>2019-06-24 17:15:09</t>
-  </si>
-  <si>
-    <t>2023-11-07 02:56:21</t>
+    <t>2019-06-25 01:15:09</t>
+  </si>
+  <si>
+    <t>2023-11-07 10:56:21</t>
   </si>
   <si>
     <t>CVE-2019-15903</t>
@@ -1192,10 +1192,10 @@
     <t>2.1.0-6+deb8u6</t>
   </si>
   <si>
-    <t>2019-09-04 06:15:10</t>
-  </si>
-  <si>
-    <t>2023-11-07 03:05:35</t>
+    <t>2019-09-04 14:15:10</t>
+  </si>
+  <si>
+    <t>2023-11-07 11:05:35</t>
   </si>
   <si>
     <t>CVE-2017-1000376</t>
@@ -1213,7 +1213,7 @@
     <t>3.1-2+deb8u1</t>
   </si>
   <si>
-    <t>2023-09-22 18:25:54</t>
+    <t>2023-09-23 02:25:54</t>
   </si>
   <si>
     <t>CVE-2015-9290</t>
@@ -1231,10 +1231,10 @@
     <t>2.5.2-3+deb8u3</t>
   </si>
   <si>
-    <t>2019-07-30 13:15:12</t>
-  </si>
-  <si>
-    <t>2023-11-07 02:28:58</t>
+    <t>2019-07-30 21:15:12</t>
+  </si>
+  <si>
+    <t>2023-11-07 10:28:58</t>
   </si>
   <si>
     <t>CVE-2017-8105</t>
@@ -1246,10 +1246,10 @@
     <t>2.5.2-3+deb8u2</t>
   </si>
   <si>
-    <t>2017-04-24 18:59:00</t>
-  </si>
-  <si>
-    <t>2021-01-26 12:33:27</t>
+    <t>2017-04-25 02:59:00</t>
+  </si>
+  <si>
+    <t>2021-01-26 20:33:27</t>
   </si>
   <si>
     <t>CVE-2017-8287</t>
@@ -1258,10 +1258,10 @@
     <t>freetype: heap-based buffer overflow related to the t1_builder_close_contour function</t>
   </si>
   <si>
-    <t>2017-04-27 00:59:00</t>
-  </si>
-  <si>
-    <t>2021-01-26 12:33:24</t>
+    <t>2017-04-27 08:59:00</t>
+  </si>
+  <si>
+    <t>2021-01-26 20:33:24</t>
   </si>
   <si>
     <t>CVE-2015-9381</t>
@@ -1273,10 +1273,10 @@
     <t>2.5.2-3+deb8u4</t>
   </si>
   <si>
-    <t>2019-09-03 05:15:10</t>
-  </si>
-  <si>
-    <t>2019-09-10 03:15:11</t>
+    <t>2019-09-03 13:15:10</t>
+  </si>
+  <si>
+    <t>2019-09-10 11:15:11</t>
   </si>
   <si>
     <t>CVE-2016-10244</t>
@@ -1285,7 +1285,7 @@
     <t>freetype: parse_charstrings function in type1/t1load.c does not ensure that a font contains a glyph name</t>
   </si>
   <si>
-    <t>2017-03-06 06:59:00</t>
+    <t>2017-03-06 14:59:00</t>
   </si>
   <si>
     <t>CVE-2015-9382</t>
@@ -1300,7 +1300,7 @@
     <t>freetype: a heap-based buffer over-read in tt_cmap14_validate in sfnt/ttcmap.c may lead to a DoS</t>
   </si>
   <si>
-    <t>2023-02-23 23:04:01</t>
+    <t>2023-02-24 07:04:01</t>
   </si>
   <si>
     <t>libgcc1</t>
@@ -1327,10 +1327,10 @@
     <t>1.6.3-2+deb8u3</t>
   </si>
   <si>
-    <t>2017-06-11 02:29:00</t>
-  </si>
-  <si>
-    <t>2023-11-07 02:50:47</t>
+    <t>2017-06-11 10:29:00</t>
+  </si>
+  <si>
+    <t>2023-11-07 10:50:47</t>
   </si>
   <si>
     <t>CVE-2018-0495</t>
@@ -1342,10 +1342,10 @@
     <t>1.6.3-2+deb8u5</t>
   </si>
   <si>
-    <t>2018-06-13 23:29:00</t>
-  </si>
-  <si>
-    <t>2023-11-07 02:51:03</t>
+    <t>2018-06-14 07:29:00</t>
+  </si>
+  <si>
+    <t>2023-11-07 10:51:03</t>
   </si>
   <si>
     <t>CVE-2019-13627</t>
@@ -1357,7 +1357,7 @@
     <t>1.6.3-2+deb8u8</t>
   </si>
   <si>
-    <t>2019-09-25 15:15:11</t>
+    <t>2019-09-25 23:15:11</t>
   </si>
   <si>
     <t>TEMP-0000000-96B2E9</t>
@@ -1381,10 +1381,10 @@
     <t>3.3.8-6+deb8u5</t>
   </si>
   <si>
-    <t>2017-03-24 15:59:00</t>
-  </si>
-  <si>
-    <t>2018-10-30 16:27:33</t>
+    <t>2017-03-24 23:59:00</t>
+  </si>
+  <si>
+    <t>2018-10-31 00:27:33</t>
   </si>
   <si>
     <t>CVE-2017-5336</t>
@@ -1408,10 +1408,10 @@
     <t>3.3.8-6+deb8u4</t>
   </si>
   <si>
-    <t>2016-09-27 15:59:12</t>
-  </si>
-  <si>
-    <t>2018-01-05 02:31:15</t>
+    <t>2016-09-27 23:59:12</t>
+  </si>
+  <si>
+    <t>2018-01-05 10:31:15</t>
   </si>
   <si>
     <t>CVE-2017-5335</t>
@@ -1429,10 +1429,10 @@
     <t>3.3.8-6+deb8u6</t>
   </si>
   <si>
-    <t>2017-06-16 19:29:00</t>
-  </si>
-  <si>
-    <t>2018-01-05 02:31:51</t>
+    <t>2017-06-17 03:29:00</t>
+  </si>
+  <si>
+    <t>2018-01-05 10:31:51</t>
   </si>
   <si>
     <t>CVE-2017-7869</t>
@@ -1441,10 +1441,10 @@
     <t>gnutls: Out-of-bounds write related to the cdk_pkt_read function (GNUTLS-SA-2017-3)</t>
   </si>
   <si>
-    <t>2017-04-14 04:59:00</t>
-  </si>
-  <si>
-    <t>2018-01-05 02:31:53</t>
+    <t>2017-04-14 12:59:00</t>
+  </si>
+  <si>
+    <t>2018-01-05 10:31:53</t>
   </si>
   <si>
     <t>CVE-2018-10844</t>
@@ -1456,10 +1456,10 @@
     <t>3.3.30-0+deb8u1</t>
   </si>
   <si>
-    <t>2018-08-22 13:29:00</t>
-  </si>
-  <si>
-    <t>2023-02-13 04:50:20</t>
+    <t>2018-08-22 21:29:00</t>
+  </si>
+  <si>
+    <t>2023-02-13 12:50:20</t>
   </si>
   <si>
     <t>CVE-2018-10845</t>
@@ -1468,7 +1468,7 @@
     <t>gnutls: HMAC-SHA-384 vulnerable to Lucky thirteen attack due to use of wrong constant</t>
   </si>
   <si>
-    <t>2023-02-13 04:50:30</t>
+    <t>2023-02-13 12:50:30</t>
   </si>
   <si>
     <t>CVE-2018-10846</t>
@@ -1477,7 +1477,7 @@
     <t>gnutls: "Just in Time" PRIME + PROBE cache-based side channel attack can lead to plaintext recovery</t>
   </si>
   <si>
-    <t>2023-02-13 04:50:48</t>
+    <t>2023-02-13 12:50:48</t>
   </si>
   <si>
     <t>CVE-2018-16868</t>
@@ -1486,10 +1486,10 @@
     <t>gnutls: Bleichenbacher-like side channel leakage in PKCS#1 v1.5 verification and padding oracle verification</t>
   </si>
   <si>
-    <t>2018-12-03 14:29:00</t>
-  </si>
-  <si>
-    <t>2022-11-30 21:20:28</t>
+    <t>2018-12-03 22:29:00</t>
+  </si>
+  <si>
+    <t>2022-12-01 05:20:28</t>
   </si>
   <si>
     <t>CVE-2015-2694</t>
@@ -1507,10 +1507,10 @@
     <t>1.12.1+dfsg-19+deb8u3</t>
   </si>
   <si>
-    <t>2015-05-25 19:59:02</t>
-  </si>
-  <si>
-    <t>2020-01-21 15:46:59</t>
+    <t>2015-05-26 03:59:02</t>
+  </si>
+  <si>
+    <t>2020-01-21 23:46:59</t>
   </si>
   <si>
     <t>CVE-2016-3119</t>
@@ -1519,10 +1519,10 @@
     <t>krb5: null pointer dereference in kadmin</t>
   </si>
   <si>
-    <t>2016-03-26 01:59:05</t>
-  </si>
-  <si>
-    <t>2020-01-21 15:47:45</t>
+    <t>2016-03-26 09:59:05</t>
+  </si>
+  <si>
+    <t>2020-01-21 23:47:45</t>
   </si>
   <si>
     <t>CVE-2016-3120</t>
@@ -1531,10 +1531,10 @@
     <t>krb5: S4U2Self KDC crash when anon is restricted</t>
   </si>
   <si>
-    <t>2016-08-01 02:59:12</t>
-  </si>
-  <si>
-    <t>2023-11-07 02:32:08</t>
+    <t>2016-08-01 10:59:12</t>
+  </si>
+  <si>
+    <t>2023-11-07 10:32:08</t>
   </si>
   <si>
     <t>CVE-2017-11368</t>
@@ -1543,10 +1543,10 @@
     <t>krb5: Invalid S4U2Self or S4U2Proxy request causes assertion failure</t>
   </si>
   <si>
-    <t>2017-08-09 18:29:01</t>
-  </si>
-  <si>
-    <t>2023-11-07 02:38:13</t>
+    <t>2017-08-10 02:29:01</t>
+  </si>
+  <si>
+    <t>2023-11-07 10:38:13</t>
   </si>
   <si>
     <t>CVE-2018-20217</t>
@@ -1558,10 +1558,10 @@
     <t>1.12.1+dfsg-19+deb8u5</t>
   </si>
   <si>
-    <t>2018-12-26 21:29:02</t>
-  </si>
-  <si>
-    <t>2023-11-07 02:56:15</t>
+    <t>2018-12-27 05:29:02</t>
+  </si>
+  <si>
+    <t>2023-11-07 10:56:15</t>
   </si>
   <si>
     <t>CVE-2018-5710</t>
@@ -1570,10 +1570,10 @@
     <t>krb5: null pointer deference in strlen function in plugins/kdb/ldap/libkdb_ldap/ldap_principal2.c</t>
   </si>
   <si>
-    <t>2018-01-16 09:29:00</t>
-  </si>
-  <si>
-    <t>2023-11-07 02:58:49</t>
+    <t>2018-01-16 17:29:00</t>
+  </si>
+  <si>
+    <t>2023-11-07 10:58:49</t>
   </si>
   <si>
     <t>CVE-2018-5729</t>
@@ -1582,7 +1582,7 @@
     <t>krb5: null dereference in kadmind or DN container check bypass by supplying special crafted data</t>
   </si>
   <si>
-    <t>2018-03-06 20:29:00</t>
+    <t>2018-03-07 04:29:00</t>
   </si>
   <si>
     <t>CVE-2017-11462</t>
@@ -1591,10 +1591,10 @@
     <t>krb5: Automatic sec context deletion could lead to double-free</t>
   </si>
   <si>
-    <t>2017-09-13 16:29:00</t>
-  </si>
-  <si>
-    <t>2023-11-07 02:38:15</t>
+    <t>2017-09-14 00:29:00</t>
+  </si>
+  <si>
+    <t>2023-11-07 10:38:15</t>
   </si>
   <si>
     <t>CVE-2018-5730</t>
@@ -1618,10 +1618,10 @@
     <t>2.7.1-5+deb8u2</t>
   </si>
   <si>
-    <t>2017-04-14 18:59:00</t>
-  </si>
-  <si>
-    <t>2020-11-16 20:20:41</t>
+    <t>2017-04-15 02:59:00</t>
+  </si>
+  <si>
+    <t>2020-11-17 04:20:41</t>
   </si>
   <si>
     <t>CVE-2018-16869</t>
@@ -1630,7 +1630,7 @@
     <t>nettle: Leaky data conversion exposing a manager oracle</t>
   </si>
   <si>
-    <t>2023-02-03 14:25:21</t>
+    <t>2023-02-03 22:25:21</t>
   </si>
   <si>
     <t>CVE-2014-9911</t>
@@ -1648,10 +1648,10 @@
     <t>52.1-8+deb8u4</t>
   </si>
   <si>
-    <t>2017-01-04 20:59:00</t>
-  </si>
-  <si>
-    <t>2019-04-23 19:29:22</t>
+    <t>2017-01-05 04:59:00</t>
+  </si>
+  <si>
+    <t>2019-04-24 03:29:22</t>
   </si>
   <si>
     <t>CVE-2016-6293</t>
@@ -1660,10 +1660,10 @@
     <t>Out-of-bounds access in uloc_acceptLanguageFromHTTP</t>
   </si>
   <si>
-    <t>2016-07-25 14:59:06</t>
-  </si>
-  <si>
-    <t>2023-11-07 02:33:56</t>
+    <t>2016-07-25 22:59:06</t>
+  </si>
+  <si>
+    <t>2023-11-07 10:33:56</t>
   </si>
   <si>
     <t>CVE-2016-7415</t>
@@ -1672,10 +1672,10 @@
     <t>Stack based buffer overflow in locid.cpp</t>
   </si>
   <si>
-    <t>2016-09-17 21:59:07</t>
-  </si>
-  <si>
-    <t>2019-04-23 19:29:43</t>
+    <t>2016-09-18 05:59:07</t>
+  </si>
+  <si>
+    <t>2019-04-24 03:29:43</t>
   </si>
   <si>
     <t>CVE-2017-14952</t>
@@ -1687,10 +1687,10 @@
     <t>52.1-8+deb8u6</t>
   </si>
   <si>
-    <t>2017-10-16 16:29:00</t>
-  </si>
-  <si>
-    <t>2019-04-23 19:29:55</t>
+    <t>2017-10-17 00:29:00</t>
+  </si>
+  <si>
+    <t>2019-04-24 03:29:55</t>
   </si>
   <si>
     <t>CVE-2015-4844</t>
@@ -1699,10 +1699,10 @@
     <t>ICU: missing boundary checks in layout engine (OpenJDK 2D, 8132042)</t>
   </si>
   <si>
-    <t>2015-10-21 23:59:12</t>
-  </si>
-  <si>
-    <t>2022-05-13 14:38:26</t>
+    <t>2015-10-22 07:59:12</t>
+  </si>
+  <si>
+    <t>2022-05-13 22:38:26</t>
   </si>
   <si>
     <t>CVE-2016-0494</t>
@@ -1711,10 +1711,10 @@
     <t>ICU: integer signedness issue in IndicRearrangementProcessor (OpenJDK 2D, 8140543)</t>
   </si>
   <si>
-    <t>2016-01-21 03:00:42</t>
-  </si>
-  <si>
-    <t>2022-05-13 14:57:21</t>
+    <t>2016-01-21 11:00:42</t>
+  </si>
+  <si>
+    <t>2022-05-13 22:57:21</t>
   </si>
   <si>
     <t>CVE-2017-7867</t>
@@ -1726,7 +1726,7 @@
     <t>52.1-8+deb8u5</t>
   </si>
   <si>
-    <t>2019-04-23 19:31:20</t>
+    <t>2019-04-24 03:31:20</t>
   </si>
   <si>
     <t>CVE-2017-7868</t>
@@ -1744,10 +1744,10 @@
     <t>52.1-8+deb8u8</t>
   </si>
   <si>
-    <t>2020-03-12 19:15:13</t>
-  </si>
-  <si>
-    <t>2023-11-07 03:14:10</t>
+    <t>2020-03-13 03:15:13</t>
+  </si>
+  <si>
+    <t>2023-11-07 11:14:10</t>
   </si>
   <si>
     <t>CVE-2015-2632</t>
@@ -1756,10 +1756,10 @@
     <t>ICU: integer overflow in LETableReference verifyLength() (OpenJDK 2D, 8077520)</t>
   </si>
   <si>
-    <t>2015-07-16 10:59:54</t>
-  </si>
-  <si>
-    <t>2022-05-13 14:38:25</t>
+    <t>2015-07-16 18:59:54</t>
+  </si>
+  <si>
+    <t>2022-05-13 22:38:25</t>
   </si>
   <si>
     <t>CVE-2017-15422</t>
@@ -1771,10 +1771,10 @@
     <t>52.1-8+deb8u7</t>
   </si>
   <si>
-    <t>2018-08-28 19:29:11</t>
-  </si>
-  <si>
-    <t>2023-11-07 02:39:48</t>
+    <t>2018-08-29 03:29:11</t>
+  </si>
+  <si>
+    <t>2023-11-07 10:39:48</t>
   </si>
   <si>
     <t>CVE-2017-14062</t>
@@ -1792,10 +1792,10 @@
     <t>1.29-1+deb8u3</t>
   </si>
   <si>
-    <t>2017-08-31 16:29:00</t>
-  </si>
-  <si>
-    <t>2020-12-07 20:17:11</t>
+    <t>2017-09-01 00:29:00</t>
+  </si>
+  <si>
+    <t>2020-12-08 04:17:11</t>
   </si>
   <si>
     <t>CVE-2016-3616</t>
@@ -1813,10 +1813,10 @@
     <t>1:1.3.1-12+deb8u1</t>
   </si>
   <si>
-    <t>2017-02-13 18:59:00</t>
-  </si>
-  <si>
-    <t>2019-08-06 17:15:14</t>
+    <t>2017-02-14 02:59:00</t>
+  </si>
+  <si>
+    <t>2019-08-07 01:15:14</t>
   </si>
   <si>
     <t>CVE-2020-13790</t>
@@ -1825,10 +1825,10 @@
     <t>heap-based buffer over-read in get_rgb_row() in rdppm.c</t>
   </si>
   <si>
-    <t>2020-06-03 19:15:10</t>
-  </si>
-  <si>
-    <t>2023-11-07 03:16:58</t>
+    <t>2020-06-04 03:15:10</t>
+  </si>
+  <si>
+    <t>2023-11-07 11:16:58</t>
   </si>
   <si>
     <t>CVE-2018-11212</t>
@@ -1837,10 +1837,10 @@
     <t>libjpeg-turbo: Divide By Zero in alloc_sarray function in jmemmgr.c</t>
   </si>
   <si>
-    <t>2018-05-16 17:29:00</t>
-  </si>
-  <si>
-    <t>2022-04-20 00:15:15</t>
+    <t>2018-05-17 01:29:00</t>
+  </si>
+  <si>
+    <t>2022-04-20 08:15:15</t>
   </si>
   <si>
     <t>CVE-2018-11213</t>
@@ -1861,10 +1861,10 @@
     <t>libjpeg-turbo: Divide by zero allows for denial of service via crafted BMP image</t>
   </si>
   <si>
-    <t>2018-06-18 14:29:00</t>
-  </si>
-  <si>
-    <t>2020-07-31 21:15:12</t>
+    <t>2018-06-18 22:29:00</t>
+  </si>
+  <si>
+    <t>2020-08-01 05:15:12</t>
   </si>
   <si>
     <t>CVE-2018-14498</t>
@@ -1876,10 +1876,10 @@
     <t>1:1.3.1-12+deb8u2</t>
   </si>
   <si>
-    <t>2019-03-07 23:29:00</t>
-  </si>
-  <si>
-    <t>2023-11-07 02:52:58</t>
+    <t>2019-03-08 07:29:00</t>
+  </si>
+  <si>
+    <t>2023-11-07 10:52:58</t>
   </si>
   <si>
     <t>CVE-2019-2201</t>
@@ -1888,10 +1888,10 @@
     <t>libjpeg-turbo: several integer overflows and subsequent segfaults when attempting to compress/decompress gigapixel images</t>
   </si>
   <si>
-    <t>2019-11-13 18:15:11</t>
-  </si>
-  <si>
-    <t>2023-11-07 03:09:23</t>
+    <t>2019-11-14 02:15:11</t>
+  </si>
+  <si>
+    <t>2023-11-07 11:09:23</t>
   </si>
   <si>
     <t>CVE-2020-14152</t>
@@ -1900,10 +1900,10 @@
     <t>improper handling of max_memory_to_use setting can lead to excessive memory consumption</t>
   </si>
   <si>
-    <t>2020-06-15 17:15:10</t>
-  </si>
-  <si>
-    <t>2023-02-27 18:17:27</t>
+    <t>2020-06-16 01:15:10</t>
+  </si>
+  <si>
+    <t>2023-02-28 02:17:27</t>
   </si>
   <si>
     <t>libk5crypto3</t>
@@ -1930,10 +1930,10 @@
     <t>2.6-3+deb8u1</t>
   </si>
   <si>
-    <t>2017-02-03 19:59:00</t>
-  </si>
-  <si>
-    <t>2024-01-10 18:26:05</t>
+    <t>2017-02-04 03:59:00</t>
+  </si>
+  <si>
+    <t>2024-01-11 02:26:05</t>
   </si>
   <si>
     <t>CVE-2018-16435</t>
@@ -1945,10 +1945,10 @@
     <t>2.6-3+deb8u2</t>
   </si>
   <si>
-    <t>2018-09-04 00:29:02</t>
-  </si>
-  <si>
-    <t>2021-05-26 11:15:08</t>
+    <t>2018-09-04 08:29:02</t>
+  </si>
+  <si>
+    <t>2021-05-26 19:15:08</t>
   </si>
   <si>
     <t>CVE-2019-13565</t>
@@ -1966,10 +1966,10 @@
     <t>2.4.40+dfsg-1+deb8u5</t>
   </si>
   <si>
-    <t>2019-07-26 13:15:12</t>
-  </si>
-  <si>
-    <t>2023-11-07 03:03:52</t>
+    <t>2019-07-26 21:15:12</t>
+  </si>
+  <si>
+    <t>2023-11-07 11:03:52</t>
   </si>
   <si>
     <t>CVE-2020-12243</t>
@@ -1981,10 +1981,10 @@
     <t>2.4.40+dfsg-1+deb8u6</t>
   </si>
   <si>
-    <t>2020-04-28 19:15:12</t>
-  </si>
-  <si>
-    <t>2022-04-29 13:24:38</t>
+    <t>2020-04-29 03:15:12</t>
+  </si>
+  <si>
+    <t>2022-04-29 21:24:38</t>
   </si>
   <si>
     <t>CVE-2017-9287</t>
@@ -1996,10 +1996,10 @@
     <t>2.4.40+dfsg-1+deb8u3</t>
   </si>
   <si>
-    <t>2017-05-29 16:29:00</t>
-  </si>
-  <si>
-    <t>2022-06-13 19:18:45</t>
+    <t>2017-05-30 00:29:00</t>
+  </si>
+  <si>
+    <t>2022-06-14 03:18:45</t>
   </si>
   <si>
     <t>CVE-2019-13057</t>
@@ -2008,7 +2008,7 @@
     <t>openldap: Information disclosure issue in slapd component</t>
   </si>
   <si>
-    <t>2022-06-13 18:38:52</t>
+    <t>2022-06-14 02:38:52</t>
   </si>
   <si>
     <t>libmount1</t>
@@ -2029,10 +2029,10 @@
     <t>5.9+20140913-1+deb8u1</t>
   </si>
   <si>
-    <t>2017-06-29 23:29:00</t>
-  </si>
-  <si>
-    <t>2023-11-07 02:38:06</t>
+    <t>2017-06-30 07:29:00</t>
+  </si>
+  <si>
+    <t>2023-11-07 10:38:06</t>
   </si>
   <si>
     <t>CVE-2017-10685</t>
@@ -2047,10 +2047,10 @@
     <t>ncurses: Illegal address access in append_acs function</t>
   </si>
   <si>
-    <t>2017-07-08 17:29:00</t>
-  </si>
-  <si>
-    <t>2018-10-21 10:29:05</t>
+    <t>2017-07-09 01:29:00</t>
+  </si>
+  <si>
+    <t>2018-10-21 18:29:05</t>
   </si>
   <si>
     <t>CVE-2017-11113</t>
@@ -2059,7 +2059,7 @@
     <t>ncurses: Null pointer dereference vulnerability in _nc_parse_entry function</t>
   </si>
   <si>
-    <t>2019-05-06 15:00:36</t>
+    <t>2019-05-06 23:00:36</t>
   </si>
   <si>
     <t>CVE-2017-13728</t>
@@ -2068,10 +2068,10 @@
     <t>ncurses: Infinite loop in the next_char function</t>
   </si>
   <si>
-    <t>2017-08-29 06:29:00</t>
-  </si>
-  <si>
-    <t>2023-11-07 02:38:41</t>
+    <t>2017-08-29 14:29:00</t>
+  </si>
+  <si>
+    <t>2023-11-07 10:38:41</t>
   </si>
   <si>
     <t>CVE-2017-16879</t>
@@ -2083,10 +2083,10 @@
     <t>5.9+20140913-1+deb8u3</t>
   </si>
   <si>
-    <t>2017-11-22 22:29:00</t>
-  </si>
-  <si>
-    <t>2023-11-07 02:40:56</t>
+    <t>2017-11-23 06:29:00</t>
+  </si>
+  <si>
+    <t>2023-11-07 10:40:56</t>
   </si>
   <si>
     <t>CVE-2017-13729</t>
@@ -2113,7 +2113,7 @@
     <t>ncurses: Illegal address access in the function dump_uses()</t>
   </si>
   <si>
-    <t>2023-11-07 02:38:42</t>
+    <t>2023-11-07 10:38:42</t>
   </si>
   <si>
     <t>CVE-2017-13733</t>
@@ -2128,7 +2128,7 @@
     <t>ncurses: Illegal address access in the function _nc_safe_strcat</t>
   </si>
   <si>
-    <t>2018-10-21 10:29:06</t>
+    <t>2018-10-21 18:29:06</t>
   </si>
   <si>
     <t>CVE-2018-19217</t>
@@ -2137,10 +2137,10 @@
     <t>ncurses: Null pointer dereference at function _nc_name_match</t>
   </si>
   <si>
-    <t>2018-11-12 19:29:00</t>
-  </si>
-  <si>
-    <t>2024-03-21 02:30:44</t>
+    <t>2018-11-13 03:29:00</t>
+  </si>
+  <si>
+    <t>2024-03-21 10:30:44</t>
   </si>
   <si>
     <t>CVE-2018-19211</t>
@@ -2149,7 +2149,7 @@
     <t>ncurses: Null pointer dereference at function _nc_parse_entry in parse_entry.c</t>
   </si>
   <si>
-    <t>2019-04-23 13:15:28</t>
+    <t>2019-04-23 21:15:28</t>
   </si>
   <si>
     <t>CVE-2019-17594</t>
@@ -2158,10 +2158,10 @@
     <t>heap-based buffer overflow in the _nc_find_entry function in tinfo/comp_hash.c</t>
   </si>
   <si>
-    <t>2019-10-14 21:15:11</t>
-  </si>
-  <si>
-    <t>2021-02-10 15:13:31</t>
+    <t>2019-10-15 05:15:11</t>
+  </si>
+  <si>
+    <t>2021-02-10 23:13:31</t>
   </si>
   <si>
     <t>CVE-2019-17595</t>
@@ -2170,7 +2170,7 @@
     <t>heap-based buffer overflow in the fmt_entry function in tinfo/comp_hash.c</t>
   </si>
   <si>
-    <t>2021-02-08 20:52:19</t>
+    <t>2021-02-09 04:52:19</t>
   </si>
   <si>
     <t>libncursesw5</t>
@@ -2194,10 +2194,10 @@
     <t>2:3.26-1+debu8u2</t>
   </si>
   <si>
-    <t>2017-05-11 01:29:05</t>
-  </si>
-  <si>
-    <t>2021-07-20 23:15:12</t>
+    <t>2017-05-11 09:29:05</t>
+  </si>
+  <si>
+    <t>2021-07-21 07:15:12</t>
   </si>
   <si>
     <t>CVE-2019-17006</t>
@@ -2209,7 +2209,7 @@
     <t>2:3.26-1+debu8u10</t>
   </si>
   <si>
-    <t>2020-10-22 21:15:12</t>
+    <t>2020-10-23 05:15:12</t>
   </si>
   <si>
     <t>CVE-2017-7502</t>
@@ -2218,10 +2218,10 @@
     <t>nss: Null pointer dereference when handling empty SSLv2 messages</t>
   </si>
   <si>
-    <t>2017-05-30 18:29:00</t>
-  </si>
-  <si>
-    <t>2023-02-12 23:30:14</t>
+    <t>2017-05-31 02:29:00</t>
+  </si>
+  <si>
+    <t>2023-02-13 07:30:14</t>
   </si>
   <si>
     <t>CVE-2017-7805</t>
@@ -2233,10 +2233,10 @@
     <t>2:3.26-1+debu8u3</t>
   </si>
   <si>
-    <t>2018-06-11 21:29:10</t>
-  </si>
-  <si>
-    <t>2018-10-17 01:30:58</t>
+    <t>2018-06-12 05:29:10</t>
+  </si>
+  <si>
+    <t>2018-10-17 09:30:58</t>
   </si>
   <si>
     <t>CVE-2019-11719</t>
@@ -2248,10 +2248,10 @@
     <t>2:3.26-1+debu8u5</t>
   </si>
   <si>
-    <t>2019-07-23 14:15:16</t>
-  </si>
-  <si>
-    <t>2020-09-30 18:15:16</t>
+    <t>2019-07-23 22:15:16</t>
+  </si>
+  <si>
+    <t>2020-10-01 02:15:16</t>
   </si>
   <si>
     <t>CVE-2019-11729</t>
@@ -2269,10 +2269,10 @@
     <t>2:3.26-1+debu8u7</t>
   </si>
   <si>
-    <t>2020-01-08 20:15:12</t>
-  </si>
-  <si>
-    <t>2021-02-19 17:22:17</t>
+    <t>2020-01-09 04:15:12</t>
+  </si>
+  <si>
+    <t>2021-02-20 01:22:17</t>
   </si>
   <si>
     <t>CVE-2019-17007</t>
@@ -2284,7 +2284,7 @@
     <t>2:3.26-1+debu8u8</t>
   </si>
   <si>
-    <t>2021-02-19 16:58:55</t>
+    <t>2021-02-20 00:58:55</t>
   </si>
   <si>
     <t>CVE-2016-9074</t>
@@ -2293,10 +2293,10 @@
     <t>nss: Insufficient timing side-channel resistance in divSpoiler</t>
   </si>
   <si>
-    <t>2018-06-11 21:29:01</t>
-  </si>
-  <si>
-    <t>2018-08-09 15:12:49</t>
+    <t>2018-06-12 05:29:01</t>
+  </si>
+  <si>
+    <t>2018-08-09 23:12:49</t>
   </si>
   <si>
     <t>CVE-2017-5462</t>
@@ -2305,7 +2305,7 @@
     <t>nss: DRBG flaw in NSS</t>
   </si>
   <si>
-    <t>2018-06-11 21:29:07</t>
+    <t>2018-06-12 05:29:07</t>
   </si>
   <si>
     <t>CVE-2018-12404</t>
@@ -2317,10 +2317,10 @@
     <t>2:3.26-1+debu8u4</t>
   </si>
   <si>
-    <t>2019-05-02 17:29:01</t>
-  </si>
-  <si>
-    <t>2021-02-12 07:15:12</t>
+    <t>2019-05-03 01:29:01</t>
+  </si>
+  <si>
+    <t>2021-02-12 15:15:12</t>
   </si>
   <si>
     <t>CVE-2018-18508</t>
@@ -2329,7 +2329,7 @@
     <t>nss: NULL pointer dereference in several CMS functions resulting in a denial of service</t>
   </si>
   <si>
-    <t>2021-02-18 15:20:57</t>
+    <t>2021-02-18 23:20:57</t>
   </si>
   <si>
     <t>CVE-2019-11727</t>
@@ -2338,7 +2338,7 @@
     <t>nss: PKCS#1 v1.5 signatures can be used for TLS 1.3</t>
   </si>
   <si>
-    <t>2019-07-30 23:15:12</t>
+    <t>2019-07-31 07:15:12</t>
   </si>
   <si>
     <t>CVE-2020-12399</t>
@@ -2350,10 +2350,10 @@
     <t>2:3.26-1+debu8u11</t>
   </si>
   <si>
-    <t>2020-07-09 15:15:10</t>
-  </si>
-  <si>
-    <t>2022-01-04 16:38:55</t>
+    <t>2020-07-09 23:15:10</t>
+  </si>
+  <si>
+    <t>2022-01-05 00:38:55</t>
   </si>
   <si>
     <t>CVE-2020-12402</t>
@@ -2362,7 +2362,7 @@
     <t>nss: Side channel vulnerabilities during RSA key generation</t>
   </si>
   <si>
-    <t>2023-11-07 03:15:24</t>
+    <t>2023-11-07 11:15:24</t>
   </si>
   <si>
     <t>CVE-2018-12384</t>
@@ -2371,10 +2371,10 @@
     <t>nss: ServerHello.random is all zeros when handling a v2-compatible ClientHello</t>
   </si>
   <si>
-    <t>this package is affected by this vulnerability on this platform, and may be fixed in the future</t>
-  </si>
-  <si>
-    <t>2019-04-29 15:29:00</t>
+    <t>该软件包在此平台上受该漏洞的影响, 并且在未来可能会修复</t>
+  </si>
+  <si>
+    <t>2019-04-29 23:29:00</t>
   </si>
   <si>
     <t>CVE-2015-3217</t>
@@ -2389,10 +2389,10 @@
     <t>2:8.35-3.3+deb8u4</t>
   </si>
   <si>
-    <t>2016-12-13 16:59:02</t>
-  </si>
-  <si>
-    <t>2018-05-18 01:29:00</t>
+    <t>2016-12-14 00:59:02</t>
+  </si>
+  <si>
+    <t>2018-05-18 09:29:00</t>
   </si>
   <si>
     <t>CVE-2017-7186</t>
@@ -2401,10 +2401,10 @@
     <t>Invalid Unicode property lookup (8.41/7, 10.24/2)</t>
   </si>
   <si>
-    <t>2017-03-20 00:59:00</t>
-  </si>
-  <si>
-    <t>2018-08-17 10:29:02</t>
+    <t>2017-03-20 08:59:00</t>
+  </si>
+  <si>
+    <t>2018-08-17 18:29:02</t>
   </si>
   <si>
     <t>CVE-2017-7244</t>
@@ -2413,7 +2413,7 @@
     <t>invalid memory read in _pcre32_xclass (pcre_xclass.c)</t>
   </si>
   <si>
-    <t>2017-03-23 21:59:00</t>
+    <t>2017-03-24 05:59:00</t>
   </si>
   <si>
     <t>CVE-2020-14155</t>
@@ -2422,7 +2422,7 @@
     <t>pcre: Integer overflow when parsing callout numeric arguments</t>
   </si>
   <si>
-    <t>2023-11-07 03:17:06</t>
+    <t>2023-11-07 11:17:06</t>
   </si>
   <si>
     <t>CVE-2017-7245</t>
@@ -2431,7 +2431,7 @@
     <t>stack-based buffer overflow write in pcre32_copy_substring</t>
   </si>
   <si>
-    <t>2018-08-17 10:29:03</t>
+    <t>2018-08-17 18:29:03</t>
   </si>
   <si>
     <t>CVE-2017-7246</t>
@@ -2458,10 +2458,10 @@
     <t>1.8.13-1+deb8u1</t>
   </si>
   <si>
-    <t>2017-02-23 20:59:00</t>
-  </si>
-  <si>
-    <t>2023-11-07 02:29:31</t>
+    <t>2017-02-24 04:59:00</t>
+  </si>
+  <si>
+    <t>2023-11-07 10:29:31</t>
   </si>
   <si>
     <t>CVE-2016-10087</t>
@@ -2479,7 +2479,7 @@
     <t>1.2.50-2+deb8u3</t>
   </si>
   <si>
-    <t>2017-01-30 22:59:00</t>
+    <t>2017-01-31 06:59:00</t>
   </si>
   <si>
     <t>CVE-2018-1126</t>
@@ -2497,10 +2497,10 @@
     <t>2:3.3.9-9+deb8u1</t>
   </si>
   <si>
-    <t>2018-05-23 13:29:00</t>
-  </si>
-  <si>
-    <t>2019-07-30 13:15:14</t>
+    <t>2018-05-23 21:29:00</t>
+  </si>
+  <si>
+    <t>2019-07-30 21:15:14</t>
   </si>
   <si>
     <t>CVE-2018-1122</t>
@@ -2509,7 +2509,7 @@
     <t>procps-ng, procps: Local privilege escalation in top</t>
   </si>
   <si>
-    <t>2018-05-23 14:29:00</t>
+    <t>2018-05-23 22:29:00</t>
   </si>
   <si>
     <t>CVE-2018-1123</t>
@@ -2518,7 +2518,7 @@
     <t>procps-ng, procps: denial of service in ps via mmap buffer overflow</t>
   </si>
   <si>
-    <t>2023-11-07 02:55:50</t>
+    <t>2023-11-07 10:55:50</t>
   </si>
   <si>
     <t>CVE-2018-1124</t>
@@ -2527,7 +2527,7 @@
     <t>procps-ng, procps: Integer overflows leading to heap overflow in file2strvec</t>
   </si>
   <si>
-    <t>2020-09-09 14:58:59</t>
+    <t>2020-09-09 22:58:59</t>
   </si>
   <si>
     <t>CVE-2018-1125</t>
@@ -2536,7 +2536,7 @@
     <t>procps-ng, procps: stack buffer overflow in pgrep</t>
   </si>
   <si>
-    <t>2020-09-09 14:59:15</t>
+    <t>2020-09-09 22:59:15</t>
   </si>
   <si>
     <t>CVE-2015-8271</t>
@@ -2554,10 +2554,10 @@
     <t>2.4+20150115.gita107cef-1+deb8u1</t>
   </si>
   <si>
-    <t>2017-04-13 14:59:01</t>
-  </si>
-  <si>
-    <t>2017-11-04 01:29:12</t>
+    <t>2017-04-13 22:59:01</t>
+  </si>
+  <si>
+    <t>2017-11-04 09:29:12</t>
   </si>
   <si>
     <t>CVE-2015-8270</t>
@@ -2566,7 +2566,7 @@
     <t>The AMF3ReadString function in amf.c in RTMPDump 2.4 allows remote RTM ...</t>
   </si>
   <si>
-    <t>2017-04-13 14:59:00</t>
+    <t>2017-04-13 22:59:00</t>
   </si>
   <si>
     <t>CVE-2015-8272</t>
@@ -2590,10 +2590,10 @@
     <t>2.1.26.dfsg1-13+deb8u2</t>
   </si>
   <si>
-    <t>2019-12-19 18:15:12</t>
-  </si>
-  <si>
-    <t>2023-11-07 03:07:51</t>
+    <t>2019-12-20 02:15:12</t>
+  </si>
+  <si>
+    <t>2023-11-07 11:07:51</t>
   </si>
   <si>
     <t>libsasl2-modules-db</t>
@@ -2617,7 +2617,7 @@
     <t>3.8.7.1-1+deb8u4</t>
   </si>
   <si>
-    <t>2017-07-07 12:29:00</t>
+    <t>2017-07-07 20:29:00</t>
   </si>
   <si>
     <t>CVE-2017-2518</t>
@@ -2626,7 +2626,7 @@
     <t>An issue was discovered in certain Apple products. iOS before 10.3.2 i ...</t>
   </si>
   <si>
-    <t>2017-05-22 05:29:01</t>
+    <t>2017-05-22 13:29:01</t>
   </si>
   <si>
     <t>CVE-2017-2519</t>
@@ -2641,10 +2641,10 @@
     <t>heap out-of-bound read in function rtreenode()</t>
   </si>
   <si>
-    <t>2019-05-30 16:29:01</t>
-  </si>
-  <si>
-    <t>2023-11-07 03:13:30</t>
+    <t>2019-05-31 00:29:01</t>
+  </si>
+  <si>
+    <t>2023-11-07 11:13:30</t>
   </si>
   <si>
     <t>CVE-2018-20346</t>
@@ -2656,10 +2656,10 @@
     <t>3.8.7.1-1+deb8u3</t>
   </si>
   <si>
-    <t>2018-12-21 21:29:00</t>
-  </si>
-  <si>
-    <t>2023-11-07 02:56:16</t>
+    <t>2018-12-22 05:29:00</t>
+  </si>
+  <si>
+    <t>2023-11-07 10:56:16</t>
   </si>
   <si>
     <t>CVE-2018-20506</t>
@@ -2668,10 +2668,10 @@
     <t>CVE-2018-20346 CVE-2018-20505 CVE-2018-20506 sqlite: Multiple flaws in sqlite which can be triggered via corrupted internal databases (Magellan)</t>
   </si>
   <si>
-    <t>2019-04-03 18:29:01</t>
-  </si>
-  <si>
-    <t>2021-07-31 08:15:08</t>
+    <t>2019-04-04 02:29:01</t>
+  </si>
+  <si>
+    <t>2021-07-31 16:15:08</t>
   </si>
   <si>
     <t>CVE-2018-8740</t>
@@ -2680,10 +2680,10 @@
     <t>sqlite: NULL pointer dereference with databases with schema corrupted with CREATE TABLE AS allows for denial of service</t>
   </si>
   <si>
-    <t>2018-03-17 00:29:00</t>
-  </si>
-  <si>
-    <t>2023-11-07 03:01:29</t>
+    <t>2018-03-17 08:29:00</t>
+  </si>
+  <si>
+    <t>2023-11-07 11:01:29</t>
   </si>
   <si>
     <t>CVE-2019-20218</t>
@@ -2692,10 +2692,10 @@
     <t>sqlite: selectExpander in select.c proceeds with WITH stack unwinding even after a parsing error</t>
   </si>
   <si>
-    <t>2020-01-02 14:16:36</t>
-  </si>
-  <si>
-    <t>2022-10-07 17:56:29</t>
+    <t>2020-01-02 22:16:36</t>
+  </si>
+  <si>
+    <t>2022-10-08 01:56:29</t>
   </si>
   <si>
     <t>CVE-2019-5827</t>
@@ -2704,10 +2704,10 @@
     <t>sqlite: out-of-bounds access due to the use of 32-bit memory allocator interfaces</t>
   </si>
   <si>
-    <t>2019-06-27 17:15:14</t>
-  </si>
-  <si>
-    <t>2023-11-07 03:12:33</t>
+    <t>2019-06-28 01:15:14</t>
+  </si>
+  <si>
+    <t>2023-11-07 11:12:33</t>
   </si>
   <si>
     <t>CVE-2020-11655</t>
@@ -2719,10 +2719,10 @@
     <t>3.8.7.1-1+deb8u5</t>
   </si>
   <si>
-    <t>2020-04-09 03:15:11</t>
-  </si>
-  <si>
-    <t>2022-04-08 10:34:22</t>
+    <t>2020-04-09 11:15:11</t>
+  </si>
+  <si>
+    <t>2022-04-08 18:34:22</t>
   </si>
   <si>
     <t>CVE-2019-16168</t>
@@ -2731,10 +2731,10 @@
     <t>sqlite: Division by zero in whereLoopAddBtreeIndex in sqlite3.c</t>
   </si>
   <si>
-    <t>2019-09-09 17:15:13</t>
-  </si>
-  <si>
-    <t>2023-11-07 03:05:38</t>
+    <t>2019-09-10 01:15:13</t>
+  </si>
+  <si>
+    <t>2023-11-07 11:05:38</t>
   </si>
   <si>
     <t>CVE-2019-19645</t>
@@ -2743,10 +2743,10 @@
     <t>sqlite: infinite recursion via certain types of self-referential views in conjunction with ALTER TABLE statements</t>
   </si>
   <si>
-    <t>2019-12-09 16:15:10</t>
-  </si>
-  <si>
-    <t>2022-04-15 16:14:43</t>
+    <t>2019-12-10 00:15:10</t>
+  </si>
+  <si>
+    <t>2022-04-16 00:14:43</t>
   </si>
   <si>
     <t>CVE-2020-13434</t>
@@ -2758,10 +2758,10 @@
     <t>3.8.7.1-1+deb8u6</t>
   </si>
   <si>
-    <t>2020-05-24 22:15:10</t>
-  </si>
-  <si>
-    <t>2023-11-07 03:16:40</t>
+    <t>2020-05-25 06:15:10</t>
+  </si>
+  <si>
+    <t>2023-11-07 11:16:40</t>
   </si>
   <si>
     <t>CVE-2020-13631</t>
@@ -2770,10 +2770,10 @@
     <t>sqlite: Virtual table can be renamed into the name of one of its shadow tables</t>
   </si>
   <si>
-    <t>2020-05-27 15:15:12</t>
-  </si>
-  <si>
-    <t>2023-11-07 03:16:46</t>
+    <t>2020-05-27 23:15:12</t>
+  </si>
+  <si>
+    <t>2023-11-07 11:16:46</t>
   </si>
   <si>
     <t>libss2</t>
@@ -2794,10 +2794,10 @@
     <t>1.4.3-4.1+deb8u2</t>
   </si>
   <si>
-    <t>2019-03-21 21:29:00</t>
-  </si>
-  <si>
-    <t>2023-11-07 03:10:15</t>
+    <t>2019-03-22 05:29:00</t>
+  </si>
+  <si>
+    <t>2023-11-07 11:10:15</t>
   </si>
   <si>
     <t>CVE-2019-3859</t>
@@ -2809,7 +2809,7 @@
     <t>1.4.3-4.1+deb8u4</t>
   </si>
   <si>
-    <t>2019-03-21 16:01:04</t>
+    <t>2019-03-22 00:01:04</t>
   </si>
   <si>
     <t>CVE-2019-3860</t>
@@ -2821,7 +2821,7 @@
     <t>1.4.3-4.1+deb8u5</t>
   </si>
   <si>
-    <t>2019-03-25 19:29:01</t>
+    <t>2019-03-26 03:29:01</t>
   </si>
   <si>
     <t>CVE-2019-3861</t>
@@ -2842,10 +2842,10 @@
     <t>libssh2: integer overflow in kex_method_diffie_hellman_group_exchange_sha256_key_exchange in kex.c leads to out-of-bounds write</t>
   </si>
   <si>
-    <t>2019-07-16 18:15:13</t>
-  </si>
-  <si>
-    <t>2023-11-07 03:03:46</t>
+    <t>2019-07-17 02:15:13</t>
+  </si>
+  <si>
+    <t>2023-11-07 11:03:46</t>
   </si>
   <si>
     <t>CVE-2019-17498</t>
@@ -2857,10 +2857,10 @@
     <t>1.4.3-4.1+deb8u6</t>
   </si>
   <si>
-    <t>2019-10-21 22:15:10</t>
-  </si>
-  <si>
-    <t>2023-11-07 03:06:18</t>
+    <t>2019-10-22 06:15:10</t>
+  </si>
+  <si>
+    <t>2023-11-07 11:06:18</t>
   </si>
   <si>
     <t>CVE-2019-3855</t>
@@ -2869,7 +2869,7 @@
     <t>libssh2: Integer overflow in transport read resulting in out of bounds write</t>
   </si>
   <si>
-    <t>2023-11-07 03:10:14</t>
+    <t>2023-11-07 11:10:14</t>
   </si>
   <si>
     <t>CVE-2019-3856</t>
@@ -2890,7 +2890,7 @@
     <t>libssh2: Integer overflow in user authenticate keyboard interactive allows out-of-bounds writes</t>
   </si>
   <si>
-    <t>2019-03-25 18:29:01</t>
+    <t>2019-03-26 02:29:01</t>
   </si>
   <si>
     <t>DLA-1730-2</t>
@@ -2917,10 +2917,10 @@
     <t>1.0.1t-1+deb8u6</t>
   </si>
   <si>
-    <t>2017-11-13 22:29:00</t>
-  </si>
-  <si>
-    <t>2024-01-26 17:44:24</t>
+    <t>2017-11-14 06:29:00</t>
+  </si>
+  <si>
+    <t>2024-01-27 01:44:24</t>
   </si>
   <si>
     <t>CVE-2017-3731</t>
@@ -2929,10 +2929,10 @@
     <t>openssl: Truncated packet could crash via OOB read</t>
   </si>
   <si>
-    <t>2017-05-04 19:29:00</t>
-  </si>
-  <si>
-    <t>2022-08-16 13:16:45</t>
+    <t>2017-05-05 03:29:00</t>
+  </si>
+  <si>
+    <t>2022-08-16 21:16:45</t>
   </si>
   <si>
     <t>CVE-2018-0732</t>
@@ -2944,10 +2944,10 @@
     <t>1.0.1t-1+deb8u9</t>
   </si>
   <si>
-    <t>2018-06-12 13:29:00</t>
-  </si>
-  <si>
-    <t>2023-11-07 02:51:04</t>
+    <t>2018-06-12 21:29:00</t>
+  </si>
+  <si>
+    <t>2023-11-07 10:51:04</t>
   </si>
   <si>
     <t>CVE-2016-7056</t>
@@ -2956,10 +2956,10 @@
     <t>openssl: ECDSA P-256 timing attack key recovery</t>
   </si>
   <si>
-    <t>2018-09-10 16:29:00</t>
-  </si>
-  <si>
-    <t>2023-02-12 23:25:16</t>
+    <t>2018-09-11 00:29:00</t>
+  </si>
+  <si>
+    <t>2023-02-13 07:25:16</t>
   </si>
   <si>
     <t>CVE-2017-3735</t>
@@ -2971,10 +2971,10 @@
     <t>1.0.1t-1+deb8u7</t>
   </si>
   <si>
-    <t>2017-08-28 19:29:01</t>
-  </si>
-  <si>
-    <t>2022-12-13 12:15:24</t>
+    <t>2017-08-29 03:29:01</t>
+  </si>
+  <si>
+    <t>2022-12-13 20:15:24</t>
   </si>
   <si>
     <t>CVE-2018-0734</t>
@@ -2983,10 +2983,10 @@
     <t>openssl: timing side channel attack in the DSA signature algorithm</t>
   </si>
   <si>
-    <t>2018-10-30 12:29:00</t>
-  </si>
-  <si>
-    <t>2023-11-07 02:51:05</t>
+    <t>2018-10-30 20:29:00</t>
+  </si>
+  <si>
+    <t>2023-11-07 10:51:05</t>
   </si>
   <si>
     <t>CVE-2018-0735</t>
@@ -2998,7 +2998,7 @@
     <t>1.0.1t-1+deb8u10</t>
   </si>
   <si>
-    <t>2018-10-29 13:29:00</t>
+    <t>2018-10-29 21:29:00</t>
   </si>
   <si>
     <t>CVE-2018-0737</t>
@@ -3007,7 +3007,7 @@
     <t>openssl: RSA key generation cache timing vulnerability in crypto/rsa/rsa_gen.c allows attackers to recover private keys</t>
   </si>
   <si>
-    <t>2018-04-16 18:29:00</t>
+    <t>2018-04-17 02:29:00</t>
   </si>
   <si>
     <t>CVE-2018-0739</t>
@@ -3019,10 +3019,10 @@
     <t>1.0.1t-1+deb8u8</t>
   </si>
   <si>
-    <t>2018-03-27 21:29:00</t>
-  </si>
-  <si>
-    <t>2023-11-07 02:51:06</t>
+    <t>2018-03-28 05:29:00</t>
+  </si>
+  <si>
+    <t>2023-11-07 10:51:06</t>
   </si>
   <si>
     <t>CVE-2018-5407</t>
@@ -3031,10 +3031,10 @@
     <t>openssl: Side-channel vulnerability on SMT/Hyper-Threading architectures (PortSmash)</t>
   </si>
   <si>
-    <t>2018-11-15 21:29:00</t>
-  </si>
-  <si>
-    <t>2023-11-07 02:58:42</t>
+    <t>2018-11-16 05:29:00</t>
+  </si>
+  <si>
+    <t>2023-11-07 10:58:42</t>
   </si>
   <si>
     <t>CVE-2019-1547</t>
@@ -3046,10 +3046,10 @@
     <t>1.0.1t-1+deb8u12</t>
   </si>
   <si>
-    <t>2019-09-10 17:15:11</t>
-  </si>
-  <si>
-    <t>2023-11-07 03:08:28</t>
+    <t>2019-09-11 01:15:11</t>
+  </si>
+  <si>
+    <t>2023-11-07 11:08:28</t>
   </si>
   <si>
     <t>CVE-2019-1559</t>
@@ -3061,10 +3061,10 @@
     <t>1.0.1t-1+deb8u11</t>
   </si>
   <si>
-    <t>2019-02-27 23:29:00</t>
-  </si>
-  <si>
-    <t>2023-11-07 03:08:30</t>
+    <t>2019-02-28 07:29:00</t>
+  </si>
+  <si>
+    <t>2023-11-07 11:08:30</t>
   </si>
   <si>
     <t>CVE-2019-1563</t>
@@ -3073,7 +3073,7 @@
     <t>information disclosure in PKCS7_dataDecode and CMS_decrypt_set1_pkey</t>
   </si>
   <si>
-    <t>2023-11-07 03:08:32</t>
+    <t>2023-11-07 11:08:32</t>
   </si>
   <si>
     <t>libstdc++6</t>
@@ -3094,10 +3094,10 @@
     <t>215-17+deb8u12</t>
   </si>
   <si>
-    <t>2018-01-29 05:29:00</t>
-  </si>
-  <si>
-    <t>2023-11-07 02:41:50</t>
+    <t>2018-01-29 13:29:00</t>
+  </si>
+  <si>
+    <t>2023-11-07 10:41:50</t>
   </si>
   <si>
     <t>CVE-2018-15686</t>
@@ -3109,10 +3109,10 @@
     <t>215-17+deb8u8</t>
   </si>
   <si>
-    <t>2018-10-26 14:29:00</t>
-  </si>
-  <si>
-    <t>2023-11-07 02:53:18</t>
+    <t>2018-10-26 22:29:00</t>
+  </si>
+  <si>
+    <t>2023-11-07 10:53:18</t>
   </si>
   <si>
     <t>CVE-2018-15688</t>
@@ -3121,7 +3121,7 @@
     <t>systemd: Out-of-bounds heap write in systemd-networkd dhcpv6 option handling</t>
   </si>
   <si>
-    <t>2022-01-31 18:30:19</t>
+    <t>2022-02-01 02:30:19</t>
   </si>
   <si>
     <t>CVE-2018-16864</t>
@@ -3133,10 +3133,10 @@
     <t>215-17+deb8u9</t>
   </si>
   <si>
-    <t>2019-01-11 20:29:00</t>
-  </si>
-  <si>
-    <t>2023-02-13 04:51:52</t>
+    <t>2019-01-12 04:29:00</t>
+  </si>
+  <si>
+    <t>2023-02-13 12:51:52</t>
   </si>
   <si>
     <t>CVE-2018-16865</t>
@@ -3145,10 +3145,10 @@
     <t>systemd: stack overflow when receiving many journald entries</t>
   </si>
   <si>
-    <t>2019-01-11 21:29:00</t>
-  </si>
-  <si>
-    <t>2023-02-13 04:52:11</t>
+    <t>2019-01-12 05:29:00</t>
+  </si>
+  <si>
+    <t>2023-02-13 12:52:11</t>
   </si>
   <si>
     <t>CVE-2019-3842</t>
@@ -3157,10 +3157,10 @@
     <t>Spoofing of XDG_SEAT allows for actions to be checked against "allow_active" instead of "allow_any"</t>
   </si>
   <si>
-    <t>2019-04-09 21:29:03</t>
-  </si>
-  <si>
-    <t>2023-11-07 03:10:13</t>
+    <t>2019-04-10 05:29:03</t>
+  </si>
+  <si>
+    <t>2023-11-07 11:10:13</t>
   </si>
   <si>
     <t>CVE-2016-7796</t>
@@ -3172,10 +3172,10 @@
     <t>215-17+deb8u6</t>
   </si>
   <si>
-    <t>2016-10-13 14:59:14</t>
-  </si>
-  <si>
-    <t>2023-09-12 14:45:07</t>
+    <t>2016-10-13 22:59:14</t>
+  </si>
+  <si>
+    <t>2023-09-12 22:45:07</t>
   </si>
   <si>
     <t>CVE-2018-1049</t>
@@ -3184,10 +3184,10 @@
     <t>systemd: automount: access to automounted volumes can lock up</t>
   </si>
   <si>
-    <t>2018-02-16 21:29:00</t>
-  </si>
-  <si>
-    <t>2022-01-31 18:26:17</t>
+    <t>2018-02-17 05:29:00</t>
+  </si>
+  <si>
+    <t>2022-02-01 02:26:17</t>
   </si>
   <si>
     <t>CVE-2019-6454</t>
@@ -3199,10 +3199,10 @@
     <t>215-17+deb8u10</t>
   </si>
   <si>
-    <t>2019-03-21 16:01:08</t>
-  </si>
-  <si>
-    <t>2023-11-07 03:13:09</t>
+    <t>2019-03-22 00:01:08</t>
+  </si>
+  <si>
+    <t>2023-11-07 11:13:09</t>
   </si>
   <si>
     <t>CVE-2018-16888</t>
@@ -3211,7 +3211,7 @@
     <t>systemd: kills privileged process if unprivileged PIDFile was tampered</t>
   </si>
   <si>
-    <t>2019-01-14 22:29:00</t>
+    <t>2019-01-15 06:29:00</t>
   </si>
   <si>
     <t>CVE-2018-6954</t>
@@ -3220,10 +3220,10 @@
     <t>Mishandled symlinks in systemd-tmpfiles allows local users to obtain ownership of arbitrary files</t>
   </si>
   <si>
-    <t>2018-02-13 20:29:00</t>
-  </si>
-  <si>
-    <t>2023-11-07 03:00:35</t>
+    <t>2018-02-14 04:29:00</t>
+  </si>
+  <si>
+    <t>2023-11-07 11:00:35</t>
   </si>
   <si>
     <t>CVE-2019-3815</t>
@@ -3235,10 +3235,10 @@
     <t>215-17+deb8u11</t>
   </si>
   <si>
-    <t>2019-01-28 15:29:00</t>
-  </si>
-  <si>
-    <t>2023-02-12 23:38:20</t>
+    <t>2019-01-28 23:29:00</t>
+  </si>
+  <si>
+    <t>2023-02-13 07:38:20</t>
   </si>
   <si>
     <t>DLA-1762-2</t>
@@ -3265,7 +3265,7 @@
     <t>4.2-3+deb8u4</t>
   </si>
   <si>
-    <t>2017-07-02 03:29:00</t>
+    <t>2017-07-02 11:29:00</t>
   </si>
   <si>
     <t>CVE-2017-6891</t>
@@ -3277,10 +3277,10 @@
     <t>4.2-3+deb8u3</t>
   </si>
   <si>
-    <t>2017-05-22 19:29:00</t>
-  </si>
-  <si>
-    <t>2023-11-07 02:49:59</t>
+    <t>2017-05-23 03:29:00</t>
+  </si>
+  <si>
+    <t>2023-11-07 10:49:59</t>
   </si>
   <si>
     <t>libtinfo5</t>
@@ -3307,7 +3307,7 @@
     <t>2:1.6.2-3+deb8u2</t>
   </si>
   <si>
-    <t>2018-08-24 19:29:01</t>
+    <t>2018-08-25 03:29:01</t>
   </si>
   <si>
     <t>CVE-2018-14600</t>
@@ -3316,7 +3316,7 @@
     <t>libX11: Out of Bounds write in XListExtensions in ListExt.c</t>
   </si>
   <si>
-    <t>2019-08-06 17:15:23</t>
+    <t>2019-08-07 01:15:23</t>
   </si>
   <si>
     <t>CVE-2018-14598</t>
@@ -3334,10 +3334,10 @@
     <t>2:1.6.2-3+deb8u1</t>
   </si>
   <si>
-    <t>2016-12-13 20:59:05</t>
-  </si>
-  <si>
-    <t>2023-11-07 02:35:17</t>
+    <t>2016-12-14 04:59:05</t>
+  </si>
+  <si>
+    <t>2023-11-07 10:35:17</t>
   </si>
   <si>
     <t>CVE-2016-7943</t>
@@ -3346,7 +3346,7 @@
     <t>libX11: Insufficient validation of server responses in FontNames</t>
   </si>
   <si>
-    <t>2016-12-13 20:59:07</t>
+    <t>2016-12-14 04:59:07</t>
   </si>
   <si>
     <t>libx11-data</t>
@@ -3382,10 +3382,10 @@
     <t>2:1.7.4-1+deb8u1</t>
   </si>
   <si>
-    <t>2016-12-13 20:59:10</t>
-  </si>
-  <si>
-    <t>2023-11-07 02:35:18</t>
+    <t>2016-12-14 04:59:10</t>
+  </si>
+  <si>
+    <t>2023-11-07 10:35:18</t>
   </si>
   <si>
     <t>CVE-2016-7946</t>
@@ -3394,7 +3394,7 @@
     <t>libXi: Insufficient validation of server responses result in various data mishandlings</t>
   </si>
   <si>
-    <t>2016-12-13 20:59:11</t>
+    <t>2016-12-14 04:59:11</t>
   </si>
   <si>
     <t>CVE-2016-7949</t>
@@ -3409,10 +3409,10 @@
     <t>1:0.9.8-1+b1</t>
   </si>
   <si>
-    <t>2016-12-13 20:59:15</t>
-  </si>
-  <si>
-    <t>2023-11-07 02:35:19</t>
+    <t>2016-12-14 04:59:15</t>
+  </si>
+  <si>
+    <t>2023-11-07 10:35:19</t>
   </si>
   <si>
     <t>CVE-2016-7950</t>
@@ -3421,7 +3421,7 @@
     <t>libXrender: Insufficient validation of server responses results out-of-bounds write in XRenderQueryFilters</t>
   </si>
   <si>
-    <t>2016-12-13 20:59:16</t>
+    <t>2016-12-14 04:59:16</t>
   </si>
   <si>
     <t>CVE-2016-7951</t>
@@ -3439,7 +3439,7 @@
     <t>2:1.2.2-1+deb8u1</t>
   </si>
   <si>
-    <t>2016-12-13 20:59:18</t>
+    <t>2016-12-14 04:59:18</t>
   </si>
   <si>
     <t>CVE-2016-7952</t>
@@ -3448,10 +3448,10 @@
     <t>libXtst: Insufficient validation of server responses result in various data mishandlings</t>
   </si>
   <si>
-    <t>2016-12-13 20:59:19</t>
-  </si>
-  <si>
-    <t>2023-11-07 02:35:20</t>
+    <t>2016-12-14 04:59:19</t>
+  </si>
+  <si>
+    <t>2023-11-07 10:35:20</t>
   </si>
   <si>
     <t>CVE-2017-12424</t>
@@ -3466,10 +3466,10 @@
     <t>1:4.2-3+deb8u1</t>
   </si>
   <si>
-    <t>2017-08-04 09:29:00</t>
-  </si>
-  <si>
-    <t>2021-03-23 20:02:18</t>
+    <t>2017-08-04 17:29:00</t>
+  </si>
+  <si>
+    <t>2021-03-24 04:02:18</t>
   </si>
   <si>
     <t>CVE-2016-6252</t>
@@ -3481,10 +3481,10 @@
     <t>1:4.2-3+deb8u3</t>
   </si>
   <si>
-    <t>2017-02-17 17:59:00</t>
-  </si>
-  <si>
-    <t>2017-11-04 01:29:21</t>
+    <t>2017-02-18 01:59:00</t>
+  </si>
+  <si>
+    <t>2017-11-04 09:29:21</t>
   </si>
   <si>
     <t>CVE-2017-2616</t>
@@ -3493,10 +3493,10 @@
     <t>util-linux: Sending SIGKILL to other processes with root privileges via su</t>
   </si>
   <si>
-    <t>2018-07-27 19:29:00</t>
-  </si>
-  <si>
-    <t>2019-10-09 23:26:56</t>
+    <t>2018-07-28 03:29:00</t>
+  </si>
+  <si>
+    <t>2019-10-10 07:26:56</t>
   </si>
   <si>
     <t>CVE-2018-7169</t>
@@ -3505,7 +3505,7 @@
     <t>shadow-utils: newgidmap allows unprivileged user to drop supplementary groups potentially allowing privilege escalation</t>
   </si>
   <si>
-    <t>2018-02-15 20:29:00</t>
+    <t>2018-02-16 04:29:00</t>
   </si>
   <si>
     <t>DSA-3793-2</t>
@@ -3553,10 +3553,10 @@
     <t>5.20.2-3+deb8u9</t>
   </si>
   <si>
-    <t>2017-09-19 18:29:00</t>
-  </si>
-  <si>
-    <t>2020-07-15 03:15:18</t>
+    <t>2017-09-20 02:29:00</t>
+  </si>
+  <si>
+    <t>2020-07-15 11:15:18</t>
   </si>
   <si>
     <t>CVE-2018-18311</t>
@@ -3568,10 +3568,10 @@
     <t>5.20.2-3+deb8u12</t>
   </si>
   <si>
-    <t>2018-12-07 21:29:00</t>
-  </si>
-  <si>
-    <t>2023-11-07 02:55:02</t>
+    <t>2018-12-08 05:29:00</t>
+  </si>
+  <si>
+    <t>2023-11-07 10:55:02</t>
   </si>
   <si>
     <t>CVE-2018-6797</t>
@@ -3580,7 +3580,7 @@
     <t>perl: heap write overflow in regcomp.c</t>
   </si>
   <si>
-    <t>2018-04-17 20:29:00</t>
+    <t>2018-04-18 04:29:00</t>
   </si>
   <si>
     <t>CVE-2018-6913</t>
@@ -3607,7 +3607,7 @@
     <t>5.20.2-3+deb8u11</t>
   </si>
   <si>
-    <t>2018-06-07 13:29:00</t>
+    <t>2018-06-07 21:29:00</t>
   </si>
   <si>
     <t>CVE-2017-6512</t>
@@ -3619,10 +3619,10 @@
     <t>5.20.2-3+deb8u7</t>
   </si>
   <si>
-    <t>2017-06-01 16:29:00</t>
-  </si>
-  <si>
-    <t>2020-04-29 20:24:59</t>
+    <t>2017-06-02 00:29:00</t>
+  </si>
+  <si>
+    <t>2020-04-30 04:24:59</t>
   </si>
   <si>
     <t>procps</t>
@@ -3643,10 +3643,10 @@
     <t>0.0.9+deb8u1</t>
   </si>
   <si>
-    <t>2017-12-11 06:29:00</t>
-  </si>
-  <si>
-    <t>2018-03-16 01:29:07</t>
+    <t>2017-12-11 14:29:00</t>
+  </si>
+  <si>
+    <t>2018-03-16 09:29:07</t>
   </si>
   <si>
     <t>systemd</t>
@@ -3670,10 +3670,10 @@
     <t>1.27.1-2+deb8u1</t>
   </si>
   <si>
-    <t>2016-12-09 22:59:00</t>
-  </si>
-  <si>
-    <t>2023-02-13 04:50:12</t>
+    <t>2016-12-10 06:59:00</t>
+  </si>
+  <si>
+    <t>2023-02-13 12:50:12</t>
   </si>
   <si>
     <t>CVE-2018-20482</t>
@@ -3685,10 +3685,10 @@
     <t>1.27.1-2+deb8u2</t>
   </si>
   <si>
-    <t>2018-12-26 18:29:00</t>
-  </si>
-  <si>
-    <t>2021-11-30 19:52:03</t>
+    <t>2018-12-27 02:29:00</t>
+  </si>
+  <si>
+    <t>2021-12-01 03:52:03</t>
   </si>
   <si>
     <t>DLA-1563-1</t>
@@ -3745,7 +3745,7 @@
     <t>6.0-16+deb8u6</t>
   </si>
   <si>
-    <t>2018-02-09 23:29:01</t>
+    <t>2018-02-10 07:29:01</t>
   </si>
   <si>
     <t>CVE-2014-9913</t>
@@ -3757,10 +3757,10 @@
     <t>6.0-16+deb8u3</t>
   </si>
   <si>
-    <t>2017-01-18 17:59:00</t>
-  </si>
-  <si>
-    <t>2019-12-16 20:24:14</t>
+    <t>2017-01-19 01:59:00</t>
+  </si>
+  <si>
+    <t>2019-12-17 04:24:14</t>
   </si>
   <si>
     <t>CVE-2016-9844</t>
@@ -3769,7 +3769,7 @@
     <t>unzip: methbuf[] buffer overflow in zipinfo's zi_short()</t>
   </si>
   <si>
-    <t>2017-01-18 17:59:01</t>
+    <t>2017-01-19 01:59:01</t>
   </si>
   <si>
     <t>CVE-2019-13232</t>
@@ -3781,10 +3781,10 @@
     <t>6.0-16+deb8u4</t>
   </si>
   <si>
-    <t>2019-07-04 13:15:10</t>
-  </si>
-  <si>
-    <t>2023-11-07 03:03:48</t>
+    <t>2019-07-04 21:15:10</t>
+  </si>
+  <si>
+    <t>2023-11-07 11:03:48</t>
   </si>
   <si>
     <t>DLA-1846-2</t>
@@ -3814,7 +3814,7 @@
     <t>1.16-1+deb8u6</t>
   </si>
   <si>
-    <t>2019-05-17 16:29:05</t>
+    <t>2019-05-18 00:29:05</t>
   </si>
   <si>
     <t>CVE-2016-7098</t>
@@ -3826,10 +3826,10 @@
     <t>1.16-1+deb8u7</t>
   </si>
   <si>
-    <t>2016-09-26 14:59:08</t>
-  </si>
-  <si>
-    <t>2017-09-03 01:29:12</t>
+    <t>2016-09-26 22:59:08</t>
+  </si>
+  <si>
+    <t>2017-09-03 09:29:12</t>
   </si>
   <si>
     <t>CVE-2017-13089</t>
@@ -3841,10 +3841,10 @@
     <t>1.16-1+deb8u4</t>
   </si>
   <si>
-    <t>2017-10-27 19:29:00</t>
-  </si>
-  <si>
-    <t>2017-12-30 02:29:01</t>
+    <t>2017-10-28 03:29:00</t>
+  </si>
+  <si>
+    <t>2017-12-30 10:29:01</t>
   </si>
   <si>
     <t>CVE-2017-13090</t>
@@ -3862,10 +3862,10 @@
     <t>1.16-1+deb8u2</t>
   </si>
   <si>
-    <t>2017-03-07 08:59:00</t>
-  </si>
-  <si>
-    <t>2017-07-01 01:30:31</t>
+    <t>2017-03-07 16:59:00</t>
+  </si>
+  <si>
+    <t>2017-07-01 09:30:31</t>
   </si>
   <si>
     <t>CVE-2018-0494</t>
@@ -3877,10 +3877,10 @@
     <t>1.16-1+deb8u5</t>
   </si>
   <si>
-    <t>2018-05-06 22:29:00</t>
-  </si>
-  <si>
-    <t>2019-03-15 01:22:23</t>
+    <t>2018-05-07 06:29:00</t>
+  </si>
+  <si>
+    <t>2019-03-15 09:22:23</t>
   </si>
   <si>
     <t>CVE-2016-9841</t>
@@ -3898,10 +3898,10 @@
     <t>1:1.2.8.dfsg-2+deb8u1</t>
   </si>
   <si>
-    <t>2017-05-23 04:29:01</t>
-  </si>
-  <si>
-    <t>2023-11-07 02:37:36</t>
+    <t>2017-05-23 12:29:01</t>
+  </si>
+  <si>
+    <t>2023-11-07 10:37:36</t>
   </si>
   <si>
     <t>CVE-2016-9843</t>
@@ -3916,7 +3916,7 @@
     <t>zlib: Out-of-bounds pointer arithmetic in inftrees.c</t>
   </si>
   <si>
-    <t>2023-11-07 02:37:35</t>
+    <t>2023-11-07 10:37:35</t>
   </si>
   <si>
     <t>CVE-2016-9842</t>
@@ -3931,7 +3931,7 @@
     <t>jar</t>
   </si>
   <si>
-    <t>Language Package</t>
+    <t>应用层</t>
   </si>
   <si>
     <t>CVE-2023-6378</t>
@@ -3955,10 +3955,10 @@
     <t>1.3.12, 1.4.12, 1.2.13</t>
   </si>
   <si>
-    <t>2023-11-29 12:15:07</t>
-  </si>
-  <si>
-    <t>2023-12-05 21:00:10</t>
+    <t>2023-11-29 20:15:07</t>
+  </si>
+  <si>
+    <t>2023-12-06 05:00:10</t>
   </si>
   <si>
     <t>ch.qos.logback:logback-core</t>
@@ -3976,10 +3976,10 @@
     <t>1.2.9</t>
   </si>
   <si>
-    <t>2021-12-16 19:15:08</t>
-  </si>
-  <si>
-    <t>2022-12-12 21:13:07</t>
+    <t>2021-12-17 03:15:08</t>
+  </si>
+  <si>
+    <t>2022-12-13 05:13:07</t>
   </si>
   <si>
     <t>CVE-2017-18349</t>
@@ -4000,10 +4000,10 @@
     <t>1.2.31</t>
   </si>
   <si>
-    <t>2018-10-23 20:29:00</t>
-  </si>
-  <si>
-    <t>2019-01-28 20:57:39</t>
+    <t>2018-10-24 04:29:00</t>
+  </si>
+  <si>
+    <t>2019-01-29 04:57:39</t>
   </si>
   <si>
     <t>CVE-2022-25845</t>
@@ -4015,10 +4015,10 @@
     <t>1.2.83</t>
   </si>
   <si>
-    <t>2022-06-10 20:15:08</t>
-  </si>
-  <si>
-    <t>2023-02-23 17:51:57</t>
+    <t>2022-06-11 04:15:08</t>
+  </si>
+  <si>
+    <t>2023-02-24 01:51:57</t>
   </si>
   <si>
     <t>CVE-2019-14379</t>
@@ -4039,10 +4039,10 @@
     <t>2.9.9.2, 2.8.11.4, 2.7.9.6</t>
   </si>
   <si>
-    <t>2019-07-29 12:15:16</t>
-  </si>
-  <si>
-    <t>2023-11-07 03:04:54</t>
+    <t>2019-07-29 20:15:16</t>
+  </si>
+  <si>
+    <t>2023-11-07 11:04:54</t>
   </si>
   <si>
     <t>CVE-2019-14540</t>
@@ -4054,10 +4054,10 @@
     <t>2.9.10, 2.8.11.5, 2.6.7.3</t>
   </si>
   <si>
-    <t>2019-09-15 22:15:10</t>
-  </si>
-  <si>
-    <t>2023-11-07 03:04:59</t>
+    <t>2019-09-16 06:15:10</t>
+  </si>
+  <si>
+    <t>2023-11-07 11:04:59</t>
   </si>
   <si>
     <t>CVE-2019-16335</t>
@@ -4066,7 +4066,7 @@
     <t>Serialization gadgets in com.zaxxer.hikari.HikariDataSource</t>
   </si>
   <si>
-    <t>2023-11-07 03:05:40</t>
+    <t>2023-11-07 11:05:40</t>
   </si>
   <si>
     <t>CVE-2019-16942</t>
@@ -4078,10 +4078,10 @@
     <t>2.9.10.1, 2.8.11.5, 2.6.7.3</t>
   </si>
   <si>
-    <t>2019-10-01 17:15:10</t>
-  </si>
-  <si>
-    <t>2023-11-07 03:06:03</t>
+    <t>2019-10-02 01:15:10</t>
+  </si>
+  <si>
+    <t>2023-11-07 11:06:03</t>
   </si>
   <si>
     <t>CVE-2019-16943</t>
@@ -4099,10 +4099,10 @@
     <t>2.9.10, 2.8.11.5</t>
   </si>
   <si>
-    <t>2019-10-07 00:15:10</t>
-  </si>
-  <si>
-    <t>2023-11-07 03:06:12</t>
+    <t>2019-10-07 08:15:10</t>
+  </si>
+  <si>
+    <t>2023-11-07 11:06:12</t>
   </si>
   <si>
     <t>CVE-2019-17531</t>
@@ -4111,7 +4111,7 @@
     <t>jackson-databind: Serialization gadgets in org.apache.log4j.receivers.db.*</t>
   </si>
   <si>
-    <t>2019-10-12 21:15:08</t>
+    <t>2019-10-13 05:15:08</t>
   </si>
   <si>
     <t>CVE-2019-20330</t>
@@ -4123,10 +4123,10 @@
     <t>2.6.7.4, 2.7.9.7, 2.8.11.5, 2.9.10.2</t>
   </si>
   <si>
-    <t>2020-01-03 04:15:12</t>
-  </si>
-  <si>
-    <t>2023-11-07 03:09:07</t>
+    <t>2020-01-03 12:15:12</t>
+  </si>
+  <si>
+    <t>2023-11-07 11:09:07</t>
   </si>
   <si>
     <t>CVE-2020-8840</t>
@@ -4138,10 +4138,10 @@
     <t>2.6.7.4, 2.7.9.7, 2.8.11.5, 2.9.10.3</t>
   </si>
   <si>
-    <t>2020-02-10 21:56:10</t>
-  </si>
-  <si>
-    <t>2023-11-07 03:26:46</t>
+    <t>2020-02-11 05:56:10</t>
+  </si>
+  <si>
+    <t>2023-11-07 11:26:46</t>
   </si>
   <si>
     <t>CVE-2020-9546</t>
@@ -4153,10 +4153,10 @@
     <t>2.9.10.4</t>
   </si>
   <si>
-    <t>2020-03-02 04:15:10</t>
-  </si>
-  <si>
-    <t>2023-11-07 03:26:58</t>
+    <t>2020-03-02 12:15:10</t>
+  </si>
+  <si>
+    <t>2023-11-07 11:26:58</t>
   </si>
   <si>
     <t>CVE-2020-9547</t>
@@ -4168,7 +4168,7 @@
     <t>2.9.10.4, 2.8.11.6, 2.7.9.7</t>
   </si>
   <si>
-    <t>2020-03-02 04:15:11</t>
+    <t>2020-03-02 12:15:11</t>
   </si>
   <si>
     <t>CVE-2020-9548</t>
@@ -4186,10 +4186,10 @@
     <t>2.9.9.2, 2.8.11.4, 2.7.9.6, 2.6.7.3</t>
   </si>
   <si>
-    <t>2019-07-30 11:15:11</t>
-  </si>
-  <si>
-    <t>2023-11-07 03:04:55</t>
+    <t>2019-07-30 19:15:11</t>
+  </si>
+  <si>
+    <t>2023-11-07 11:04:55</t>
   </si>
   <si>
     <t>CVE-2019-14892</t>
@@ -4201,10 +4201,10 @@
     <t>2.6.7.3, 2.8.11.5, 2.9.10</t>
   </si>
   <si>
-    <t>2020-03-02 17:15:17</t>
-  </si>
-  <si>
-    <t>2023-11-07 03:05:21</t>
+    <t>2020-03-03 01:15:17</t>
+  </si>
+  <si>
+    <t>2023-11-07 11:05:21</t>
   </si>
   <si>
     <t>CVE-2019-14893</t>
@@ -4216,7 +4216,7 @@
     <t>2.9.10</t>
   </si>
   <si>
-    <t>2020-03-02 21:15:17</t>
+    <t>2020-03-03 05:15:17</t>
   </si>
   <si>
     <t>CVE-2020-10650</t>
@@ -4225,10 +4225,10 @@
     <t>A deserialization flaw was discovered in jackson-databind through 2.9. ...</t>
   </si>
   <si>
-    <t>2022-12-26 20:15:10</t>
-  </si>
-  <si>
-    <t>2023-08-18 14:15:18</t>
+    <t>2022-12-27 04:15:10</t>
+  </si>
+  <si>
+    <t>2023-08-18 22:15:18</t>
   </si>
   <si>
     <t>CVE-2020-10672</t>
@@ -4237,10 +4237,10 @@
     <t>jackson-databind: mishandles the interaction between serialization gadgets and typing which could result in remote command execution</t>
   </si>
   <si>
-    <t>2020-03-18 22:15:12</t>
-  </si>
-  <si>
-    <t>2023-11-07 03:14:11</t>
+    <t>2020-03-19 06:15:12</t>
+  </si>
+  <si>
+    <t>2023-11-07 11:14:11</t>
   </si>
   <si>
     <t>CVE-2020-10673</t>
@@ -4255,10 +4255,10 @@
     <t>jackson-databind: Serialization gadgets in org.aoju.bus.proxy.provider.*.RmiProvider</t>
   </si>
   <si>
-    <t>2020-03-26 13:15:12</t>
-  </si>
-  <si>
-    <t>2023-11-07 03:14:26</t>
+    <t>2020-03-26 21:15:12</t>
+  </si>
+  <si>
+    <t>2023-11-07 11:14:26</t>
   </si>
   <si>
     <t>CVE-2020-10969</t>
@@ -4267,7 +4267,7 @@
     <t>jackson-databind: Serialization gadgets in javax.swing.JEditorPane</t>
   </si>
   <si>
-    <t>2020-03-26 13:15:13</t>
+    <t>2020-03-26 21:15:13</t>
   </si>
   <si>
     <t>CVE-2020-11111</t>
@@ -4276,10 +4276,10 @@
     <t>jackson-databind: Serialization gadgets in org.apache.activemq.jms.pool.XaPooledConnectionFactory</t>
   </si>
   <si>
-    <t>2020-03-31 05:15:13</t>
-  </si>
-  <si>
-    <t>2023-11-07 03:14:30</t>
+    <t>2020-03-31 13:15:13</t>
+  </si>
+  <si>
+    <t>2023-11-07 11:14:30</t>
   </si>
   <si>
     <t>CVE-2020-11112</t>
@@ -4300,10 +4300,10 @@
     <t>jackson-databind: Serialization gadgets in org.springframework:spring-aop</t>
   </si>
   <si>
-    <t>2020-04-07 23:15:12</t>
-  </si>
-  <si>
-    <t>2023-11-07 03:15:00</t>
+    <t>2020-04-08 07:15:12</t>
+  </si>
+  <si>
+    <t>2023-11-07 11:15:00</t>
   </si>
   <si>
     <t>CVE-2020-11620</t>
@@ -4321,10 +4321,10 @@
     <t>2.9.10.5</t>
   </si>
   <si>
-    <t>2020-06-14 21:15:09</t>
-  </si>
-  <si>
-    <t>2023-11-07 03:17:05</t>
+    <t>2020-06-15 05:15:09</t>
+  </si>
+  <si>
+    <t>2023-11-07 11:17:05</t>
   </si>
   <si>
     <t>CVE-2020-14061</t>
@@ -4333,7 +4333,7 @@
     <t>jackson-databind: serialization in weblogic/oracle-aqjms</t>
   </si>
   <si>
-    <t>2020-06-14 20:15:10</t>
+    <t>2020-06-15 04:15:10</t>
   </si>
   <si>
     <t>CVE-2020-14062</t>
@@ -4348,10 +4348,10 @@
     <t>jackson-databind: serialization in org.jsecurity.realm.jndi.JndiRealmFactory</t>
   </si>
   <si>
-    <t>2020-06-16 16:15:11</t>
-  </si>
-  <si>
-    <t>2021-11-17 20:20:55</t>
+    <t>2020-06-17 00:15:11</t>
+  </si>
+  <si>
+    <t>2021-11-18 04:20:55</t>
   </si>
   <si>
     <t>CVE-2020-24616</t>
@@ -4363,10 +4363,10 @@
     <t>2.9.10.6</t>
   </si>
   <si>
-    <t>2020-08-25 18:15:11</t>
-  </si>
-  <si>
-    <t>2023-11-07 03:20:08</t>
+    <t>2020-08-26 02:15:11</t>
+  </si>
+  <si>
+    <t>2023-11-07 11:20:08</t>
   </si>
   <si>
     <t>CVE-2020-24750</t>
@@ -4378,10 +4378,10 @@
     <t>2.6.7.5, 2.9.10.6</t>
   </si>
   <si>
-    <t>2020-09-17 19:15:13</t>
-  </si>
-  <si>
-    <t>2023-09-13 14:56:17</t>
+    <t>2020-09-18 03:15:13</t>
+  </si>
+  <si>
+    <t>2023-09-13 22:56:17</t>
   </si>
   <si>
     <t>CVE-2020-25649</t>
@@ -4393,10 +4393,10 @@
     <t>2.6.7.4, 2.9.10.7, 2.10.5.1</t>
   </si>
   <si>
-    <t>2020-12-03 17:15:12</t>
-  </si>
-  <si>
-    <t>2023-11-07 03:20:18</t>
+    <t>2020-12-04 01:15:12</t>
+  </si>
+  <si>
+    <t>2023-11-07 11:20:18</t>
   </si>
   <si>
     <t>CVE-2020-35490</t>
@@ -4408,10 +4408,10 @@
     <t>2.9.10.8</t>
   </si>
   <si>
-    <t>2020-12-17 19:15:14</t>
-  </si>
-  <si>
-    <t>2022-09-08 21:32:11</t>
+    <t>2020-12-18 03:15:14</t>
+  </si>
+  <si>
+    <t>2022-09-09 05:32:11</t>
   </si>
   <si>
     <t>CVE-2020-35491</t>
@@ -4420,7 +4420,7 @@
     <t>jackson-databind: mishandles the interaction between serialization gadgets and typing, related to org.apache.commons.dbcp2.datasources.SharedPoolDataSource</t>
   </si>
   <si>
-    <t>2022-09-08 21:32:07</t>
+    <t>2022-09-09 05:32:07</t>
   </si>
   <si>
     <t>CVE-2020-35728</t>
@@ -4429,10 +4429,10 @@
     <t>jackson-databind: mishandles the interaction between serialization gadgets and typing, related to com.oracle.wls.shaded.org.apache.xalan.lib.sql.JNDIConnectionPool</t>
   </si>
   <si>
-    <t>2020-12-27 05:15:11</t>
-  </si>
-  <si>
-    <t>2023-11-07 03:22:02</t>
+    <t>2020-12-27 13:15:11</t>
+  </si>
+  <si>
+    <t>2023-11-07 11:22:02</t>
   </si>
   <si>
     <t>CVE-2020-36179</t>
@@ -4444,10 +4444,10 @@
     <t>2.9.10.8, 2.6.7.5</t>
   </si>
   <si>
-    <t>2021-01-07 00:15:14</t>
-  </si>
-  <si>
-    <t>2023-11-07 03:22:06</t>
+    <t>2021-01-07 08:15:14</t>
+  </si>
+  <si>
+    <t>2023-11-07 11:22:06</t>
   </si>
   <si>
     <t>CVE-2020-36180</t>
@@ -4456,7 +4456,7 @@
     <t>jackson-databind: mishandles the interaction between serialization gadgets and typing, related to org.apache.commons.dbcp2.cpdsadapter.DriverAdapterCPDS</t>
   </si>
   <si>
-    <t>2023-09-13 14:56:32</t>
+    <t>2023-09-13 22:56:32</t>
   </si>
   <si>
     <t>CVE-2020-36181</t>
@@ -4465,10 +4465,10 @@
     <t>jackson-databind: mishandles the interaction between serialization gadgets and typing, related to org.apache.tomcat.dbcp.dbcp.cpdsadapter.DriverAdapterCPDS</t>
   </si>
   <si>
-    <t>2021-01-06 23:15:12</t>
-  </si>
-  <si>
-    <t>2023-09-13 14:56:39</t>
+    <t>2021-01-07 07:15:12</t>
+  </si>
+  <si>
+    <t>2023-09-13 22:56:39</t>
   </si>
   <si>
     <t>CVE-2020-36182</t>
@@ -4477,7 +4477,7 @@
     <t>jackson-databind: mishandles the interaction between serialization gadgets and typing, related to org.apache.tomcat.dbcp.dbcp2.cpdsadapter.DriverAdapterCPDS</t>
   </si>
   <si>
-    <t>2023-09-13 14:56:46</t>
+    <t>2023-09-13 22:56:46</t>
   </si>
   <si>
     <t>CVE-2020-36183</t>
@@ -4486,10 +4486,10 @@
     <t>jackson-databind: mishandles the interaction between serialization gadgets and typing, related to org.docx4j.org.apache.xalan.lib.sql.JNDIConnectionPool</t>
   </si>
   <si>
-    <t>2021-01-07 00:15:15</t>
-  </si>
-  <si>
-    <t>2023-09-13 14:56:58</t>
+    <t>2021-01-07 08:15:15</t>
+  </si>
+  <si>
+    <t>2023-09-13 22:56:58</t>
   </si>
   <si>
     <t>CVE-2020-36184</t>
@@ -4498,10 +4498,10 @@
     <t>jackson-databind: mishandles the interaction between serialization gadgets and typing, related to org.apache.tomcat.dbcp.dbcp2.datasources.PerUserPoolDataSource</t>
   </si>
   <si>
-    <t>2021-01-06 23:15:13</t>
-  </si>
-  <si>
-    <t>2023-09-13 14:57:10</t>
+    <t>2021-01-07 07:15:13</t>
+  </si>
+  <si>
+    <t>2023-09-13 22:57:10</t>
   </si>
   <si>
     <t>CVE-2020-36185</t>
@@ -4510,7 +4510,7 @@
     <t>jackson-databind: mishandles the interaction between serialization gadgets and typing, related to org.apache.tomcat.dbcp.dbcp2.datasources.SharedPoolDataSource</t>
   </si>
   <si>
-    <t>2023-09-13 14:57:03</t>
+    <t>2023-09-13 22:57:03</t>
   </si>
   <si>
     <t>CVE-2020-36186</t>
@@ -4519,7 +4519,7 @@
     <t>jackson-databind: mishandles the interaction between serialization gadgets and typing, related to org.apache.tomcat.dbcp.dbcp.datasources.PerUserPoolDataSource</t>
   </si>
   <si>
-    <t>2023-09-13 14:57:19</t>
+    <t>2023-09-13 22:57:19</t>
   </si>
   <si>
     <t>CVE-2020-36187</t>
@@ -4528,7 +4528,7 @@
     <t>jackson-databind: mishandles the interaction between serialization gadgets and typing, related to org.apache.tomcat.dbcp.dbcp.datasources.SharedPoolDataSource</t>
   </si>
   <si>
-    <t>2023-09-13 14:57:25</t>
+    <t>2023-09-13 22:57:25</t>
   </si>
   <si>
     <t>CVE-2020-36188</t>
@@ -4537,7 +4537,7 @@
     <t>jackson-databind: mishandles the interaction between serialization gadgets and typing, related to com.newrelic.agent.deps.ch.qos.logback.core.db.JNDIConnectionSource</t>
   </si>
   <si>
-    <t>2023-09-13 14:57:31</t>
+    <t>2023-09-13 22:57:31</t>
   </si>
   <si>
     <t>CVE-2020-36189</t>
@@ -4546,7 +4546,7 @@
     <t>jackson-databind: mishandles the interaction between serialization gadgets and typing, related to com.newrelic.agent.deps.ch.qos.logback.core.db.DriverManagerConnectionSource</t>
   </si>
   <si>
-    <t>2023-09-13 14:57:37</t>
+    <t>2023-09-13 22:57:37</t>
   </si>
   <si>
     <t>CVE-2020-36518</t>
@@ -4558,10 +4558,10 @@
     <t>2.13.2.1, 2.12.6.1</t>
   </si>
   <si>
-    <t>2022-03-11 07:15:07</t>
-  </si>
-  <si>
-    <t>2022-11-29 22:12:38</t>
+    <t>2022-03-11 15:15:07</t>
+  </si>
+  <si>
+    <t>2022-11-30 06:12:38</t>
   </si>
   <si>
     <t>CVE-2021-20190</t>
@@ -4573,10 +4573,10 @@
     <t>2.9.10.7, 2.6.7.5</t>
   </si>
   <si>
-    <t>2021-01-19 17:15:13</t>
-  </si>
-  <si>
-    <t>2023-11-07 03:28:59</t>
+    <t>2021-01-20 01:15:13</t>
+  </si>
+  <si>
+    <t>2023-11-07 11:28:59</t>
   </si>
   <si>
     <t>CVE-2022-42003</t>
@@ -4588,10 +4588,10 @@
     <t>2.12.7.1, 2.13.4.2</t>
   </si>
   <si>
-    <t>2022-10-02 05:15:09</t>
-  </si>
-  <si>
-    <t>2023-12-20 10:15:07</t>
+    <t>2022-10-02 13:15:09</t>
+  </si>
+  <si>
+    <t>2023-12-20 18:15:07</t>
   </si>
   <si>
     <t>CVE-2022-42004</t>
@@ -4603,7 +4603,7 @@
     <t>2.12.7.1, 2.13.4</t>
   </si>
   <si>
-    <t>2022-12-02 15:10:05</t>
+    <t>2022-12-02 23:10:05</t>
   </si>
   <si>
     <t>CVE-2019-12384</t>
@@ -4615,10 +4615,10 @@
     <t>2.9.9.1, 2.8.11.4, 2.7.9.6, 2.6.7.3</t>
   </si>
   <si>
-    <t>2019-06-24 16:15:15</t>
-  </si>
-  <si>
-    <t>2023-11-07 03:03:32</t>
+    <t>2019-06-25 00:15:15</t>
+  </si>
+  <si>
+    <t>2023-11-07 11:03:32</t>
   </si>
   <si>
     <t>CVE-2019-12814</t>
@@ -4627,10 +4627,10 @@
     <t>jackson-databind: polymorphic typing issue allows attacker to read arbitrary local files on the server via crafted JSON message.</t>
   </si>
   <si>
-    <t>2019-06-19 14:15:10</t>
-  </si>
-  <si>
-    <t>2023-11-07 03:03:41</t>
+    <t>2019-06-19 22:15:10</t>
+  </si>
+  <si>
+    <t>2023-11-07 11:03:41</t>
   </si>
   <si>
     <t>CVE-2020-1938</t>
@@ -4651,10 +4651,10 @@
     <t>9.0.31, 8.5.51, 7.0.100</t>
   </si>
   <si>
-    <t>2020-02-24 22:15:12</t>
-  </si>
-  <si>
-    <t>2023-11-07 03:19:36</t>
+    <t>2020-02-25 06:15:12</t>
+  </si>
+  <si>
+    <t>2023-11-07 11:19:36</t>
   </si>
   <si>
     <t>CVE-2019-12418</t>
@@ -4666,10 +4666,10 @@
     <t>7.0.99, 8.5.49, 9.0.29</t>
   </si>
   <si>
-    <t>2019-12-23 18:15:10</t>
-  </si>
-  <si>
-    <t>2023-11-07 03:03:34</t>
+    <t>2019-12-24 02:15:10</t>
+  </si>
+  <si>
+    <t>2023-11-07 11:03:34</t>
   </si>
   <si>
     <t>CVE-2019-17563</t>
@@ -4681,10 +4681,10 @@
     <t>7.0.99, 8.5.50, 9.0.30</t>
   </si>
   <si>
-    <t>2019-12-23 17:15:11</t>
-  </si>
-  <si>
-    <t>2023-11-07 03:06:19</t>
+    <t>2019-12-24 01:15:11</t>
+  </si>
+  <si>
+    <t>2023-11-07 11:06:19</t>
   </si>
   <si>
     <t>CVE-2021-25122</t>
@@ -4696,10 +4696,10 @@
     <t>10.0.2, 9.0.43, 8.5.63</t>
   </si>
   <si>
-    <t>2021-03-01 12:15:13</t>
-  </si>
-  <si>
-    <t>2023-11-07 03:31:23</t>
+    <t>2021-03-01 20:15:13</t>
+  </si>
+  <si>
+    <t>2023-11-07 11:31:23</t>
   </si>
   <si>
     <t>CVE-2021-25329</t>
@@ -4711,10 +4711,10 @@
     <t>10.0.2, 9.0.41, 8.5.61, 7.0.108</t>
   </si>
   <si>
-    <t>2021-03-01 12:15:14</t>
-  </si>
-  <si>
-    <t>2023-11-07 03:31:27</t>
+    <t>2021-03-01 20:15:14</t>
+  </si>
+  <si>
+    <t>2023-11-07 11:31:27</t>
   </si>
   <si>
     <t>CVE-2023-46589</t>
@@ -4726,10 +4726,10 @@
     <t>11.0.0-M11, 10.1.16, 9.0.83, 8.5.96</t>
   </si>
   <si>
-    <t>2023-11-28 16:15:06</t>
-  </si>
-  <si>
-    <t>2024-01-05 11:15:09</t>
+    <t>2023-11-29 00:15:06</t>
+  </si>
+  <si>
+    <t>2024-01-05 19:15:09</t>
   </si>
   <si>
     <t>CVE-2020-1935</t>
@@ -4741,7 +4741,7 @@
     <t>7.0.100, 8.5.51, 9.0.31</t>
   </si>
   <si>
-    <t>2020-02-24 22:15:11</t>
+    <t>2020-02-25 06:15:11</t>
   </si>
   <si>
     <t>CVE-2021-24122</t>
@@ -4753,10 +4753,10 @@
     <t>10.0.0-M10, 9.0.40, 8.5.60, 7.0.107</t>
   </si>
   <si>
-    <t>2021-01-14 15:15:13</t>
-  </si>
-  <si>
-    <t>2023-11-07 03:31:06</t>
+    <t>2021-01-14 23:15:13</t>
+  </si>
+  <si>
+    <t>2023-11-07 11:31:06</t>
   </si>
   <si>
     <t>CVE-2023-41080</t>
@@ -4768,10 +4768,10 @@
     <t>8.5.93, 9.0.80, 10.1.13, 11.0.0-M11</t>
   </si>
   <si>
-    <t>2023-08-25 21:15:09</t>
-  </si>
-  <si>
-    <t>2023-11-03 19:00:56</t>
+    <t>2023-08-26 05:15:09</t>
+  </si>
+  <si>
+    <t>2023-11-04 03:00:56</t>
   </si>
   <si>
     <t>CVE-2023-42795</t>
@@ -4783,10 +4783,10 @@
     <t>11.0.0-M12, 10.1.14, 9.0.81, 8.5.94</t>
   </si>
   <si>
-    <t>2023-10-10 18:15:18</t>
-  </si>
-  <si>
-    <t>2023-11-04 06:15:51</t>
+    <t>2023-10-11 02:15:18</t>
+  </si>
+  <si>
+    <t>2023-11-04 14:15:51</t>
   </si>
   <si>
     <t>CVE-2023-44487</t>
@@ -4795,10 +4795,10 @@
     <t>HTTP/2: Multiple HTTP/2 enabled web servers are vulnerable to a DDoS attack (Rapid Reset Attack)</t>
   </si>
   <si>
-    <t>2023-10-10 14:15:10</t>
-  </si>
-  <si>
-    <t>2024-02-02 15:40:23</t>
+    <t>2023-10-10 22:15:10</t>
+  </si>
+  <si>
+    <t>2024-02-02 23:40:23</t>
   </si>
   <si>
     <t>CVE-2023-45648</t>
@@ -4807,10 +4807,10 @@
     <t>tomcat: incorrectly parsed http trailer headers can cause request smuggling</t>
   </si>
   <si>
-    <t>2023-10-10 19:15:09</t>
-  </si>
-  <si>
-    <t>2023-11-04 06:15:52</t>
+    <t>2023-10-11 03:15:09</t>
+  </si>
+  <si>
+    <t>2023-11-04 14:15:52</t>
   </si>
   <si>
     <t>CVE-2024-24549</t>
@@ -4822,10 +4822,10 @@
     <t>8.5.99, 9.0.86, 10.1.19, 11.0.0-M17</t>
   </si>
   <si>
-    <t>2024-03-13 16:15:29</t>
-  </si>
-  <si>
-    <t>2024-03-13 18:15:58</t>
+    <t>2024-03-14 00:15:29</t>
+  </si>
+  <si>
+    <t>2024-03-14 02:15:58</t>
   </si>
   <si>
     <t>CVE-2019-10219</t>
@@ -4846,10 +4846,10 @@
     <t>6.0.18</t>
   </si>
   <si>
-    <t>2019-11-08 15:15:11</t>
-  </si>
-  <si>
-    <t>2023-11-07 03:02:27</t>
+    <t>2019-11-08 23:15:11</t>
+  </si>
+  <si>
+    <t>2023-11-07 11:02:27</t>
   </si>
   <si>
     <t>CVE-2020-10693</t>
@@ -4861,10 +4861,10 @@
     <t>6.1.5.Final, 6.0.20.Final</t>
   </si>
   <si>
-    <t>2020-05-06 14:15:10</t>
-  </si>
-  <si>
-    <t>2023-11-07 03:14:13</t>
+    <t>2020-05-06 22:15:10</t>
+  </si>
+  <si>
+    <t>2023-11-07 11:14:13</t>
   </si>
   <si>
     <t>CVE-2022-27772</t>
@@ -4885,10 +4885,10 @@
     <t>2.2.11.RELEASE</t>
   </si>
   <si>
-    <t>2022-03-30 18:15:08</t>
-  </si>
-  <si>
-    <t>2024-03-21 02:42:31</t>
+    <t>2022-03-31 02:15:08</t>
+  </si>
+  <si>
+    <t>2024-03-21 10:42:31</t>
   </si>
   <si>
     <t>CVE-2023-34055</t>
@@ -4900,10 +4900,10 @@
     <t>2.7.18, 3.0.13, 3.1.6</t>
   </si>
   <si>
-    <t>2023-11-28 09:15:07</t>
-  </si>
-  <si>
-    <t>2023-12-21 22:15:13</t>
+    <t>2023-11-28 17:15:07</t>
+  </si>
+  <si>
+    <t>2023-12-22 06:15:13</t>
   </si>
   <si>
     <t>CVE-2023-20883</t>
@@ -4921,10 +4921,10 @@
     <t>3.0.7, 2.7.12, 2.6.15, 2.5.15</t>
   </si>
   <si>
-    <t>2023-05-26 17:15:14</t>
-  </si>
-  <si>
-    <t>2023-07-03 16:15:09</t>
+    <t>2023-05-27 01:15:14</t>
+  </si>
+  <si>
+    <t>2023-07-04 00:15:09</t>
   </si>
   <si>
     <t>CVE-2022-22965</t>
@@ -4942,10 +4942,10 @@
     <t>2.5.12, 2.6.6</t>
   </si>
   <si>
-    <t>2022-04-01 23:15:13</t>
-  </si>
-  <si>
-    <t>2023-02-09 02:07:02</t>
+    <t>2022-04-02 07:15:13</t>
+  </si>
+  <si>
+    <t>2023-02-09 10:07:02</t>
   </si>
   <si>
     <t>org.springframework:spring-beans</t>
@@ -4969,10 +4969,10 @@
     <t>5.2.22.RELEASE, 5.3.20</t>
   </si>
   <si>
-    <t>2022-05-12 20:15:15</t>
-  </si>
-  <si>
-    <t>2022-10-07 13:17:11</t>
+    <t>2022-05-13 04:15:15</t>
+  </si>
+  <si>
+    <t>2022-10-07 21:17:11</t>
   </si>
   <si>
     <t>CVE-2022-22968</t>
@@ -4990,10 +4990,10 @@
     <t>5.3.19, 5.2.21</t>
   </si>
   <si>
-    <t>2022-04-14 21:15:08</t>
-  </si>
-  <si>
-    <t>2022-10-19 15:15:02</t>
+    <t>2022-04-15 05:15:08</t>
+  </si>
+  <si>
+    <t>2022-10-19 23:15:02</t>
   </si>
   <si>
     <t>CVE-2023-20863</t>
@@ -5011,10 +5011,10 @@
     <t>6.0.8, 5.3.27, 5.2.24.RELEASE</t>
   </si>
   <si>
-    <t>2023-04-13 20:15:07</t>
-  </si>
-  <si>
-    <t>2023-04-21 18:04:37</t>
+    <t>2023-04-14 04:15:07</t>
+  </si>
+  <si>
+    <t>2023-04-22 02:04:37</t>
   </si>
   <si>
     <t>CVE-2022-22950</t>
@@ -5026,7 +5026,7 @@
     <t>5.3.17, 5.2.20.RELEASE</t>
   </si>
   <si>
-    <t>2022-06-22 13:53:48</t>
+    <t>2022-06-22 21:53:48</t>
   </si>
   <si>
     <t>CVE-2023-20861</t>
@@ -5038,10 +5038,10 @@
     <t>6.0.7, 5.3.26, 5.2.23.RELEASE</t>
   </si>
   <si>
-    <t>2023-03-23 21:15:19</t>
-  </si>
-  <si>
-    <t>2023-04-20 09:15:09</t>
+    <t>2023-03-24 05:15:19</t>
+  </si>
+  <si>
+    <t>2023-04-20 17:15:09</t>
   </si>
   <si>
     <t>CVE-2016-1000027</t>
@@ -5059,10 +5059,10 @@
     <t>6.0.0</t>
   </si>
   <si>
-    <t>2020-01-02 23:15:11</t>
-  </si>
-  <si>
-    <t>2023-04-20 09:15:07</t>
+    <t>2020-01-03 07:15:11</t>
+  </si>
+  <si>
+    <t>2023-04-20 17:15:07</t>
   </si>
   <si>
     <t>CVE-2024-22243</t>
@@ -5074,10 +5074,10 @@
     <t>6.1.4, 6.0.17, 5.3.32</t>
   </si>
   <si>
-    <t>2024-02-23 05:15:08</t>
-  </si>
-  <si>
-    <t>2024-02-23 16:14:43</t>
+    <t>2024-02-23 13:15:08</t>
+  </si>
+  <si>
+    <t>2024-02-24 00:14:43</t>
   </si>
   <si>
     <t>CVE-2024-22259</t>
@@ -5086,10 +5086,10 @@
     <t>6.1.5, 6.0.18, 5.3.33</t>
   </si>
   <si>
-    <t>2024-03-16 05:15:20</t>
-  </si>
-  <si>
-    <t>2024-03-17 22:38:29</t>
+    <t>2024-03-16 13:15:20</t>
+  </si>
+  <si>
+    <t>2024-03-18 06:38:29</t>
   </si>
   <si>
     <t>org.springframework:spring-webmvc</t>
@@ -5107,10 +5107,10 @@
     <t>5.2.3.RELEASE, 5.1.13.RELEASE, 5.0.16.RELEASE</t>
   </si>
   <si>
-    <t>2020-01-17 00:15:12</t>
-  </si>
-  <si>
-    <t>2023-11-07 03:23:46</t>
+    <t>2020-01-17 08:15:12</t>
+  </si>
+  <si>
+    <t>2023-11-07 11:23:46</t>
   </si>
   <si>
     <t>CVE-2017-18640</t>
@@ -5131,10 +5131,10 @@
     <t>1.26</t>
   </si>
   <si>
-    <t>2019-12-12 03:15:10</t>
-  </si>
-  <si>
-    <t>2023-11-07 02:41:56</t>
+    <t>2019-12-12 11:15:10</t>
+  </si>
+  <si>
+    <t>2023-11-07 10:41:56</t>
   </si>
   <si>
     <t>CVE-2022-1471</t>
@@ -5146,10 +5146,10 @@
     <t>2.0</t>
   </si>
   <si>
-    <t>2022-12-01 11:15:10</t>
-  </si>
-  <si>
-    <t>2023-11-19 15:15:20</t>
+    <t>2022-12-01 19:15:10</t>
+  </si>
+  <si>
+    <t>2023-11-19 23:15:20</t>
   </si>
   <si>
     <t>CVE-2022-25857</t>
@@ -5161,10 +5161,10 @@
     <t>1.31</t>
   </si>
   <si>
-    <t>2022-08-30 05:15:07</t>
-  </si>
-  <si>
-    <t>2024-03-15 11:15:07</t>
+    <t>2022-08-30 13:15:07</t>
+  </si>
+  <si>
+    <t>2024-03-15 19:15:07</t>
   </si>
   <si>
     <t>CVE-2022-38749</t>
@@ -5173,7 +5173,7 @@
     <t>snakeyaml: Uncaught exception in org.yaml.snakeyaml.composer.Composer.composeSequenceNode</t>
   </si>
   <si>
-    <t>2022-09-05 10:15:09</t>
+    <t>2022-09-05 18:15:09</t>
   </si>
   <si>
     <t>CVE-2022-38750</t>
@@ -5182,7 +5182,7 @@
     <t>snakeyaml: Uncaught exception in org.yaml.snakeyaml.constructor.BaseConstructor.constructObject</t>
   </si>
   <si>
-    <t>2024-03-15 11:15:08</t>
+    <t>2024-03-15 19:15:08</t>
   </si>
   <si>
     <t>CVE-2022-38751</t>
@@ -5206,7 +5206,7 @@
     <t>dev-java/snakeyaml: DoS via stack overflow</t>
   </si>
   <si>
-    <t>2022-11-11 13:15:11</t>
+    <t>2022-11-11 21:15:11</t>
   </si>
 </sst>
 </file>

--- a/internal/excel/testdata/vpt_java_test.xlsx
+++ b/internal/excel/testdata/vpt_java_test.xlsx
@@ -94,10 +94,10 @@
     <t>该软件包已发布修复补丁</t>
   </si>
   <si>
-    <t>2019-01-29 05:29:00</t>
-  </si>
-  <si>
-    <t>2023-11-07 11:09:47</t>
+    <t>2019 年 01 月 29 日 05:29:00</t>
+  </si>
+  <si>
+    <t>2023 年 11 月 07 日 11:09:47</t>
   </si>
   <si>
     <t>CVE-2016-1252</t>
@@ -112,10 +112,10 @@
     <t>1.0.9.8.4</t>
   </si>
   <si>
-    <t>2017-12-06 00:29:00</t>
-  </si>
-  <si>
-    <t>2020-08-14 23:26:29</t>
+    <t>2017 年 12 月 06 日 00:29:00</t>
+  </si>
+  <si>
+    <t>2020 年 08 月 14 日 23:26:29</t>
   </si>
   <si>
     <t>CVE-2020-3810</t>
@@ -127,10 +127,10 @@
     <t>1.0.9.8.6</t>
   </si>
   <si>
-    <t>2020-05-15 22:15:11</t>
-  </si>
-  <si>
-    <t>2023-11-07 11:23:04</t>
+    <t>2020 年 05 月 15 日 22:15:11</t>
+  </si>
+  <si>
+    <t>2023 年 11 月 07 日 11:23:04</t>
   </si>
   <si>
     <t>CVE-2016-7543</t>
@@ -148,10 +148,10 @@
     <t>4.3-11+deb8u1</t>
   </si>
   <si>
-    <t>2017-01-20 04:59:00</t>
-  </si>
-  <si>
-    <t>2023-11-07 10:34:43</t>
+    <t>2017 年 01 月 20 日 04:59:00</t>
+  </si>
+  <si>
+    <t>2023 年 11 月 07 日 10:34:43</t>
   </si>
   <si>
     <t>CVE-2019-9924</t>
@@ -163,10 +163,10 @@
     <t>4.3-11+deb8u2</t>
   </si>
   <si>
-    <t>2019-03-22 16:29:00</t>
-  </si>
-  <si>
-    <t>2022-04-06 04:11:00</t>
+    <t>2019 年 03 月 22 日 16:29:00</t>
+  </si>
+  <si>
+    <t>2022 年 04 月 06 日 04:11:00</t>
   </si>
   <si>
     <t>CVE-2016-9401</t>
@@ -175,10 +175,10 @@
     <t>bash: popd controlled free</t>
   </si>
   <si>
-    <t>2017-01-24 05:59:02</t>
-  </si>
-  <si>
-    <t>2020-09-15 02:32:28</t>
+    <t>2017 年 01 月 24 日 05:59:02</t>
+  </si>
+  <si>
+    <t>2020 年 09 月 15 日 02:32:28</t>
   </si>
   <si>
     <t>CVE-2016-0634</t>
@@ -190,10 +190,10 @@
     <t>低危</t>
   </si>
   <si>
-    <t>2017-08-28 23:29:01</t>
-  </si>
-  <si>
-    <t>2018-01-05 10:30:27</t>
+    <t>2017 年 08 月 28 日 23:29:01</t>
+  </si>
+  <si>
+    <t>2018 年 01 月 05 日 10:30:27</t>
   </si>
   <si>
     <t>CVE-2016-2779</t>
@@ -211,10 +211,10 @@
     <t>该软件包在此平台上受该漏洞的影响，但是暂未发布补丁</t>
   </si>
   <si>
-    <t>2017-02-07 23:59:00</t>
-  </si>
-  <si>
-    <t>2019-01-04 22:14:12</t>
+    <t>2017 年 02 月 07 日 23:59:00</t>
+  </si>
+  <si>
+    <t>2019 年 01 月 04 日 22:14:12</t>
   </si>
   <si>
     <t>CVE-2016-5011</t>
@@ -223,10 +223,10 @@
     <t>util-linux: Extended partition loop in MBR partition table leads to DOS</t>
   </si>
   <si>
-    <t>2017-04-11 23:59:00</t>
-  </si>
-  <si>
-    <t>2020-09-11 23:22:28</t>
+    <t>2017 年 04 月 11 日 23:59:00</t>
+  </si>
+  <si>
+    <t>2020 年 09 月 11 日 23:22:28</t>
   </si>
   <si>
     <t>CVE-2019-12900</t>
@@ -247,10 +247,10 @@
     <t>1.0.6-7+deb8u1</t>
   </si>
   <si>
-    <t>2019-06-20 07:15:09</t>
-  </si>
-  <si>
-    <t>2023-11-07 11:03:43</t>
+    <t>2019 年 06 月 20 日 07:15:09</t>
+  </si>
+  <si>
+    <t>2023 年 11 月 07 日 11:03:43</t>
   </si>
   <si>
     <t>CVE-2016-3189</t>
@@ -259,10 +259,10 @@
     <t>bzip2: heap use after free in bzip2recover</t>
   </si>
   <si>
-    <t>2016-07-01 01:59:01</t>
-  </si>
-  <si>
-    <t>2023-11-07 10:32:12</t>
+    <t>2016 年 07 月 01 日 01:59:01</t>
+  </si>
+  <si>
+    <t>2023 年 11 月 07 日 10:32:12</t>
   </si>
   <si>
     <t>DLA-1833-2</t>
@@ -307,7 +307,7 @@
     <t>该软件包在此平台上受该漏洞的影响，但是目前没有修复它的打算（这主要是针对影响较低或中等、对客户不构成重大风险的漏洞）。</t>
   </si>
   <si>
-    <t>2023-11-07 10:32:03</t>
+    <t>2023 年 11 月 07 日 10:32:03</t>
   </si>
   <si>
     <t>CVE-2016-7167</t>
@@ -325,10 +325,10 @@
     <t>7.38.0-4+deb8u13</t>
   </si>
   <si>
-    <t>2016-10-07 22:59:08</t>
-  </si>
-  <si>
-    <t>2023-11-07 10:34:16</t>
+    <t>2016 年 10 月 07 日 22:59:08</t>
+  </si>
+  <si>
+    <t>2023 年 11 月 07 日 10:34:16</t>
   </si>
   <si>
     <t>CVE-2016-8618</t>
@@ -340,10 +340,10 @@
     <t>7.38.0-4+deb8u5</t>
   </si>
   <si>
-    <t>2018-08-01 05:29:00</t>
-  </si>
-  <si>
-    <t>2023-11-07 10:36:24</t>
+    <t>2018 年 08 月 01 日 05:29:00</t>
+  </si>
+  <si>
+    <t>2023 年 11 月 07 日 10:36:24</t>
   </si>
   <si>
     <t>CVE-2016-8619</t>
@@ -352,7 +352,7 @@
     <t>curl: Double-free in krb5 code</t>
   </si>
   <si>
-    <t>2018-08-01 14:29:00</t>
+    <t>2018 年 08 月 01 日 14:29:00</t>
   </si>
   <si>
     <t>CVE-2016-8620</t>
@@ -376,10 +376,10 @@
     <t>7.38.0-4+deb8u7</t>
   </si>
   <si>
-    <t>2017-11-01 05:29:00</t>
-  </si>
-  <si>
-    <t>2018-11-13 19:29:07</t>
+    <t>2017 年 11 月 01 日 05:29:00</t>
+  </si>
+  <si>
+    <t>2018 年 11 月 13 日 19:29:07</t>
   </si>
   <si>
     <t>CVE-2017-8816</t>
@@ -391,10 +391,10 @@
     <t>7.38.0-4+deb8u8</t>
   </si>
   <si>
-    <t>2017-11-30 02:29:00</t>
-  </si>
-  <si>
-    <t>2018-11-13 19:29:22</t>
+    <t>2017 年 11 月 30 日 02:29:00</t>
+  </si>
+  <si>
+    <t>2018 年 11 月 13 日 19:29:22</t>
   </si>
   <si>
     <t>CVE-2017-8817</t>
@@ -412,10 +412,10 @@
     <t>7.38.0-4+deb8u9</t>
   </si>
   <si>
-    <t>2018-01-25 06:29:00</t>
-  </si>
-  <si>
-    <t>2022-06-14 03:10:03</t>
+    <t>2018 年 01 月 25 日 06:29:00</t>
+  </si>
+  <si>
+    <t>2022 年 06 月 14 日 03:10:03</t>
   </si>
   <si>
     <t>CVE-2018-1000120</t>
@@ -427,10 +427,10 @@
     <t>7.38.0-4+deb8u10</t>
   </si>
   <si>
-    <t>2018-03-15 02:29:00</t>
-  </si>
-  <si>
-    <t>2019-06-19 06:15:11</t>
+    <t>2018 年 03 月 15 日 02:29:00</t>
+  </si>
+  <si>
+    <t>2019 年 06 月 19 日 06:15:11</t>
   </si>
   <si>
     <t>CVE-2018-1000122</t>
@@ -439,7 +439,7 @@
     <t>curl: RTSP RTP buffer over-read</t>
   </si>
   <si>
-    <t>2019-10-03 08:03:26</t>
+    <t>2019 年 10 月 03 日 08:03:26</t>
   </si>
   <si>
     <t>CVE-2018-1000301</t>
@@ -451,7 +451,7 @@
     <t>7.38.0-4+deb8u11</t>
   </si>
   <si>
-    <t>2018-05-24 21:29:01</t>
+    <t>2018 年 05 月 24 日 21:29:01</t>
   </si>
   <si>
     <t>CVE-2018-14618</t>
@@ -463,10 +463,10 @@
     <t>7.38.0-4+deb8u12</t>
   </si>
   <si>
-    <t>2018-09-06 03:29:00</t>
-  </si>
-  <si>
-    <t>2019-04-23 01:48:00</t>
+    <t>2018 年 09 月 06 日 03:29:00</t>
+  </si>
+  <si>
+    <t>2019 年 04 月 23 日 01:48:00</t>
   </si>
   <si>
     <t>CVE-2018-16839</t>
@@ -475,10 +475,10 @@
     <t>curl: Integer overflow leading to heap-based buffer overflow in Curl_sasl_create_plain_message()</t>
   </si>
   <si>
-    <t>2018-11-01 02:29:00</t>
-  </si>
-  <si>
-    <t>2023-11-07 10:53:56</t>
+    <t>2018 年 11 月 01 日 02:29:00</t>
+  </si>
+  <si>
+    <t>2023 年 11 月 07 日 10:53:56</t>
   </si>
   <si>
     <t>CVE-2018-16842</t>
@@ -487,10 +487,10 @@
     <t>curl: Heap-based buffer over-read in the curl tool warning formatting</t>
   </si>
   <si>
-    <t>2018-11-01 03:29:00</t>
-  </si>
-  <si>
-    <t>2019-08-07 01:15:28</t>
+    <t>2018 年 11 月 01 日 03:29:00</t>
+  </si>
+  <si>
+    <t>2019 年 08 月 07 日 01:15:28</t>
   </si>
   <si>
     <t>CVE-2019-3822</t>
@@ -502,10 +502,10 @@
     <t>7.38.0-4+deb8u14</t>
   </si>
   <si>
-    <t>2019-02-07 04:29:00</t>
-  </si>
-  <si>
-    <t>2023-11-07 11:10:12</t>
+    <t>2019 年 02 月 07 日 04:29:00</t>
+  </si>
+  <si>
+    <t>2023 年 11 月 07 日 11:10:12</t>
   </si>
   <si>
     <t>CVE-2019-5482</t>
@@ -517,10 +517,10 @@
     <t>7.38.0-4+deb8u16</t>
   </si>
   <si>
-    <t>2019-09-17 03:15:10</t>
-  </si>
-  <si>
-    <t>2023-11-07 11:11:36</t>
+    <t>2019 年 09 月 17 日 03:15:10</t>
+  </si>
+  <si>
+    <t>2023 年 11 月 07 日 11:11:36</t>
   </si>
   <si>
     <t>CVE-2016-7141</t>
@@ -529,10 +529,10 @@
     <t>curl: Incorrect reuse of client certificates</t>
   </si>
   <si>
-    <t>2016-10-04 05:59:08</t>
-  </si>
-  <si>
-    <t>2018-11-13 19:29:02</t>
+    <t>2016 年 10 月 04 日 05:59:08</t>
+  </si>
+  <si>
+    <t>2018 年 11 月 13 日 19:29:02</t>
   </si>
   <si>
     <t>CVE-2016-8615</t>
@@ -541,7 +541,7 @@
     <t>curl: Cookie injection for other servers</t>
   </si>
   <si>
-    <t>2023-11-07 10:36:23</t>
+    <t>2023 年 11 月 07 日 10:36:23</t>
   </si>
   <si>
     <t>CVE-2016-8617</t>
@@ -550,7 +550,7 @@
     <t>curl: Out-of-bounds write via unchecked multiplication</t>
   </si>
   <si>
-    <t>2018-08-01 06:29:00</t>
+    <t>2018 年 08 月 01 日 06:29:00</t>
   </si>
   <si>
     <t>CVE-2016-8621</t>
@@ -583,10 +583,10 @@
     <t>curl: printf floating point buffer overflow</t>
   </si>
   <si>
-    <t>2018-04-24 02:29:00</t>
-  </si>
-  <si>
-    <t>2023-11-07 10:37:14</t>
+    <t>2018 年 04 月 24 日 02:29:00</t>
+  </si>
+  <si>
+    <t>2023 年 11 月 07 日 10:37:14</t>
   </si>
   <si>
     <t>CVE-2017-1000254</t>
@@ -598,10 +598,10 @@
     <t>7.38.0-4+deb8u6</t>
   </si>
   <si>
-    <t>2017-10-06 21:29:00</t>
-  </si>
-  <si>
-    <t>2023-11-07 10:37:56</t>
+    <t>2017 年 10 月 06 日 21:29:00</t>
+  </si>
+  <si>
+    <t>2023 年 11 月 07 日 10:37:56</t>
   </si>
   <si>
     <t>CVE-2018-1000121</t>
@@ -610,7 +610,7 @@
     <t>curl: LDAP NULL pointer dereference</t>
   </si>
   <si>
-    <t>2019-07-24 07:15:25</t>
+    <t>2019 年 07 月 24 日 07:15:25</t>
   </si>
   <si>
     <t>CVE-2018-16890</t>
@@ -619,7 +619,7 @@
     <t>curl: NTLM type-2 heap out-of-bounds buffer read</t>
   </si>
   <si>
-    <t>2023-11-07 10:53:57</t>
+    <t>2023 年 11 月 07 日 10:53:57</t>
   </si>
   <si>
     <t>CVE-2019-3823</t>
@@ -637,10 +637,10 @@
     <t>7.38.0-4+deb8u15</t>
   </si>
   <si>
-    <t>2019-05-29 03:29:06</t>
-  </si>
-  <si>
-    <t>2023-11-07 11:11:35</t>
+    <t>2019 年 05 月 29 日 03:29:06</t>
+  </si>
+  <si>
+    <t>2023 年 11 月 07 日 11:11:35</t>
   </si>
   <si>
     <t>CVE-2016-8616</t>
@@ -655,10 +655,10 @@
     <t>curl: TFTP sends more than buffer size</t>
   </si>
   <si>
-    <t>2017-10-05 09:29:04</t>
-  </si>
-  <si>
-    <t>2018-11-13 19:29:06</t>
+    <t>2017 年 10 月 05 日 09:29:04</t>
+  </si>
+  <si>
+    <t>2018 年 11 月 13 日 19:29:06</t>
   </si>
   <si>
     <t>CVE-2017-1000101</t>
@@ -682,10 +682,10 @@
     <t>1.8.22-0+deb8u2</t>
   </si>
   <si>
-    <t>2019-06-12 01:29:00</t>
-  </si>
-  <si>
-    <t>2023-11-07 11:03:40</t>
+    <t>2019 年 06 月 12 日 01:29:00</t>
+  </si>
+  <si>
+    <t>2023 年 11 月 07 日 11:03:40</t>
   </si>
   <si>
     <t>CVE-2020-12049</t>
@@ -697,10 +697,10 @@
     <t>1.8.22-0+deb8u3</t>
   </si>
   <si>
-    <t>2020-06-09 01:15:09</t>
-  </si>
-  <si>
-    <t>2023-06-12 15:15:13</t>
+    <t>2020 年 06 月 09 日 01:15:09</t>
+  </si>
+  <si>
+    <t>2023 年 06 月 12 日 15:15:13</t>
   </si>
   <si>
     <t>TEMP-0000000-4DA0A8</t>
@@ -724,10 +724,10 @@
     <t>2:1.02.90-2.2+deb8u1</t>
   </si>
   <si>
-    <t>2020-02-14 13:15:13</t>
-  </si>
-  <si>
-    <t>2024-03-21 10:37:38</t>
+    <t>2020 年 02 月 14 日 13:15:13</t>
+  </si>
+  <si>
+    <t>2024 年 03 月 21 日 10:37:38</t>
   </si>
   <si>
     <t>CVE-2019-5094</t>
@@ -745,10 +745,10 @@
     <t>1.42.12-2+deb8u1</t>
   </si>
   <si>
-    <t>2019-09-25 06:15:13</t>
-  </si>
-  <si>
-    <t>2023-11-07 11:11:26</t>
+    <t>2019 年 09 月 25 日 06:15:13</t>
+  </si>
+  <si>
+    <t>2023 年 11 月 07 日 11:11:26</t>
   </si>
   <si>
     <t>CVE-2019-5188</t>
@@ -760,10 +760,10 @@
     <t>1.42.12-2+deb8u2</t>
   </si>
   <si>
-    <t>2020-01-09 00:15:11</t>
-  </si>
-  <si>
-    <t>2023-11-07 11:11:27</t>
+    <t>2020 年 01 月 09 日 00:15:11</t>
+  </si>
+  <si>
+    <t>2023 年 11 月 07 日 11:11:27</t>
   </si>
   <si>
     <t>e2fsprogs</t>
@@ -781,10 +781,10 @@
     <t>4.8.4-1</t>
   </si>
   <si>
-    <t>2019-05-23 03:29:00</t>
-  </si>
-  <si>
-    <t>2020-08-25 01:37:01</t>
+    <t>2019 年 05 月 23 日 03:29:00</t>
+  </si>
+  <si>
+    <t>2020 年 08 月 25 日 01:37:01</t>
   </si>
   <si>
     <t>CVE-2017-11671</t>
@@ -793,10 +793,10 @@
     <t>gcc: GCC generates incorrect code for RDRAND/RDSEED intrinsics</t>
   </si>
   <si>
-    <t>2017-07-27 05:29:00</t>
-  </si>
-  <si>
-    <t>2018-04-12 09:29:01</t>
+    <t>2017 年 07 月 27 日 05:29:00</t>
+  </si>
+  <si>
+    <t>2018 年 04 月 12 日 09:29:01</t>
   </si>
   <si>
     <t>gcc-4.9-base</t>
@@ -811,10 +811,10 @@
     <t>gcc: Predictable randomness from std::random_device</t>
   </si>
   <si>
-    <t>2015-11-17 23:59:04</t>
-  </si>
-  <si>
-    <t>2019-02-13 03:05:51</t>
+    <t>2015 年 11 月 17 日 23:59:04</t>
+  </si>
+  <si>
+    <t>2019 年 02 月 13 日 03:05:51</t>
   </si>
   <si>
     <t>DLA-1606-1</t>
@@ -850,10 +850,10 @@
     <t>1.4.18-7+deb8u5</t>
   </si>
   <si>
-    <t>2018-06-09 05:29:00</t>
-  </si>
-  <si>
-    <t>2022-04-19 01:30:54</t>
+    <t>2018 年 06 月 09 日 05:29:00</t>
+  </si>
+  <si>
+    <t>2022 年 04 月 19 日 01:30:54</t>
   </si>
   <si>
     <t>CVE-2017-7526</t>
@@ -865,10 +865,10 @@
     <t>1.4.18-7+deb8u4</t>
   </si>
   <si>
-    <t>2018-07-26 21:29:00</t>
-  </si>
-  <si>
-    <t>2023-11-07 10:50:12</t>
+    <t>2018 年 07 月 26 日 21:29:00</t>
+  </si>
+  <si>
+    <t>2023 年 11 月 07 日 10:50:12</t>
   </si>
   <si>
     <t>CVE-2019-14855</t>
@@ -877,10 +877,10 @@
     <t>gnupg2: OpenPGP Key Certification Forgeries with SHA-1</t>
   </si>
   <si>
-    <t>2020-03-21 00:15:14</t>
-  </si>
-  <si>
-    <t>2022-11-08 10:28:51</t>
+    <t>2020 年 03 月 21 日 00:15:14</t>
+  </si>
+  <si>
+    <t>2022 年 11 月 08 日 10:28:51</t>
   </si>
   <si>
     <t>gpgv</t>
@@ -901,10 +901,10 @@
     <t>2:1.9.2.39.3a460-3+deb8u1</t>
   </si>
   <si>
-    <t>2020-03-06 23:15:14</t>
-  </si>
-  <si>
-    <t>2023-11-07 11:14:07</t>
+    <t>2020 年 03 月 06 日 23:15:14</t>
+  </si>
+  <si>
+    <t>2023 年 11 月 07 日 11:14:07</t>
   </si>
   <si>
     <t>CVE-2019-0053</t>
@@ -913,10 +913,10 @@
     <t>Insufficient validation of environment variables in the telnet client  ...</t>
   </si>
   <si>
-    <t>2019-07-12 04:15:11</t>
-  </si>
-  <si>
-    <t>2023-10-08 22:15:11</t>
+    <t>2019 年 07 月 12 日 04:15:11</t>
+  </si>
+  <si>
+    <t>2023 年 10 月 08 日 22:15:11</t>
   </si>
   <si>
     <t>libapt-pkg4.12</t>
@@ -946,10 +946,10 @@
     <t>2.19-18+deb8u10</t>
   </si>
   <si>
-    <t>2017-06-20 00:29:00</t>
-  </si>
-  <si>
-    <t>2020-10-15 21:28:10</t>
+    <t>2017 年 06 月 20 日 00:29:00</t>
+  </si>
+  <si>
+    <t>2020 年 10 月 15 日 21:28:10</t>
   </si>
   <si>
     <t>libc6</t>
@@ -973,7 +973,7 @@
     <t>1.7.5-11+deb8u3</t>
   </si>
   <si>
-    <t>2018-02-17 01:29:00</t>
+    <t>2018 年 02 月 17 日 01:29:00</t>
   </si>
   <si>
     <t>CVE-2018-4180</t>
@@ -985,7 +985,7 @@
     <t>1.7.5-11+deb8u4</t>
   </si>
   <si>
-    <t>2019-01-12 02:29:01</t>
+    <t>2019 年 01 月 12 日 02:29:01</t>
   </si>
   <si>
     <t>CVE-2018-6553</t>
@@ -994,7 +994,7 @@
     <t>cups: AppArmor cupsd Sandbox Bypass Due to Use of Hard Links</t>
   </si>
   <si>
-    <t>2018-08-10 23:29:01</t>
+    <t>2018 年 08 月 10 日 23:29:01</t>
   </si>
   <si>
     <t>CVE-2019-8675</t>
@@ -1006,10 +1006,10 @@
     <t>1.7.5-11+deb8u5</t>
   </si>
   <si>
-    <t>2020-10-28 04:15:17</t>
-  </si>
-  <si>
-    <t>2020-10-30 00:02:18</t>
+    <t>2020 年 10 月 28 日 04:15:17</t>
+  </si>
+  <si>
+    <t>2020 年 10 月 30 日 00:02:18</t>
   </si>
   <si>
     <t>CVE-2019-8696</t>
@@ -1018,7 +1018,7 @@
     <t>cups: stack-buffer-overflow in libcups's asn1_get_packed function</t>
   </si>
   <si>
-    <t>2020-10-30 10:22:20</t>
+    <t>2020 年 10 月 30 日 10:22:20</t>
   </si>
   <si>
     <t>CVE-2020-3898</t>
@@ -1030,10 +1030,10 @@
     <t>1.7.5-11+deb8u8</t>
   </si>
   <si>
-    <t>2020-10-23 02:15:12</t>
-  </si>
-  <si>
-    <t>2021-07-21 19:39:23</t>
+    <t>2020 年 10 月 23 日 02:15:12</t>
+  </si>
+  <si>
+    <t>2021 年 07 月 21 日 19:39:23</t>
   </si>
   <si>
     <t>CVE-2017-18248</t>
@@ -1042,10 +1042,10 @@
     <t>cups: Invalid usernames handled in scheduler/ipp.c:add_job() allow remote attackers to cause a denial of service</t>
   </si>
   <si>
-    <t>2018-03-27 01:29:00</t>
-  </si>
-  <si>
-    <t>2018-07-13 09:29:00</t>
+    <t>2018 年 03 月 27 日 01:29:00</t>
+  </si>
+  <si>
+    <t>2018 年 07 月 13 日 09:29:00</t>
   </si>
   <si>
     <t>CVE-2018-4181</t>
@@ -1063,10 +1063,10 @@
     <t>1.7.5-11+deb8u6</t>
   </si>
   <si>
-    <t>2019-04-04 02:29:06</t>
-  </si>
-  <si>
-    <t>2019-09-28 20:15:10</t>
+    <t>2019 年 04 月 04 日 02:29:06</t>
+  </si>
+  <si>
+    <t>2019 年 09 月 28 日 20:15:10</t>
   </si>
   <si>
     <t>CVE-2019-2180</t>
@@ -1075,7 +1075,7 @@
     <t>In ippSetValueTag of ipp.c in Android 8.0, 8.1 and 9, there is a possi ...</t>
   </si>
   <si>
-    <t>2019-09-06 06:15:12</t>
+    <t>2019 年 09 月 06 日 06:15:12</t>
   </si>
   <si>
     <t>CVE-2019-2228</t>
@@ -1087,10 +1087,10 @@
     <t>1.7.5-11+deb8u7</t>
   </si>
   <si>
-    <t>2019-12-07 07:15:12</t>
-  </si>
-  <si>
-    <t>2019-12-23 09:15:13</t>
+    <t>2019 年 12 月 07 日 07:15:12</t>
+  </si>
+  <si>
+    <t>2019 年 12 月 23 日 09:15:13</t>
   </si>
   <si>
     <t>CVE-2019-8842</t>
@@ -1099,10 +1099,10 @@
     <t>A buffer overflow was addressed with improved bounds checking. This is ...</t>
   </si>
   <si>
-    <t>2020-10-28 04:15:21</t>
-  </si>
-  <si>
-    <t>2023-11-07 11:13:32</t>
+    <t>2020 年 10 月 28 日 04:15:21</t>
+  </si>
+  <si>
+    <t>2023 年 11 月 07 日 11:13:32</t>
   </si>
   <si>
     <t>libcurl3</t>
@@ -1123,10 +1123,10 @@
     <t>5.3.28-9+deb8u1</t>
   </si>
   <si>
-    <t>2018-04-17 01:29:00</t>
-  </si>
-  <si>
-    <t>2020-07-16 02:15:12</t>
+    <t>2018 年 04 月 17 日 01:29:00</t>
+  </si>
+  <si>
+    <t>2020 年 07 月 16 日 02:15:12</t>
   </si>
   <si>
     <t>libdbus-1-3</t>
@@ -1150,10 +1150,10 @@
     <t>2.1.0-6+deb8u4</t>
   </si>
   <si>
-    <t>2018-06-12 05:29:00</t>
-  </si>
-  <si>
-    <t>2022-06-28 00:42:03</t>
+    <t>2018 年 06 月 12 日 05:29:00</t>
+  </si>
+  <si>
+    <t>2022 年 06 月 28 日 00:42:03</t>
   </si>
   <si>
     <t>CVE-2017-9233</t>
@@ -1162,10 +1162,10 @@
     <t>expat: Inifinite loop due to invalid XML in external entity</t>
   </si>
   <si>
-    <t>2017-07-26 04:29:00</t>
-  </si>
-  <si>
-    <t>2023-11-07 10:50:37</t>
+    <t>2017 年 07 月 26 日 04:29:00</t>
+  </si>
+  <si>
+    <t>2023 年 11 月 07 日 10:50:37</t>
   </si>
   <si>
     <t>CVE-2018-20843</t>
@@ -1177,10 +1177,10 @@
     <t>2.1.0-6+deb8u5</t>
   </si>
   <si>
-    <t>2019-06-25 01:15:09</t>
-  </si>
-  <si>
-    <t>2023-11-07 10:56:21</t>
+    <t>2019 年 06 月 25 日 01:15:09</t>
+  </si>
+  <si>
+    <t>2023 年 11 月 07 日 10:56:21</t>
   </si>
   <si>
     <t>CVE-2019-15903</t>
@@ -1192,10 +1192,10 @@
     <t>2.1.0-6+deb8u6</t>
   </si>
   <si>
-    <t>2019-09-04 14:15:10</t>
-  </si>
-  <si>
-    <t>2023-11-07 11:05:35</t>
+    <t>2019 年 09 月 04 日 14:15:10</t>
+  </si>
+  <si>
+    <t>2023 年 11 月 07 日 11:05:35</t>
   </si>
   <si>
     <t>CVE-2017-1000376</t>
@@ -1213,7 +1213,7 @@
     <t>3.1-2+deb8u1</t>
   </si>
   <si>
-    <t>2023-09-23 02:25:54</t>
+    <t>2023 年 09 月 23 日 02:25:54</t>
   </si>
   <si>
     <t>CVE-2015-9290</t>
@@ -1231,10 +1231,10 @@
     <t>2.5.2-3+deb8u3</t>
   </si>
   <si>
-    <t>2019-07-30 21:15:12</t>
-  </si>
-  <si>
-    <t>2023-11-07 10:28:58</t>
+    <t>2019 年 07 月 30 日 21:15:12</t>
+  </si>
+  <si>
+    <t>2023 年 11 月 07 日 10:28:58</t>
   </si>
   <si>
     <t>CVE-2017-8105</t>
@@ -1246,10 +1246,10 @@
     <t>2.5.2-3+deb8u2</t>
   </si>
   <si>
-    <t>2017-04-25 02:59:00</t>
-  </si>
-  <si>
-    <t>2021-01-26 20:33:27</t>
+    <t>2017 年 04 月 25 日 02:59:00</t>
+  </si>
+  <si>
+    <t>2021 年 01 月 26 日 20:33:27</t>
   </si>
   <si>
     <t>CVE-2017-8287</t>
@@ -1258,10 +1258,10 @@
     <t>freetype: heap-based buffer overflow related to the t1_builder_close_contour function</t>
   </si>
   <si>
-    <t>2017-04-27 08:59:00</t>
-  </si>
-  <si>
-    <t>2021-01-26 20:33:24</t>
+    <t>2017 年 04 月 27 日 08:59:00</t>
+  </si>
+  <si>
+    <t>2021 年 01 月 26 日 20:33:24</t>
   </si>
   <si>
     <t>CVE-2015-9381</t>
@@ -1273,10 +1273,10 @@
     <t>2.5.2-3+deb8u4</t>
   </si>
   <si>
-    <t>2019-09-03 13:15:10</t>
-  </si>
-  <si>
-    <t>2019-09-10 11:15:11</t>
+    <t>2019 年 09 月 03 日 13:15:10</t>
+  </si>
+  <si>
+    <t>2019 年 09 月 10 日 11:15:11</t>
   </si>
   <si>
     <t>CVE-2016-10244</t>
@@ -1285,7 +1285,7 @@
     <t>freetype: parse_charstrings function in type1/t1load.c does not ensure that a font contains a glyph name</t>
   </si>
   <si>
-    <t>2017-03-06 14:59:00</t>
+    <t>2017 年 03 月 06 日 14:59:00</t>
   </si>
   <si>
     <t>CVE-2015-9382</t>
@@ -1300,7 +1300,7 @@
     <t>freetype: a heap-based buffer over-read in tt_cmap14_validate in sfnt/ttcmap.c may lead to a DoS</t>
   </si>
   <si>
-    <t>2023-02-24 07:04:01</t>
+    <t>2023 年 02 月 24 日 07:04:01</t>
   </si>
   <si>
     <t>libgcc1</t>
@@ -1327,10 +1327,10 @@
     <t>1.6.3-2+deb8u3</t>
   </si>
   <si>
-    <t>2017-06-11 10:29:00</t>
-  </si>
-  <si>
-    <t>2023-11-07 10:50:47</t>
+    <t>2017 年 06 月 11 日 10:29:00</t>
+  </si>
+  <si>
+    <t>2023 年 11 月 07 日 10:50:47</t>
   </si>
   <si>
     <t>CVE-2018-0495</t>
@@ -1342,10 +1342,10 @@
     <t>1.6.3-2+deb8u5</t>
   </si>
   <si>
-    <t>2018-06-14 07:29:00</t>
-  </si>
-  <si>
-    <t>2023-11-07 10:51:03</t>
+    <t>2018 年 06 月 14 日 07:29:00</t>
+  </si>
+  <si>
+    <t>2023 年 11 月 07 日 10:51:03</t>
   </si>
   <si>
     <t>CVE-2019-13627</t>
@@ -1357,7 +1357,7 @@
     <t>1.6.3-2+deb8u8</t>
   </si>
   <si>
-    <t>2019-09-25 23:15:11</t>
+    <t>2019 年 09 月 25 日 23:15:11</t>
   </si>
   <si>
     <t>TEMP-0000000-96B2E9</t>
@@ -1381,10 +1381,10 @@
     <t>3.3.8-6+deb8u5</t>
   </si>
   <si>
-    <t>2017-03-24 23:59:00</t>
-  </si>
-  <si>
-    <t>2018-10-31 00:27:33</t>
+    <t>2017 年 03 月 24 日 23:59:00</t>
+  </si>
+  <si>
+    <t>2018 年 10 月 31 日 00:27:33</t>
   </si>
   <si>
     <t>CVE-2017-5336</t>
@@ -1408,10 +1408,10 @@
     <t>3.3.8-6+deb8u4</t>
   </si>
   <si>
-    <t>2016-09-27 23:59:12</t>
-  </si>
-  <si>
-    <t>2018-01-05 10:31:15</t>
+    <t>2016 年 09 月 27 日 23:59:12</t>
+  </si>
+  <si>
+    <t>2018 年 01 月 05 日 10:31:15</t>
   </si>
   <si>
     <t>CVE-2017-5335</t>
@@ -1429,10 +1429,10 @@
     <t>3.3.8-6+deb8u6</t>
   </si>
   <si>
-    <t>2017-06-17 03:29:00</t>
-  </si>
-  <si>
-    <t>2018-01-05 10:31:51</t>
+    <t>2017 年 06 月 17 日 03:29:00</t>
+  </si>
+  <si>
+    <t>2018 年 01 月 05 日 10:31:51</t>
   </si>
   <si>
     <t>CVE-2017-7869</t>
@@ -1441,10 +1441,10 @@
     <t>gnutls: Out-of-bounds write related to the cdk_pkt_read function (GNUTLS-SA-2017-3)</t>
   </si>
   <si>
-    <t>2017-04-14 12:59:00</t>
-  </si>
-  <si>
-    <t>2018-01-05 10:31:53</t>
+    <t>2017 年 04 月 14 日 12:59:00</t>
+  </si>
+  <si>
+    <t>2018 年 01 月 05 日 10:31:53</t>
   </si>
   <si>
     <t>CVE-2018-10844</t>
@@ -1456,10 +1456,10 @@
     <t>3.3.30-0+deb8u1</t>
   </si>
   <si>
-    <t>2018-08-22 21:29:00</t>
-  </si>
-  <si>
-    <t>2023-02-13 12:50:20</t>
+    <t>2018 年 08 月 22 日 21:29:00</t>
+  </si>
+  <si>
+    <t>2023 年 02 月 13 日 12:50:20</t>
   </si>
   <si>
     <t>CVE-2018-10845</t>
@@ -1468,7 +1468,7 @@
     <t>gnutls: HMAC-SHA-384 vulnerable to Lucky thirteen attack due to use of wrong constant</t>
   </si>
   <si>
-    <t>2023-02-13 12:50:30</t>
+    <t>2023 年 02 月 13 日 12:50:30</t>
   </si>
   <si>
     <t>CVE-2018-10846</t>
@@ -1477,7 +1477,7 @@
     <t>gnutls: "Just in Time" PRIME + PROBE cache-based side channel attack can lead to plaintext recovery</t>
   </si>
   <si>
-    <t>2023-02-13 12:50:48</t>
+    <t>2023 年 02 月 13 日 12:50:48</t>
   </si>
   <si>
     <t>CVE-2018-16868</t>
@@ -1486,10 +1486,10 @@
     <t>gnutls: Bleichenbacher-like side channel leakage in PKCS#1 v1.5 verification and padding oracle verification</t>
   </si>
   <si>
-    <t>2018-12-03 22:29:00</t>
-  </si>
-  <si>
-    <t>2022-12-01 05:20:28</t>
+    <t>2018 年 12 月 03 日 22:29:00</t>
+  </si>
+  <si>
+    <t>2022 年 12 月 01 日 05:20:28</t>
   </si>
   <si>
     <t>CVE-2015-2694</t>
@@ -1507,10 +1507,10 @@
     <t>1.12.1+dfsg-19+deb8u3</t>
   </si>
   <si>
-    <t>2015-05-26 03:59:02</t>
-  </si>
-  <si>
-    <t>2020-01-21 23:46:59</t>
+    <t>2015 年 05 月 26 日 03:59:02</t>
+  </si>
+  <si>
+    <t>2020 年 01 月 21 日 23:46:59</t>
   </si>
   <si>
     <t>CVE-2016-3119</t>
@@ -1519,10 +1519,10 @@
     <t>krb5: null pointer dereference in kadmin</t>
   </si>
   <si>
-    <t>2016-03-26 09:59:05</t>
-  </si>
-  <si>
-    <t>2020-01-21 23:47:45</t>
+    <t>2016 年 03 月 26 日 09:59:05</t>
+  </si>
+  <si>
+    <t>2020 年 01 月 21 日 23:47:45</t>
   </si>
   <si>
     <t>CVE-2016-3120</t>
@@ -1531,10 +1531,10 @@
     <t>krb5: S4U2Self KDC crash when anon is restricted</t>
   </si>
   <si>
-    <t>2016-08-01 10:59:12</t>
-  </si>
-  <si>
-    <t>2023-11-07 10:32:08</t>
+    <t>2016 年 08 月 01 日 10:59:12</t>
+  </si>
+  <si>
+    <t>2023 年 11 月 07 日 10:32:08</t>
   </si>
   <si>
     <t>CVE-2017-11368</t>
@@ -1543,10 +1543,10 @@
     <t>krb5: Invalid S4U2Self or S4U2Proxy request causes assertion failure</t>
   </si>
   <si>
-    <t>2017-08-10 02:29:01</t>
-  </si>
-  <si>
-    <t>2023-11-07 10:38:13</t>
+    <t>2017 年 08 月 10 日 02:29:01</t>
+  </si>
+  <si>
+    <t>2023 年 11 月 07 日 10:38:13</t>
   </si>
   <si>
     <t>CVE-2018-20217</t>
@@ -1558,10 +1558,10 @@
     <t>1.12.1+dfsg-19+deb8u5</t>
   </si>
   <si>
-    <t>2018-12-27 05:29:02</t>
-  </si>
-  <si>
-    <t>2023-11-07 10:56:15</t>
+    <t>2018 年 12 月 27 日 05:29:02</t>
+  </si>
+  <si>
+    <t>2023 年 11 月 07 日 10:56:15</t>
   </si>
   <si>
     <t>CVE-2018-5710</t>
@@ -1570,10 +1570,10 @@
     <t>krb5: null pointer deference in strlen function in plugins/kdb/ldap/libkdb_ldap/ldap_principal2.c</t>
   </si>
   <si>
-    <t>2018-01-16 17:29:00</t>
-  </si>
-  <si>
-    <t>2023-11-07 10:58:49</t>
+    <t>2018 年 01 月 16 日 17:29:00</t>
+  </si>
+  <si>
+    <t>2023 年 11 月 07 日 10:58:49</t>
   </si>
   <si>
     <t>CVE-2018-5729</t>
@@ -1582,7 +1582,7 @@
     <t>krb5: null dereference in kadmind or DN container check bypass by supplying special crafted data</t>
   </si>
   <si>
-    <t>2018-03-07 04:29:00</t>
+    <t>2018 年 03 月 07 日 04:29:00</t>
   </si>
   <si>
     <t>CVE-2017-11462</t>
@@ -1591,10 +1591,10 @@
     <t>krb5: Automatic sec context deletion could lead to double-free</t>
   </si>
   <si>
-    <t>2017-09-14 00:29:00</t>
-  </si>
-  <si>
-    <t>2023-11-07 10:38:15</t>
+    <t>2017 年 09 月 14 日 00:29:00</t>
+  </si>
+  <si>
+    <t>2023 年 11 月 07 日 10:38:15</t>
   </si>
   <si>
     <t>CVE-2018-5730</t>
@@ -1618,10 +1618,10 @@
     <t>2.7.1-5+deb8u2</t>
   </si>
   <si>
-    <t>2017-04-15 02:59:00</t>
-  </si>
-  <si>
-    <t>2020-11-17 04:20:41</t>
+    <t>2017 年 04 月 15 日 02:59:00</t>
+  </si>
+  <si>
+    <t>2020 年 11 月 17 日 04:20:41</t>
   </si>
   <si>
     <t>CVE-2018-16869</t>
@@ -1630,7 +1630,7 @@
     <t>nettle: Leaky data conversion exposing a manager oracle</t>
   </si>
   <si>
-    <t>2023-02-03 22:25:21</t>
+    <t>2023 年 02 月 03 日 22:25:21</t>
   </si>
   <si>
     <t>CVE-2014-9911</t>
@@ -1648,10 +1648,10 @@
     <t>52.1-8+deb8u4</t>
   </si>
   <si>
-    <t>2017-01-05 04:59:00</t>
-  </si>
-  <si>
-    <t>2019-04-24 03:29:22</t>
+    <t>2017 年 01 月 05 日 04:59:00</t>
+  </si>
+  <si>
+    <t>2019 年 04 月 24 日 03:29:22</t>
   </si>
   <si>
     <t>CVE-2016-6293</t>
@@ -1660,10 +1660,10 @@
     <t>Out-of-bounds access in uloc_acceptLanguageFromHTTP</t>
   </si>
   <si>
-    <t>2016-07-25 22:59:06</t>
-  </si>
-  <si>
-    <t>2023-11-07 10:33:56</t>
+    <t>2016 年 07 月 25 日 22:59:06</t>
+  </si>
+  <si>
+    <t>2023 年 11 月 07 日 10:33:56</t>
   </si>
   <si>
     <t>CVE-2016-7415</t>
@@ -1672,10 +1672,10 @@
     <t>Stack based buffer overflow in locid.cpp</t>
   </si>
   <si>
-    <t>2016-09-18 05:59:07</t>
-  </si>
-  <si>
-    <t>2019-04-24 03:29:43</t>
+    <t>2016 年 09 月 18 日 05:59:07</t>
+  </si>
+  <si>
+    <t>2019 年 04 月 24 日 03:29:43</t>
   </si>
   <si>
     <t>CVE-2017-14952</t>
@@ -1687,10 +1687,10 @@
     <t>52.1-8+deb8u6</t>
   </si>
   <si>
-    <t>2017-10-17 00:29:00</t>
-  </si>
-  <si>
-    <t>2019-04-24 03:29:55</t>
+    <t>2017 年 10 月 17 日 00:29:00</t>
+  </si>
+  <si>
+    <t>2019 年 04 月 24 日 03:29:55</t>
   </si>
   <si>
     <t>CVE-2015-4844</t>
@@ -1699,10 +1699,10 @@
     <t>ICU: missing boundary checks in layout engine (OpenJDK 2D, 8132042)</t>
   </si>
   <si>
-    <t>2015-10-22 07:59:12</t>
-  </si>
-  <si>
-    <t>2022-05-13 22:38:26</t>
+    <t>2015 年 10 月 22 日 07:59:12</t>
+  </si>
+  <si>
+    <t>2022 年 05 月 13 日 22:38:26</t>
   </si>
   <si>
     <t>CVE-2016-0494</t>
@@ -1711,10 +1711,10 @@
     <t>ICU: integer signedness issue in IndicRearrangementProcessor (OpenJDK 2D, 8140543)</t>
   </si>
   <si>
-    <t>2016-01-21 11:00:42</t>
-  </si>
-  <si>
-    <t>2022-05-13 22:57:21</t>
+    <t>2016 年 01 月 21 日 11:00:42</t>
+  </si>
+  <si>
+    <t>2022 年 05 月 13 日 22:57:21</t>
   </si>
   <si>
     <t>CVE-2017-7867</t>
@@ -1726,7 +1726,7 @@
     <t>52.1-8+deb8u5</t>
   </si>
   <si>
-    <t>2019-04-24 03:31:20</t>
+    <t>2019 年 04 月 24 日 03:31:20</t>
   </si>
   <si>
     <t>CVE-2017-7868</t>
@@ -1744,10 +1744,10 @@
     <t>52.1-8+deb8u8</t>
   </si>
   <si>
-    <t>2020-03-13 03:15:13</t>
-  </si>
-  <si>
-    <t>2023-11-07 11:14:10</t>
+    <t>2020 年 03 月 13 日 03:15:13</t>
+  </si>
+  <si>
+    <t>2023 年 11 月 07 日 11:14:10</t>
   </si>
   <si>
     <t>CVE-2015-2632</t>
@@ -1756,10 +1756,10 @@
     <t>ICU: integer overflow in LETableReference verifyLength() (OpenJDK 2D, 8077520)</t>
   </si>
   <si>
-    <t>2015-07-16 18:59:54</t>
-  </si>
-  <si>
-    <t>2022-05-13 22:38:25</t>
+    <t>2015 年 07 月 16 日 18:59:54</t>
+  </si>
+  <si>
+    <t>2022 年 05 月 13 日 22:38:25</t>
   </si>
   <si>
     <t>CVE-2017-15422</t>
@@ -1771,10 +1771,10 @@
     <t>52.1-8+deb8u7</t>
   </si>
   <si>
-    <t>2018-08-29 03:29:11</t>
-  </si>
-  <si>
-    <t>2023-11-07 10:39:48</t>
+    <t>2018 年 08 月 29 日 03:29:11</t>
+  </si>
+  <si>
+    <t>2023 年 11 月 07 日 10:39:48</t>
   </si>
   <si>
     <t>CVE-2017-14062</t>
@@ -1792,10 +1792,10 @@
     <t>1.29-1+deb8u3</t>
   </si>
   <si>
-    <t>2017-09-01 00:29:00</t>
-  </si>
-  <si>
-    <t>2020-12-08 04:17:11</t>
+    <t>2017 年 09 月 01 日 00:29:00</t>
+  </si>
+  <si>
+    <t>2020 年 12 月 08 日 04:17:11</t>
   </si>
   <si>
     <t>CVE-2016-3616</t>
@@ -1813,10 +1813,10 @@
     <t>1:1.3.1-12+deb8u1</t>
   </si>
   <si>
-    <t>2017-02-14 02:59:00</t>
-  </si>
-  <si>
-    <t>2019-08-07 01:15:14</t>
+    <t>2017 年 02 月 14 日 02:59:00</t>
+  </si>
+  <si>
+    <t>2019 年 08 月 07 日 01:15:14</t>
   </si>
   <si>
     <t>CVE-2020-13790</t>
@@ -1825,10 +1825,10 @@
     <t>heap-based buffer over-read in get_rgb_row() in rdppm.c</t>
   </si>
   <si>
-    <t>2020-06-04 03:15:10</t>
-  </si>
-  <si>
-    <t>2023-11-07 11:16:58</t>
+    <t>2020 年 06 月 04 日 03:15:10</t>
+  </si>
+  <si>
+    <t>2023 年 11 月 07 日 11:16:58</t>
   </si>
   <si>
     <t>CVE-2018-11212</t>
@@ -1837,10 +1837,10 @@
     <t>libjpeg-turbo: Divide By Zero in alloc_sarray function in jmemmgr.c</t>
   </si>
   <si>
-    <t>2018-05-17 01:29:00</t>
-  </si>
-  <si>
-    <t>2022-04-20 08:15:15</t>
+    <t>2018 年 05 月 17 日 01:29:00</t>
+  </si>
+  <si>
+    <t>2022 年 04 月 20 日 08:15:15</t>
   </si>
   <si>
     <t>CVE-2018-11213</t>
@@ -1861,10 +1861,10 @@
     <t>libjpeg-turbo: Divide by zero allows for denial of service via crafted BMP image</t>
   </si>
   <si>
-    <t>2018-06-18 22:29:00</t>
-  </si>
-  <si>
-    <t>2020-08-01 05:15:12</t>
+    <t>2018 年 06 月 18 日 22:29:00</t>
+  </si>
+  <si>
+    <t>2020 年 08 月 01 日 05:15:12</t>
   </si>
   <si>
     <t>CVE-2018-14498</t>
@@ -1876,10 +1876,10 @@
     <t>1:1.3.1-12+deb8u2</t>
   </si>
   <si>
-    <t>2019-03-08 07:29:00</t>
-  </si>
-  <si>
-    <t>2023-11-07 10:52:58</t>
+    <t>2019 年 03 月 08 日 07:29:00</t>
+  </si>
+  <si>
+    <t>2023 年 11 月 07 日 10:52:58</t>
   </si>
   <si>
     <t>CVE-2019-2201</t>
@@ -1888,10 +1888,10 @@
     <t>libjpeg-turbo: several integer overflows and subsequent segfaults when attempting to compress/decompress gigapixel images</t>
   </si>
   <si>
-    <t>2019-11-14 02:15:11</t>
-  </si>
-  <si>
-    <t>2023-11-07 11:09:23</t>
+    <t>2019 年 11 月 14 日 02:15:11</t>
+  </si>
+  <si>
+    <t>2023 年 11 月 07 日 11:09:23</t>
   </si>
   <si>
     <t>CVE-2020-14152</t>
@@ -1900,10 +1900,10 @@
     <t>improper handling of max_memory_to_use setting can lead to excessive memory consumption</t>
   </si>
   <si>
-    <t>2020-06-16 01:15:10</t>
-  </si>
-  <si>
-    <t>2023-02-28 02:17:27</t>
+    <t>2020 年 06 月 16 日 01:15:10</t>
+  </si>
+  <si>
+    <t>2023 年 02 月 28 日 02:17:27</t>
   </si>
   <si>
     <t>libk5crypto3</t>
@@ -1930,10 +1930,10 @@
     <t>2.6-3+deb8u1</t>
   </si>
   <si>
-    <t>2017-02-04 03:59:00</t>
-  </si>
-  <si>
-    <t>2024-01-11 02:26:05</t>
+    <t>2017 年 02 月 04 日 03:59:00</t>
+  </si>
+  <si>
+    <t>2024 年 01 月 11 日 02:26:05</t>
   </si>
   <si>
     <t>CVE-2018-16435</t>
@@ -1945,10 +1945,10 @@
     <t>2.6-3+deb8u2</t>
   </si>
   <si>
-    <t>2018-09-04 08:29:02</t>
-  </si>
-  <si>
-    <t>2021-05-26 19:15:08</t>
+    <t>2018 年 09 月 04 日 08:29:02</t>
+  </si>
+  <si>
+    <t>2021 年 05 月 26 日 19:15:08</t>
   </si>
   <si>
     <t>CVE-2019-13565</t>
@@ -1966,10 +1966,10 @@
     <t>2.4.40+dfsg-1+deb8u5</t>
   </si>
   <si>
-    <t>2019-07-26 21:15:12</t>
-  </si>
-  <si>
-    <t>2023-11-07 11:03:52</t>
+    <t>2019 年 07 月 26 日 21:15:12</t>
+  </si>
+  <si>
+    <t>2023 年 11 月 07 日 11:03:52</t>
   </si>
   <si>
     <t>CVE-2020-12243</t>
@@ -1981,10 +1981,10 @@
     <t>2.4.40+dfsg-1+deb8u6</t>
   </si>
   <si>
-    <t>2020-04-29 03:15:12</t>
-  </si>
-  <si>
-    <t>2022-04-29 21:24:38</t>
+    <t>2020 年 04 月 29 日 03:15:12</t>
+  </si>
+  <si>
+    <t>2022 年 04 月 29 日 21:24:38</t>
   </si>
   <si>
     <t>CVE-2017-9287</t>
@@ -1996,10 +1996,10 @@
     <t>2.4.40+dfsg-1+deb8u3</t>
   </si>
   <si>
-    <t>2017-05-30 00:29:00</t>
-  </si>
-  <si>
-    <t>2022-06-14 03:18:45</t>
+    <t>2017 年 05 月 30 日 00:29:00</t>
+  </si>
+  <si>
+    <t>2022 年 06 月 14 日 03:18:45</t>
   </si>
   <si>
     <t>CVE-2019-13057</t>
@@ -2008,7 +2008,7 @@
     <t>openldap: Information disclosure issue in slapd component</t>
   </si>
   <si>
-    <t>2022-06-14 02:38:52</t>
+    <t>2022 年 06 月 14 日 02:38:52</t>
   </si>
   <si>
     <t>libmount1</t>
@@ -2029,10 +2029,10 @@
     <t>5.9+20140913-1+deb8u1</t>
   </si>
   <si>
-    <t>2017-06-30 07:29:00</t>
-  </si>
-  <si>
-    <t>2023-11-07 10:38:06</t>
+    <t>2017 年 06 月 30 日 07:29:00</t>
+  </si>
+  <si>
+    <t>2023 年 11 月 07 日 10:38:06</t>
   </si>
   <si>
     <t>CVE-2017-10685</t>
@@ -2047,10 +2047,10 @@
     <t>ncurses: Illegal address access in append_acs function</t>
   </si>
   <si>
-    <t>2017-07-09 01:29:00</t>
-  </si>
-  <si>
-    <t>2018-10-21 18:29:05</t>
+    <t>2017 年 07 月 09 日 01:29:00</t>
+  </si>
+  <si>
+    <t>2018 年 10 月 21 日 18:29:05</t>
   </si>
   <si>
     <t>CVE-2017-11113</t>
@@ -2059,7 +2059,7 @@
     <t>ncurses: Null pointer dereference vulnerability in _nc_parse_entry function</t>
   </si>
   <si>
-    <t>2019-05-06 23:00:36</t>
+    <t>2019 年 05 月 06 日 23:00:36</t>
   </si>
   <si>
     <t>CVE-2017-13728</t>
@@ -2068,10 +2068,10 @@
     <t>ncurses: Infinite loop in the next_char function</t>
   </si>
   <si>
-    <t>2017-08-29 14:29:00</t>
-  </si>
-  <si>
-    <t>2023-11-07 10:38:41</t>
+    <t>2017 年 08 月 29 日 14:29:00</t>
+  </si>
+  <si>
+    <t>2023 年 11 月 07 日 10:38:41</t>
   </si>
   <si>
     <t>CVE-2017-16879</t>
@@ -2083,10 +2083,10 @@
     <t>5.9+20140913-1+deb8u3</t>
   </si>
   <si>
-    <t>2017-11-23 06:29:00</t>
-  </si>
-  <si>
-    <t>2023-11-07 10:40:56</t>
+    <t>2017 年 11 月 23 日 06:29:00</t>
+  </si>
+  <si>
+    <t>2023 年 11 月 07 日 10:40:56</t>
   </si>
   <si>
     <t>CVE-2017-13729</t>
@@ -2113,7 +2113,7 @@
     <t>ncurses: Illegal address access in the function dump_uses()</t>
   </si>
   <si>
-    <t>2023-11-07 10:38:42</t>
+    <t>2023 年 11 月 07 日 10:38:42</t>
   </si>
   <si>
     <t>CVE-2017-13733</t>
@@ -2128,7 +2128,7 @@
     <t>ncurses: Illegal address access in the function _nc_safe_strcat</t>
   </si>
   <si>
-    <t>2018-10-21 18:29:06</t>
+    <t>2018 年 10 月 21 日 18:29:06</t>
   </si>
   <si>
     <t>CVE-2018-19217</t>
@@ -2137,10 +2137,10 @@
     <t>ncurses: Null pointer dereference at function _nc_name_match</t>
   </si>
   <si>
-    <t>2018-11-13 03:29:00</t>
-  </si>
-  <si>
-    <t>2024-03-21 10:30:44</t>
+    <t>2018 年 11 月 13 日 03:29:00</t>
+  </si>
+  <si>
+    <t>2024 年 03 月 21 日 10:30:44</t>
   </si>
   <si>
     <t>CVE-2018-19211</t>
@@ -2149,7 +2149,7 @@
     <t>ncurses: Null pointer dereference at function _nc_parse_entry in parse_entry.c</t>
   </si>
   <si>
-    <t>2019-04-23 21:15:28</t>
+    <t>2019 年 04 月 23 日 21:15:28</t>
   </si>
   <si>
     <t>CVE-2019-17594</t>
@@ -2158,10 +2158,10 @@
     <t>heap-based buffer overflow in the _nc_find_entry function in tinfo/comp_hash.c</t>
   </si>
   <si>
-    <t>2019-10-15 05:15:11</t>
-  </si>
-  <si>
-    <t>2021-02-10 23:13:31</t>
+    <t>2019 年 10 月 15 日 05:15:11</t>
+  </si>
+  <si>
+    <t>2021 年 02 月 10 日 23:13:31</t>
   </si>
   <si>
     <t>CVE-2019-17595</t>
@@ -2170,7 +2170,7 @@
     <t>heap-based buffer overflow in the fmt_entry function in tinfo/comp_hash.c</t>
   </si>
   <si>
-    <t>2021-02-09 04:52:19</t>
+    <t>2021 年 02 月 09 日 04:52:19</t>
   </si>
   <si>
     <t>libncursesw5</t>
@@ -2194,10 +2194,10 @@
     <t>2:3.26-1+debu8u2</t>
   </si>
   <si>
-    <t>2017-05-11 09:29:05</t>
-  </si>
-  <si>
-    <t>2021-07-21 07:15:12</t>
+    <t>2017 年 05 月 11 日 09:29:05</t>
+  </si>
+  <si>
+    <t>2021 年 07 月 21 日 07:15:12</t>
   </si>
   <si>
     <t>CVE-2019-17006</t>
@@ -2209,7 +2209,7 @@
     <t>2:3.26-1+debu8u10</t>
   </si>
   <si>
-    <t>2020-10-23 05:15:12</t>
+    <t>2020 年 10 月 23 日 05:15:12</t>
   </si>
   <si>
     <t>CVE-2017-7502</t>
@@ -2218,10 +2218,10 @@
     <t>nss: Null pointer dereference when handling empty SSLv2 messages</t>
   </si>
   <si>
-    <t>2017-05-31 02:29:00</t>
-  </si>
-  <si>
-    <t>2023-02-13 07:30:14</t>
+    <t>2017 年 05 月 31 日 02:29:00</t>
+  </si>
+  <si>
+    <t>2023 年 02 月 13 日 07:30:14</t>
   </si>
   <si>
     <t>CVE-2017-7805</t>
@@ -2233,10 +2233,10 @@
     <t>2:3.26-1+debu8u3</t>
   </si>
   <si>
-    <t>2018-06-12 05:29:10</t>
-  </si>
-  <si>
-    <t>2018-10-17 09:30:58</t>
+    <t>2018 年 06 月 12 日 05:29:10</t>
+  </si>
+  <si>
+    <t>2018 年 10 月 17 日 09:30:58</t>
   </si>
   <si>
     <t>CVE-2019-11719</t>
@@ -2248,10 +2248,10 @@
     <t>2:3.26-1+debu8u5</t>
   </si>
   <si>
-    <t>2019-07-23 22:15:16</t>
-  </si>
-  <si>
-    <t>2020-10-01 02:15:16</t>
+    <t>2019 年 07 月 23 日 22:15:16</t>
+  </si>
+  <si>
+    <t>2020 年 10 月 01 日 02:15:16</t>
   </si>
   <si>
     <t>CVE-2019-11729</t>
@@ -2269,10 +2269,10 @@
     <t>2:3.26-1+debu8u7</t>
   </si>
   <si>
-    <t>2020-01-09 04:15:12</t>
-  </si>
-  <si>
-    <t>2021-02-20 01:22:17</t>
+    <t>2020 年 01 月 09 日 04:15:12</t>
+  </si>
+  <si>
+    <t>2021 年 02 月 20 日 01:22:17</t>
   </si>
   <si>
     <t>CVE-2019-17007</t>
@@ -2284,7 +2284,7 @@
     <t>2:3.26-1+debu8u8</t>
   </si>
   <si>
-    <t>2021-02-20 00:58:55</t>
+    <t>2021 年 02 月 20 日 00:58:55</t>
   </si>
   <si>
     <t>CVE-2016-9074</t>
@@ -2293,10 +2293,10 @@
     <t>nss: Insufficient timing side-channel resistance in divSpoiler</t>
   </si>
   <si>
-    <t>2018-06-12 05:29:01</t>
-  </si>
-  <si>
-    <t>2018-08-09 23:12:49</t>
+    <t>2018 年 06 月 12 日 05:29:01</t>
+  </si>
+  <si>
+    <t>2018 年 08 月 09 日 23:12:49</t>
   </si>
   <si>
     <t>CVE-2017-5462</t>
@@ -2305,7 +2305,7 @@
     <t>nss: DRBG flaw in NSS</t>
   </si>
   <si>
-    <t>2018-06-12 05:29:07</t>
+    <t>2018 年 06 月 12 日 05:29:07</t>
   </si>
   <si>
     <t>CVE-2018-12404</t>
@@ -2317,10 +2317,10 @@
     <t>2:3.26-1+debu8u4</t>
   </si>
   <si>
-    <t>2019-05-03 01:29:01</t>
-  </si>
-  <si>
-    <t>2021-02-12 15:15:12</t>
+    <t>2019 年 05 月 03 日 01:29:01</t>
+  </si>
+  <si>
+    <t>2021 年 02 月 12 日 15:15:12</t>
   </si>
   <si>
     <t>CVE-2018-18508</t>
@@ -2329,7 +2329,7 @@
     <t>nss: NULL pointer dereference in several CMS functions resulting in a denial of service</t>
   </si>
   <si>
-    <t>2021-02-18 23:20:57</t>
+    <t>2021 年 02 月 18 日 23:20:57</t>
   </si>
   <si>
     <t>CVE-2019-11727</t>
@@ -2338,7 +2338,7 @@
     <t>nss: PKCS#1 v1.5 signatures can be used for TLS 1.3</t>
   </si>
   <si>
-    <t>2019-07-31 07:15:12</t>
+    <t>2019 年 07 月 31 日 07:15:12</t>
   </si>
   <si>
     <t>CVE-2020-12399</t>
@@ -2350,10 +2350,10 @@
     <t>2:3.26-1+debu8u11</t>
   </si>
   <si>
-    <t>2020-07-09 23:15:10</t>
-  </si>
-  <si>
-    <t>2022-01-05 00:38:55</t>
+    <t>2020 年 07 月 09 日 23:15:10</t>
+  </si>
+  <si>
+    <t>2022 年 01 月 05 日 00:38:55</t>
   </si>
   <si>
     <t>CVE-2020-12402</t>
@@ -2362,7 +2362,7 @@
     <t>nss: Side channel vulnerabilities during RSA key generation</t>
   </si>
   <si>
-    <t>2023-11-07 11:15:24</t>
+    <t>2023 年 11 月 07 日 11:15:24</t>
   </si>
   <si>
     <t>CVE-2018-12384</t>
@@ -2374,7 +2374,7 @@
     <t>该软件包在此平台上受该漏洞的影响, 并且在未来可能会修复</t>
   </si>
   <si>
-    <t>2019-04-29 23:29:00</t>
+    <t>2019 年 04 月 29 日 23:29:00</t>
   </si>
   <si>
     <t>CVE-2015-3217</t>
@@ -2389,10 +2389,10 @@
     <t>2:8.35-3.3+deb8u4</t>
   </si>
   <si>
-    <t>2016-12-14 00:59:02</t>
-  </si>
-  <si>
-    <t>2018-05-18 09:29:00</t>
+    <t>2016 年 12 月 14 日 00:59:02</t>
+  </si>
+  <si>
+    <t>2018 年 05 月 18 日 09:29:00</t>
   </si>
   <si>
     <t>CVE-2017-7186</t>
@@ -2401,10 +2401,10 @@
     <t>Invalid Unicode property lookup (8.41/7, 10.24/2)</t>
   </si>
   <si>
-    <t>2017-03-20 08:59:00</t>
-  </si>
-  <si>
-    <t>2018-08-17 18:29:02</t>
+    <t>2017 年 03 月 20 日 08:59:00</t>
+  </si>
+  <si>
+    <t>2018 年 08 月 17 日 18:29:02</t>
   </si>
   <si>
     <t>CVE-2017-7244</t>
@@ -2413,7 +2413,7 @@
     <t>invalid memory read in _pcre32_xclass (pcre_xclass.c)</t>
   </si>
   <si>
-    <t>2017-03-24 05:59:00</t>
+    <t>2017 年 03 月 24 日 05:59:00</t>
   </si>
   <si>
     <t>CVE-2020-14155</t>
@@ -2422,7 +2422,7 @@
     <t>pcre: Integer overflow when parsing callout numeric arguments</t>
   </si>
   <si>
-    <t>2023-11-07 11:17:06</t>
+    <t>2023 年 11 月 07 日 11:17:06</t>
   </si>
   <si>
     <t>CVE-2017-7245</t>
@@ -2431,7 +2431,7 @@
     <t>stack-based buffer overflow write in pcre32_copy_substring</t>
   </si>
   <si>
-    <t>2018-08-17 18:29:03</t>
+    <t>2018 年 08 月 17 日 18:29:03</t>
   </si>
   <si>
     <t>CVE-2017-7246</t>
@@ -2458,10 +2458,10 @@
     <t>1.8.13-1+deb8u1</t>
   </si>
   <si>
-    <t>2017-02-24 04:59:00</t>
-  </si>
-  <si>
-    <t>2023-11-07 10:29:31</t>
+    <t>2017 年 02 月 24 日 04:59:00</t>
+  </si>
+  <si>
+    <t>2023 年 11 月 07 日 10:29:31</t>
   </si>
   <si>
     <t>CVE-2016-10087</t>
@@ -2479,7 +2479,7 @@
     <t>1.2.50-2+deb8u3</t>
   </si>
   <si>
-    <t>2017-01-31 06:59:00</t>
+    <t>2017 年 01 月 31 日 06:59:00</t>
   </si>
   <si>
     <t>CVE-2018-1126</t>
@@ -2497,10 +2497,10 @@
     <t>2:3.3.9-9+deb8u1</t>
   </si>
   <si>
-    <t>2018-05-23 21:29:00</t>
-  </si>
-  <si>
-    <t>2019-07-30 21:15:14</t>
+    <t>2018 年 05 月 23 日 21:29:00</t>
+  </si>
+  <si>
+    <t>2019 年 07 月 30 日 21:15:14</t>
   </si>
   <si>
     <t>CVE-2018-1122</t>
@@ -2509,7 +2509,7 @@
     <t>procps-ng, procps: Local privilege escalation in top</t>
   </si>
   <si>
-    <t>2018-05-23 22:29:00</t>
+    <t>2018 年 05 月 23 日 22:29:00</t>
   </si>
   <si>
     <t>CVE-2018-1123</t>
@@ -2518,7 +2518,7 @@
     <t>procps-ng, procps: denial of service in ps via mmap buffer overflow</t>
   </si>
   <si>
-    <t>2023-11-07 10:55:50</t>
+    <t>2023 年 11 月 07 日 10:55:50</t>
   </si>
   <si>
     <t>CVE-2018-1124</t>
@@ -2527,7 +2527,7 @@
     <t>procps-ng, procps: Integer overflows leading to heap overflow in file2strvec</t>
   </si>
   <si>
-    <t>2020-09-09 22:58:59</t>
+    <t>2020 年 09 月 09 日 22:58:59</t>
   </si>
   <si>
     <t>CVE-2018-1125</t>
@@ -2536,7 +2536,7 @@
     <t>procps-ng, procps: stack buffer overflow in pgrep</t>
   </si>
   <si>
-    <t>2020-09-09 22:59:15</t>
+    <t>2020 年 09 月 09 日 22:59:15</t>
   </si>
   <si>
     <t>CVE-2015-8271</t>
@@ -2554,10 +2554,10 @@
     <t>2.4+20150115.gita107cef-1+deb8u1</t>
   </si>
   <si>
-    <t>2017-04-13 22:59:01</t>
-  </si>
-  <si>
-    <t>2017-11-04 09:29:12</t>
+    <t>2017 年 04 月 13 日 22:59:01</t>
+  </si>
+  <si>
+    <t>2017 年 11 月 04 日 09:29:12</t>
   </si>
   <si>
     <t>CVE-2015-8270</t>
@@ -2566,7 +2566,7 @@
     <t>The AMF3ReadString function in amf.c in RTMPDump 2.4 allows remote RTM ...</t>
   </si>
   <si>
-    <t>2017-04-13 22:59:00</t>
+    <t>2017 年 04 月 13 日 22:59:00</t>
   </si>
   <si>
     <t>CVE-2015-8272</t>
@@ -2590,10 +2590,10 @@
     <t>2.1.26.dfsg1-13+deb8u2</t>
   </si>
   <si>
-    <t>2019-12-20 02:15:12</t>
-  </si>
-  <si>
-    <t>2023-11-07 11:07:51</t>
+    <t>2019 年 12 月 20 日 02:15:12</t>
+  </si>
+  <si>
+    <t>2023 年 11 月 07 日 11:07:51</t>
   </si>
   <si>
     <t>libsasl2-modules-db</t>
@@ -2617,7 +2617,7 @@
     <t>3.8.7.1-1+deb8u4</t>
   </si>
   <si>
-    <t>2017-07-07 20:29:00</t>
+    <t>2017 年 07 月 07 日 20:29:00</t>
   </si>
   <si>
     <t>CVE-2017-2518</t>
@@ -2626,7 +2626,7 @@
     <t>An issue was discovered in certain Apple products. iOS before 10.3.2 i ...</t>
   </si>
   <si>
-    <t>2017-05-22 13:29:01</t>
+    <t>2017 年 05 月 22 日 13:29:01</t>
   </si>
   <si>
     <t>CVE-2017-2519</t>
@@ -2641,10 +2641,10 @@
     <t>heap out-of-bound read in function rtreenode()</t>
   </si>
   <si>
-    <t>2019-05-31 00:29:01</t>
-  </si>
-  <si>
-    <t>2023-11-07 11:13:30</t>
+    <t>2019 年 05 月 31 日 00:29:01</t>
+  </si>
+  <si>
+    <t>2023 年 11 月 07 日 11:13:30</t>
   </si>
   <si>
     <t>CVE-2018-20346</t>
@@ -2656,10 +2656,10 @@
     <t>3.8.7.1-1+deb8u3</t>
   </si>
   <si>
-    <t>2018-12-22 05:29:00</t>
-  </si>
-  <si>
-    <t>2023-11-07 10:56:16</t>
+    <t>2018 年 12 月 22 日 05:29:00</t>
+  </si>
+  <si>
+    <t>2023 年 11 月 07 日 10:56:16</t>
   </si>
   <si>
     <t>CVE-2018-20506</t>
@@ -2668,10 +2668,10 @@
     <t>CVE-2018-20346 CVE-2018-20505 CVE-2018-20506 sqlite: Multiple flaws in sqlite which can be triggered via corrupted internal databases (Magellan)</t>
   </si>
   <si>
-    <t>2019-04-04 02:29:01</t>
-  </si>
-  <si>
-    <t>2021-07-31 16:15:08</t>
+    <t>2019 年 04 月 04 日 02:29:01</t>
+  </si>
+  <si>
+    <t>2021 年 07 月 31 日 16:15:08</t>
   </si>
   <si>
     <t>CVE-2018-8740</t>
@@ -2680,10 +2680,10 @@
     <t>sqlite: NULL pointer dereference with databases with schema corrupted with CREATE TABLE AS allows for denial of service</t>
   </si>
   <si>
-    <t>2018-03-17 08:29:00</t>
-  </si>
-  <si>
-    <t>2023-11-07 11:01:29</t>
+    <t>2018 年 03 月 17 日 08:29:00</t>
+  </si>
+  <si>
+    <t>2023 年 11 月 07 日 11:01:29</t>
   </si>
   <si>
     <t>CVE-2019-20218</t>
@@ -2692,10 +2692,10 @@
     <t>sqlite: selectExpander in select.c proceeds with WITH stack unwinding even after a parsing error</t>
   </si>
   <si>
-    <t>2020-01-02 22:16:36</t>
-  </si>
-  <si>
-    <t>2022-10-08 01:56:29</t>
+    <t>2020 年 01 月 02 日 22:16:36</t>
+  </si>
+  <si>
+    <t>2022 年 10 月 08 日 01:56:29</t>
   </si>
   <si>
     <t>CVE-2019-5827</t>
@@ -2704,10 +2704,10 @@
     <t>sqlite: out-of-bounds access due to the use of 32-bit memory allocator interfaces</t>
   </si>
   <si>
-    <t>2019-06-28 01:15:14</t>
-  </si>
-  <si>
-    <t>2023-11-07 11:12:33</t>
+    <t>2019 年 06 月 28 日 01:15:14</t>
+  </si>
+  <si>
+    <t>2023 年 11 月 07 日 11:12:33</t>
   </si>
   <si>
     <t>CVE-2020-11655</t>
@@ -2719,10 +2719,10 @@
     <t>3.8.7.1-1+deb8u5</t>
   </si>
   <si>
-    <t>2020-04-09 11:15:11</t>
-  </si>
-  <si>
-    <t>2022-04-08 18:34:22</t>
+    <t>2020 年 04 月 09 日 11:15:11</t>
+  </si>
+  <si>
+    <t>2022 年 04 月 08 日 18:34:22</t>
   </si>
   <si>
     <t>CVE-2019-16168</t>
@@ -2731,10 +2731,10 @@
     <t>sqlite: Division by zero in whereLoopAddBtreeIndex in sqlite3.c</t>
   </si>
   <si>
-    <t>2019-09-10 01:15:13</t>
-  </si>
-  <si>
-    <t>2023-11-07 11:05:38</t>
+    <t>2019 年 09 月 10 日 01:15:13</t>
+  </si>
+  <si>
+    <t>2023 年 11 月 07 日 11:05:38</t>
   </si>
   <si>
     <t>CVE-2019-19645</t>
@@ -2743,10 +2743,10 @@
     <t>sqlite: infinite recursion via certain types of self-referential views in conjunction with ALTER TABLE statements</t>
   </si>
   <si>
-    <t>2019-12-10 00:15:10</t>
-  </si>
-  <si>
-    <t>2022-04-16 00:14:43</t>
+    <t>2019 年 12 月 10 日 00:15:10</t>
+  </si>
+  <si>
+    <t>2022 年 04 月 16 日 00:14:43</t>
   </si>
   <si>
     <t>CVE-2020-13434</t>
@@ -2758,10 +2758,10 @@
     <t>3.8.7.1-1+deb8u6</t>
   </si>
   <si>
-    <t>2020-05-25 06:15:10</t>
-  </si>
-  <si>
-    <t>2023-11-07 11:16:40</t>
+    <t>2020 年 05 月 25 日 06:15:10</t>
+  </si>
+  <si>
+    <t>2023 年 11 月 07 日 11:16:40</t>
   </si>
   <si>
     <t>CVE-2020-13631</t>
@@ -2770,10 +2770,10 @@
     <t>sqlite: Virtual table can be renamed into the name of one of its shadow tables</t>
   </si>
   <si>
-    <t>2020-05-27 23:15:12</t>
-  </si>
-  <si>
-    <t>2023-11-07 11:16:46</t>
+    <t>2020 年 05 月 27 日 23:15:12</t>
+  </si>
+  <si>
+    <t>2023 年 11 月 07 日 11:16:46</t>
   </si>
   <si>
     <t>libss2</t>
@@ -2794,10 +2794,10 @@
     <t>1.4.3-4.1+deb8u2</t>
   </si>
   <si>
-    <t>2019-03-22 05:29:00</t>
-  </si>
-  <si>
-    <t>2023-11-07 11:10:15</t>
+    <t>2019 年 03 月 22 日 05:29:00</t>
+  </si>
+  <si>
+    <t>2023 年 11 月 07 日 11:10:15</t>
   </si>
   <si>
     <t>CVE-2019-3859</t>
@@ -2809,7 +2809,7 @@
     <t>1.4.3-4.1+deb8u4</t>
   </si>
   <si>
-    <t>2019-03-22 00:01:04</t>
+    <t>2019 年 03 月 22 日 00:01:04</t>
   </si>
   <si>
     <t>CVE-2019-3860</t>
@@ -2821,7 +2821,7 @@
     <t>1.4.3-4.1+deb8u5</t>
   </si>
   <si>
-    <t>2019-03-26 03:29:01</t>
+    <t>2019 年 03 月 26 日 03:29:01</t>
   </si>
   <si>
     <t>CVE-2019-3861</t>
@@ -2842,10 +2842,10 @@
     <t>libssh2: integer overflow in kex_method_diffie_hellman_group_exchange_sha256_key_exchange in kex.c leads to out-of-bounds write</t>
   </si>
   <si>
-    <t>2019-07-17 02:15:13</t>
-  </si>
-  <si>
-    <t>2023-11-07 11:03:46</t>
+    <t>2019 年 07 月 17 日 02:15:13</t>
+  </si>
+  <si>
+    <t>2023 年 11 月 07 日 11:03:46</t>
   </si>
   <si>
     <t>CVE-2019-17498</t>
@@ -2857,10 +2857,10 @@
     <t>1.4.3-4.1+deb8u6</t>
   </si>
   <si>
-    <t>2019-10-22 06:15:10</t>
-  </si>
-  <si>
-    <t>2023-11-07 11:06:18</t>
+    <t>2019 年 10 月 22 日 06:15:10</t>
+  </si>
+  <si>
+    <t>2023 年 11 月 07 日 11:06:18</t>
   </si>
   <si>
     <t>CVE-2019-3855</t>
@@ -2869,7 +2869,7 @@
     <t>libssh2: Integer overflow in transport read resulting in out of bounds write</t>
   </si>
   <si>
-    <t>2023-11-07 11:10:14</t>
+    <t>2023 年 11 月 07 日 11:10:14</t>
   </si>
   <si>
     <t>CVE-2019-3856</t>
@@ -2890,7 +2890,7 @@
     <t>libssh2: Integer overflow in user authenticate keyboard interactive allows out-of-bounds writes</t>
   </si>
   <si>
-    <t>2019-03-26 02:29:01</t>
+    <t>2019 年 03 月 26 日 02:29:01</t>
   </si>
   <si>
     <t>DLA-1730-2</t>
@@ -2917,10 +2917,10 @@
     <t>1.0.1t-1+deb8u6</t>
   </si>
   <si>
-    <t>2017-11-14 06:29:00</t>
-  </si>
-  <si>
-    <t>2024-01-27 01:44:24</t>
+    <t>2017 年 11 月 14 日 06:29:00</t>
+  </si>
+  <si>
+    <t>2024 年 01 月 27 日 01:44:24</t>
   </si>
   <si>
     <t>CVE-2017-3731</t>
@@ -2929,10 +2929,10 @@
     <t>openssl: Truncated packet could crash via OOB read</t>
   </si>
   <si>
-    <t>2017-05-05 03:29:00</t>
-  </si>
-  <si>
-    <t>2022-08-16 21:16:45</t>
+    <t>2017 年 05 月 05 日 03:29:00</t>
+  </si>
+  <si>
+    <t>2022 年 08 月 16 日 21:16:45</t>
   </si>
   <si>
     <t>CVE-2018-0732</t>
@@ -2944,10 +2944,10 @@
     <t>1.0.1t-1+deb8u9</t>
   </si>
   <si>
-    <t>2018-06-12 21:29:00</t>
-  </si>
-  <si>
-    <t>2023-11-07 10:51:04</t>
+    <t>2018 年 06 月 12 日 21:29:00</t>
+  </si>
+  <si>
+    <t>2023 年 11 月 07 日 10:51:04</t>
   </si>
   <si>
     <t>CVE-2016-7056</t>
@@ -2956,10 +2956,10 @@
     <t>openssl: ECDSA P-256 timing attack key recovery</t>
   </si>
   <si>
-    <t>2018-09-11 00:29:00</t>
-  </si>
-  <si>
-    <t>2023-02-13 07:25:16</t>
+    <t>2018 年 09 月 11 日 00:29:00</t>
+  </si>
+  <si>
+    <t>2023 年 02 月 13 日 07:25:16</t>
   </si>
   <si>
     <t>CVE-2017-3735</t>
@@ -2971,10 +2971,10 @@
     <t>1.0.1t-1+deb8u7</t>
   </si>
   <si>
-    <t>2017-08-29 03:29:01</t>
-  </si>
-  <si>
-    <t>2022-12-13 20:15:24</t>
+    <t>2017 年 08 月 29 日 03:29:01</t>
+  </si>
+  <si>
+    <t>2022 年 12 月 13 日 20:15:24</t>
   </si>
   <si>
     <t>CVE-2018-0734</t>
@@ -2983,10 +2983,10 @@
     <t>openssl: timing side channel attack in the DSA signature algorithm</t>
   </si>
   <si>
-    <t>2018-10-30 20:29:00</t>
-  </si>
-  <si>
-    <t>2023-11-07 10:51:05</t>
+    <t>2018 年 10 月 30 日 20:29:00</t>
+  </si>
+  <si>
+    <t>2023 年 11 月 07 日 10:51:05</t>
   </si>
   <si>
     <t>CVE-2018-0735</t>
@@ -2998,7 +2998,7 @@
     <t>1.0.1t-1+deb8u10</t>
   </si>
   <si>
-    <t>2018-10-29 21:29:00</t>
+    <t>2018 年 10 月 29 日 21:29:00</t>
   </si>
   <si>
     <t>CVE-2018-0737</t>
@@ -3007,7 +3007,7 @@
     <t>openssl: RSA key generation cache timing vulnerability in crypto/rsa/rsa_gen.c allows attackers to recover private keys</t>
   </si>
   <si>
-    <t>2018-04-17 02:29:00</t>
+    <t>2018 年 04 月 17 日 02:29:00</t>
   </si>
   <si>
     <t>CVE-2018-0739</t>
@@ -3019,10 +3019,10 @@
     <t>1.0.1t-1+deb8u8</t>
   </si>
   <si>
-    <t>2018-03-28 05:29:00</t>
-  </si>
-  <si>
-    <t>2023-11-07 10:51:06</t>
+    <t>2018 年 03 月 28 日 05:29:00</t>
+  </si>
+  <si>
+    <t>2023 年 11 月 07 日 10:51:06</t>
   </si>
   <si>
     <t>CVE-2018-5407</t>
@@ -3031,10 +3031,10 @@
     <t>openssl: Side-channel vulnerability on SMT/Hyper-Threading architectures (PortSmash)</t>
   </si>
   <si>
-    <t>2018-11-16 05:29:00</t>
-  </si>
-  <si>
-    <t>2023-11-07 10:58:42</t>
+    <t>2018 年 11 月 16 日 05:29:00</t>
+  </si>
+  <si>
+    <t>2023 年 11 月 07 日 10:58:42</t>
   </si>
   <si>
     <t>CVE-2019-1547</t>
@@ -3046,10 +3046,10 @@
     <t>1.0.1t-1+deb8u12</t>
   </si>
   <si>
-    <t>2019-09-11 01:15:11</t>
-  </si>
-  <si>
-    <t>2023-11-07 11:08:28</t>
+    <t>2019 年 09 月 11 日 01:15:11</t>
+  </si>
+  <si>
+    <t>2023 年 11 月 07 日 11:08:28</t>
   </si>
   <si>
     <t>CVE-2019-1559</t>
@@ -3061,10 +3061,10 @@
     <t>1.0.1t-1+deb8u11</t>
   </si>
   <si>
-    <t>2019-02-28 07:29:00</t>
-  </si>
-  <si>
-    <t>2023-11-07 11:08:30</t>
+    <t>2019 年 02 月 28 日 07:29:00</t>
+  </si>
+  <si>
+    <t>2023 年 11 月 07 日 11:08:30</t>
   </si>
   <si>
     <t>CVE-2019-1563</t>
@@ -3073,7 +3073,7 @@
     <t>information disclosure in PKCS7_dataDecode and CMS_decrypt_set1_pkey</t>
   </si>
   <si>
-    <t>2023-11-07 11:08:32</t>
+    <t>2023 年 11 月 07 日 11:08:32</t>
   </si>
   <si>
     <t>libstdc++6</t>
@@ -3094,10 +3094,10 @@
     <t>215-17+deb8u12</t>
   </si>
   <si>
-    <t>2018-01-29 13:29:00</t>
-  </si>
-  <si>
-    <t>2023-11-07 10:41:50</t>
+    <t>2018 年 01 月 29 日 13:29:00</t>
+  </si>
+  <si>
+    <t>2023 年 11 月 07 日 10:41:50</t>
   </si>
   <si>
     <t>CVE-2018-15686</t>
@@ -3109,10 +3109,10 @@
     <t>215-17+deb8u8</t>
   </si>
   <si>
-    <t>2018-10-26 22:29:00</t>
-  </si>
-  <si>
-    <t>2023-11-07 10:53:18</t>
+    <t>2018 年 10 月 26 日 22:29:00</t>
+  </si>
+  <si>
+    <t>2023 年 11 月 07 日 10:53:18</t>
   </si>
   <si>
     <t>CVE-2018-15688</t>
@@ -3121,7 +3121,7 @@
     <t>systemd: Out-of-bounds heap write in systemd-networkd dhcpv6 option handling</t>
   </si>
   <si>
-    <t>2022-02-01 02:30:19</t>
+    <t>2022 年 02 月 01 日 02:30:19</t>
   </si>
   <si>
     <t>CVE-2018-16864</t>
@@ -3133,10 +3133,10 @@
     <t>215-17+deb8u9</t>
   </si>
   <si>
-    <t>2019-01-12 04:29:00</t>
-  </si>
-  <si>
-    <t>2023-02-13 12:51:52</t>
+    <t>2019 年 01 月 12 日 04:29:00</t>
+  </si>
+  <si>
+    <t>2023 年 02 月 13 日 12:51:52</t>
   </si>
   <si>
     <t>CVE-2018-16865</t>
@@ -3145,10 +3145,10 @@
     <t>systemd: stack overflow when receiving many journald entries</t>
   </si>
   <si>
-    <t>2019-01-12 05:29:00</t>
-  </si>
-  <si>
-    <t>2023-02-13 12:52:11</t>
+    <t>2019 年 01 月 12 日 05:29:00</t>
+  </si>
+  <si>
+    <t>2023 年 02 月 13 日 12:52:11</t>
   </si>
   <si>
     <t>CVE-2019-3842</t>
@@ -3157,10 +3157,10 @@
     <t>Spoofing of XDG_SEAT allows for actions to be checked against "allow_active" instead of "allow_any"</t>
   </si>
   <si>
-    <t>2019-04-10 05:29:03</t>
-  </si>
-  <si>
-    <t>2023-11-07 11:10:13</t>
+    <t>2019 年 04 月 10 日 05:29:03</t>
+  </si>
+  <si>
+    <t>2023 年 11 月 07 日 11:10:13</t>
   </si>
   <si>
     <t>CVE-2016-7796</t>
@@ -3172,10 +3172,10 @@
     <t>215-17+deb8u6</t>
   </si>
   <si>
-    <t>2016-10-13 22:59:14</t>
-  </si>
-  <si>
-    <t>2023-09-12 22:45:07</t>
+    <t>2016 年 10 月 13 日 22:59:14</t>
+  </si>
+  <si>
+    <t>2023 年 09 月 12 日 22:45:07</t>
   </si>
   <si>
     <t>CVE-2018-1049</t>
@@ -3184,10 +3184,10 @@
     <t>systemd: automount: access to automounted volumes can lock up</t>
   </si>
   <si>
-    <t>2018-02-17 05:29:00</t>
-  </si>
-  <si>
-    <t>2022-02-01 02:26:17</t>
+    <t>2018 年 02 月 17 日 05:29:00</t>
+  </si>
+  <si>
+    <t>2022 年 02 月 01 日 02:26:17</t>
   </si>
   <si>
     <t>CVE-2019-6454</t>
@@ -3199,10 +3199,10 @@
     <t>215-17+deb8u10</t>
   </si>
   <si>
-    <t>2019-03-22 00:01:08</t>
-  </si>
-  <si>
-    <t>2023-11-07 11:13:09</t>
+    <t>2019 年 03 月 22 日 00:01:08</t>
+  </si>
+  <si>
+    <t>2023 年 11 月 07 日 11:13:09</t>
   </si>
   <si>
     <t>CVE-2018-16888</t>
@@ -3211,7 +3211,7 @@
     <t>systemd: kills privileged process if unprivileged PIDFile was tampered</t>
   </si>
   <si>
-    <t>2019-01-15 06:29:00</t>
+    <t>2019 年 01 月 15 日 06:29:00</t>
   </si>
   <si>
     <t>CVE-2018-6954</t>
@@ -3220,10 +3220,10 @@
     <t>Mishandled symlinks in systemd-tmpfiles allows local users to obtain ownership of arbitrary files</t>
   </si>
   <si>
-    <t>2018-02-14 04:29:00</t>
-  </si>
-  <si>
-    <t>2023-11-07 11:00:35</t>
+    <t>2018 年 02 月 14 日 04:29:00</t>
+  </si>
+  <si>
+    <t>2023 年 11 月 07 日 11:00:35</t>
   </si>
   <si>
     <t>CVE-2019-3815</t>
@@ -3235,10 +3235,10 @@
     <t>215-17+deb8u11</t>
   </si>
   <si>
-    <t>2019-01-28 23:29:00</t>
-  </si>
-  <si>
-    <t>2023-02-13 07:38:20</t>
+    <t>2019 年 01 月 28 日 23:29:00</t>
+  </si>
+  <si>
+    <t>2023 年 02 月 13 日 07:38:20</t>
   </si>
   <si>
     <t>DLA-1762-2</t>
@@ -3265,7 +3265,7 @@
     <t>4.2-3+deb8u4</t>
   </si>
   <si>
-    <t>2017-07-02 11:29:00</t>
+    <t>2017 年 07 月 02 日 11:29:00</t>
   </si>
   <si>
     <t>CVE-2017-6891</t>
@@ -3277,10 +3277,10 @@
     <t>4.2-3+deb8u3</t>
   </si>
   <si>
-    <t>2017-05-23 03:29:00</t>
-  </si>
-  <si>
-    <t>2023-11-07 10:49:59</t>
+    <t>2017 年 05 月 23 日 03:29:00</t>
+  </si>
+  <si>
+    <t>2023 年 11 月 07 日 10:49:59</t>
   </si>
   <si>
     <t>libtinfo5</t>
@@ -3307,7 +3307,7 @@
     <t>2:1.6.2-3+deb8u2</t>
   </si>
   <si>
-    <t>2018-08-25 03:29:01</t>
+    <t>2018 年 08 月 25 日 03:29:01</t>
   </si>
   <si>
     <t>CVE-2018-14600</t>
@@ -3316,7 +3316,7 @@
     <t>libX11: Out of Bounds write in XListExtensions in ListExt.c</t>
   </si>
   <si>
-    <t>2019-08-07 01:15:23</t>
+    <t>2019 年 08 月 07 日 01:15:23</t>
   </si>
   <si>
     <t>CVE-2018-14598</t>
@@ -3334,10 +3334,10 @@
     <t>2:1.6.2-3+deb8u1</t>
   </si>
   <si>
-    <t>2016-12-14 04:59:05</t>
-  </si>
-  <si>
-    <t>2023-11-07 10:35:17</t>
+    <t>2016 年 12 月 14 日 04:59:05</t>
+  </si>
+  <si>
+    <t>2023 年 11 月 07 日 10:35:17</t>
   </si>
   <si>
     <t>CVE-2016-7943</t>
@@ -3346,7 +3346,7 @@
     <t>libX11: Insufficient validation of server responses in FontNames</t>
   </si>
   <si>
-    <t>2016-12-14 04:59:07</t>
+    <t>2016 年 12 月 14 日 04:59:07</t>
   </si>
   <si>
     <t>libx11-data</t>
@@ -3382,10 +3382,10 @@
     <t>2:1.7.4-1+deb8u1</t>
   </si>
   <si>
-    <t>2016-12-14 04:59:10</t>
-  </si>
-  <si>
-    <t>2023-11-07 10:35:18</t>
+    <t>2016 年 12 月 14 日 04:59:10</t>
+  </si>
+  <si>
+    <t>2023 年 11 月 07 日 10:35:18</t>
   </si>
   <si>
     <t>CVE-2016-7946</t>
@@ -3394,7 +3394,7 @@
     <t>libXi: Insufficient validation of server responses result in various data mishandlings</t>
   </si>
   <si>
-    <t>2016-12-14 04:59:11</t>
+    <t>2016 年 12 月 14 日 04:59:11</t>
   </si>
   <si>
     <t>CVE-2016-7949</t>
@@ -3409,10 +3409,10 @@
     <t>1:0.9.8-1+b1</t>
   </si>
   <si>
-    <t>2016-12-14 04:59:15</t>
-  </si>
-  <si>
-    <t>2023-11-07 10:35:19</t>
+    <t>2016 年 12 月 14 日 04:59:15</t>
+  </si>
+  <si>
+    <t>2023 年 11 月 07 日 10:35:19</t>
   </si>
   <si>
     <t>CVE-2016-7950</t>
@@ -3421,7 +3421,7 @@
     <t>libXrender: Insufficient validation of server responses results out-of-bounds write in XRenderQueryFilters</t>
   </si>
   <si>
-    <t>2016-12-14 04:59:16</t>
+    <t>2016 年 12 月 14 日 04:59:16</t>
   </si>
   <si>
     <t>CVE-2016-7951</t>
@@ -3439,7 +3439,7 @@
     <t>2:1.2.2-1+deb8u1</t>
   </si>
   <si>
-    <t>2016-12-14 04:59:18</t>
+    <t>2016 年 12 月 14 日 04:59:18</t>
   </si>
   <si>
     <t>CVE-2016-7952</t>
@@ -3448,10 +3448,10 @@
     <t>libXtst: Insufficient validation of server responses result in various data mishandlings</t>
   </si>
   <si>
-    <t>2016-12-14 04:59:19</t>
-  </si>
-  <si>
-    <t>2023-11-07 10:35:20</t>
+    <t>2016 年 12 月 14 日 04:59:19</t>
+  </si>
+  <si>
+    <t>2023 年 11 月 07 日 10:35:20</t>
   </si>
   <si>
     <t>CVE-2017-12424</t>
@@ -3466,10 +3466,10 @@
     <t>1:4.2-3+deb8u1</t>
   </si>
   <si>
-    <t>2017-08-04 17:29:00</t>
-  </si>
-  <si>
-    <t>2021-03-24 04:02:18</t>
+    <t>2017 年 08 月 04 日 17:29:00</t>
+  </si>
+  <si>
+    <t>2021 年 03 月 24 日 04:02:18</t>
   </si>
   <si>
     <t>CVE-2016-6252</t>
@@ -3481,10 +3481,10 @@
     <t>1:4.2-3+deb8u3</t>
   </si>
   <si>
-    <t>2017-02-18 01:59:00</t>
-  </si>
-  <si>
-    <t>2017-11-04 09:29:21</t>
+    <t>2017 年 02 月 18 日 01:59:00</t>
+  </si>
+  <si>
+    <t>2017 年 11 月 04 日 09:29:21</t>
   </si>
   <si>
     <t>CVE-2017-2616</t>
@@ -3493,10 +3493,10 @@
     <t>util-linux: Sending SIGKILL to other processes with root privileges via su</t>
   </si>
   <si>
-    <t>2018-07-28 03:29:00</t>
-  </si>
-  <si>
-    <t>2019-10-10 07:26:56</t>
+    <t>2018 年 07 月 28 日 03:29:00</t>
+  </si>
+  <si>
+    <t>2019 年 10 月 10 日 07:26:56</t>
   </si>
   <si>
     <t>CVE-2018-7169</t>
@@ -3505,7 +3505,7 @@
     <t>shadow-utils: newgidmap allows unprivileged user to drop supplementary groups potentially allowing privilege escalation</t>
   </si>
   <si>
-    <t>2018-02-16 04:29:00</t>
+    <t>2018 年 02 月 16 日 04:29:00</t>
   </si>
   <si>
     <t>DSA-3793-2</t>
@@ -3553,10 +3553,10 @@
     <t>5.20.2-3+deb8u9</t>
   </si>
   <si>
-    <t>2017-09-20 02:29:00</t>
-  </si>
-  <si>
-    <t>2020-07-15 11:15:18</t>
+    <t>2017 年 09 月 20 日 02:29:00</t>
+  </si>
+  <si>
+    <t>2020 年 07 月 15 日 11:15:18</t>
   </si>
   <si>
     <t>CVE-2018-18311</t>
@@ -3568,10 +3568,10 @@
     <t>5.20.2-3+deb8u12</t>
   </si>
   <si>
-    <t>2018-12-08 05:29:00</t>
-  </si>
-  <si>
-    <t>2023-11-07 10:55:02</t>
+    <t>2018 年 12 月 08 日 05:29:00</t>
+  </si>
+  <si>
+    <t>2023 年 11 月 07 日 10:55:02</t>
   </si>
   <si>
     <t>CVE-2018-6797</t>
@@ -3580,7 +3580,7 @@
     <t>perl: heap write overflow in regcomp.c</t>
   </si>
   <si>
-    <t>2018-04-18 04:29:00</t>
+    <t>2018 年 04 月 18 日 04:29:00</t>
   </si>
   <si>
     <t>CVE-2018-6913</t>
@@ -3607,7 +3607,7 @@
     <t>5.20.2-3+deb8u11</t>
   </si>
   <si>
-    <t>2018-06-07 21:29:00</t>
+    <t>2018 年 06 月 07 日 21:29:00</t>
   </si>
   <si>
     <t>CVE-2017-6512</t>
@@ -3619,10 +3619,10 @@
     <t>5.20.2-3+deb8u7</t>
   </si>
   <si>
-    <t>2017-06-02 00:29:00</t>
-  </si>
-  <si>
-    <t>2020-04-30 04:24:59</t>
+    <t>2017 年 06 月 02 日 00:29:00</t>
+  </si>
+  <si>
+    <t>2020 年 04 月 30 日 04:24:59</t>
   </si>
   <si>
     <t>procps</t>
@@ -3643,10 +3643,10 @@
     <t>0.0.9+deb8u1</t>
   </si>
   <si>
-    <t>2017-12-11 14:29:00</t>
-  </si>
-  <si>
-    <t>2018-03-16 09:29:07</t>
+    <t>2017 年 12 月 11 日 14:29:00</t>
+  </si>
+  <si>
+    <t>2018 年 03 月 16 日 09:29:07</t>
   </si>
   <si>
     <t>systemd</t>
@@ -3670,10 +3670,10 @@
     <t>1.27.1-2+deb8u1</t>
   </si>
   <si>
-    <t>2016-12-10 06:59:00</t>
-  </si>
-  <si>
-    <t>2023-02-13 12:50:12</t>
+    <t>2016 年 12 月 10 日 06:59:00</t>
+  </si>
+  <si>
+    <t>2023 年 02 月 13 日 12:50:12</t>
   </si>
   <si>
     <t>CVE-2018-20482</t>
@@ -3685,10 +3685,10 @@
     <t>1.27.1-2+deb8u2</t>
   </si>
   <si>
-    <t>2018-12-27 02:29:00</t>
-  </si>
-  <si>
-    <t>2021-12-01 03:52:03</t>
+    <t>2018 年 12 月 27 日 02:29:00</t>
+  </si>
+  <si>
+    <t>2021 年 12 月 01 日 03:52:03</t>
   </si>
   <si>
     <t>DLA-1563-1</t>
@@ -3745,7 +3745,7 @@
     <t>6.0-16+deb8u6</t>
   </si>
   <si>
-    <t>2018-02-10 07:29:01</t>
+    <t>2018 年 02 月 10 日 07:29:01</t>
   </si>
   <si>
     <t>CVE-2014-9913</t>
@@ -3757,10 +3757,10 @@
     <t>6.0-16+deb8u3</t>
   </si>
   <si>
-    <t>2017-01-19 01:59:00</t>
-  </si>
-  <si>
-    <t>2019-12-17 04:24:14</t>
+    <t>2017 年 01 月 19 日 01:59:00</t>
+  </si>
+  <si>
+    <t>2019 年 12 月 17 日 04:24:14</t>
   </si>
   <si>
     <t>CVE-2016-9844</t>
@@ -3769,7 +3769,7 @@
     <t>unzip: methbuf[] buffer overflow in zipinfo's zi_short()</t>
   </si>
   <si>
-    <t>2017-01-19 01:59:01</t>
+    <t>2017 年 01 月 19 日 01:59:01</t>
   </si>
   <si>
     <t>CVE-2019-13232</t>
@@ -3781,10 +3781,10 @@
     <t>6.0-16+deb8u4</t>
   </si>
   <si>
-    <t>2019-07-04 21:15:10</t>
-  </si>
-  <si>
-    <t>2023-11-07 11:03:48</t>
+    <t>2019 年 07 月 04 日 21:15:10</t>
+  </si>
+  <si>
+    <t>2023 年 11 月 07 日 11:03:48</t>
   </si>
   <si>
     <t>DLA-1846-2</t>
@@ -3814,7 +3814,7 @@
     <t>1.16-1+deb8u6</t>
   </si>
   <si>
-    <t>2019-05-18 00:29:05</t>
+    <t>2019 年 05 月 18 日 00:29:05</t>
   </si>
   <si>
     <t>CVE-2016-7098</t>
@@ -3826,10 +3826,10 @@
     <t>1.16-1+deb8u7</t>
   </si>
   <si>
-    <t>2016-09-26 22:59:08</t>
-  </si>
-  <si>
-    <t>2017-09-03 09:29:12</t>
+    <t>2016 年 09 月 26 日 22:59:08</t>
+  </si>
+  <si>
+    <t>2017 年 09 月 03 日 09:29:12</t>
   </si>
   <si>
     <t>CVE-2017-13089</t>
@@ -3841,10 +3841,10 @@
     <t>1.16-1+deb8u4</t>
   </si>
   <si>
-    <t>2017-10-28 03:29:00</t>
-  </si>
-  <si>
-    <t>2017-12-30 10:29:01</t>
+    <t>2017 年 10 月 28 日 03:29:00</t>
+  </si>
+  <si>
+    <t>2017 年 12 月 30 日 10:29:01</t>
   </si>
   <si>
     <t>CVE-2017-13090</t>
@@ -3862,10 +3862,10 @@
     <t>1.16-1+deb8u2</t>
   </si>
   <si>
-    <t>2017-03-07 16:59:00</t>
-  </si>
-  <si>
-    <t>2017-07-01 09:30:31</t>
+    <t>2017 年 03 月 07 日 16:59:00</t>
+  </si>
+  <si>
+    <t>2017 年 07 月 01 日 09:30:31</t>
   </si>
   <si>
     <t>CVE-2018-0494</t>
@@ -3877,10 +3877,10 @@
     <t>1.16-1+deb8u5</t>
   </si>
   <si>
-    <t>2018-05-07 06:29:00</t>
-  </si>
-  <si>
-    <t>2019-03-15 09:22:23</t>
+    <t>2018 年 05 月 07 日 06:29:00</t>
+  </si>
+  <si>
+    <t>2019 年 03 月 15 日 09:22:23</t>
   </si>
   <si>
     <t>CVE-2016-9841</t>
@@ -3898,10 +3898,10 @@
     <t>1:1.2.8.dfsg-2+deb8u1</t>
   </si>
   <si>
-    <t>2017-05-23 12:29:01</t>
-  </si>
-  <si>
-    <t>2023-11-07 10:37:36</t>
+    <t>2017 年 05 月 23 日 12:29:01</t>
+  </si>
+  <si>
+    <t>2023 年 11 月 07 日 10:37:36</t>
   </si>
   <si>
     <t>CVE-2016-9843</t>
@@ -3916,7 +3916,7 @@
     <t>zlib: Out-of-bounds pointer arithmetic in inftrees.c</t>
   </si>
   <si>
-    <t>2023-11-07 10:37:35</t>
+    <t>2023 年 11 月 07 日 10:37:35</t>
   </si>
   <si>
     <t>CVE-2016-9842</t>
@@ -3955,10 +3955,10 @@
     <t>1.3.12, 1.4.12, 1.2.13</t>
   </si>
   <si>
-    <t>2023-11-29 20:15:07</t>
-  </si>
-  <si>
-    <t>2023-12-06 05:00:10</t>
+    <t>2023 年 11 月 29 日 20:15:07</t>
+  </si>
+  <si>
+    <t>2023 年 12 月 06 日 05:00:10</t>
   </si>
   <si>
     <t>ch.qos.logback:logback-core</t>
@@ -3976,10 +3976,10 @@
     <t>1.2.9</t>
   </si>
   <si>
-    <t>2021-12-17 03:15:08</t>
-  </si>
-  <si>
-    <t>2022-12-13 05:13:07</t>
+    <t>2021 年 12 月 17 日 03:15:08</t>
+  </si>
+  <si>
+    <t>2022 年 12 月 13 日 05:13:07</t>
   </si>
   <si>
     <t>CVE-2017-18349</t>
@@ -4000,10 +4000,10 @@
     <t>1.2.31</t>
   </si>
   <si>
-    <t>2018-10-24 04:29:00</t>
-  </si>
-  <si>
-    <t>2019-01-29 04:57:39</t>
+    <t>2018 年 10 月 24 日 04:29:00</t>
+  </si>
+  <si>
+    <t>2019 年 01 月 29 日 04:57:39</t>
   </si>
   <si>
     <t>CVE-2022-25845</t>
@@ -4015,10 +4015,10 @@
     <t>1.2.83</t>
   </si>
   <si>
-    <t>2022-06-11 04:15:08</t>
-  </si>
-  <si>
-    <t>2023-02-24 01:51:57</t>
+    <t>2022 年 06 月 11 日 04:15:08</t>
+  </si>
+  <si>
+    <t>2023 年 02 月 24 日 01:51:57</t>
   </si>
   <si>
     <t>CVE-2019-14379</t>
@@ -4039,10 +4039,10 @@
     <t>2.9.9.2, 2.8.11.4, 2.7.9.6</t>
   </si>
   <si>
-    <t>2019-07-29 20:15:16</t>
-  </si>
-  <si>
-    <t>2023-11-07 11:04:54</t>
+    <t>2019 年 07 月 29 日 20:15:16</t>
+  </si>
+  <si>
+    <t>2023 年 11 月 07 日 11:04:54</t>
   </si>
   <si>
     <t>CVE-2019-14540</t>
@@ -4054,10 +4054,10 @@
     <t>2.9.10, 2.8.11.5, 2.6.7.3</t>
   </si>
   <si>
-    <t>2019-09-16 06:15:10</t>
-  </si>
-  <si>
-    <t>2023-11-07 11:04:59</t>
+    <t>2019 年 09 月 16 日 06:15:10</t>
+  </si>
+  <si>
+    <t>2023 年 11 月 07 日 11:04:59</t>
   </si>
   <si>
     <t>CVE-2019-16335</t>
@@ -4066,7 +4066,7 @@
     <t>Serialization gadgets in com.zaxxer.hikari.HikariDataSource</t>
   </si>
   <si>
-    <t>2023-11-07 11:05:40</t>
+    <t>2023 年 11 月 07 日 11:05:40</t>
   </si>
   <si>
     <t>CVE-2019-16942</t>
@@ -4078,10 +4078,10 @@
     <t>2.9.10.1, 2.8.11.5, 2.6.7.3</t>
   </si>
   <si>
-    <t>2019-10-02 01:15:10</t>
-  </si>
-  <si>
-    <t>2023-11-07 11:06:03</t>
+    <t>2019 年 10 月 02 日 01:15:10</t>
+  </si>
+  <si>
+    <t>2023 年 11 月 07 日 11:06:03</t>
   </si>
   <si>
     <t>CVE-2019-16943</t>
@@ -4099,10 +4099,10 @@
     <t>2.9.10, 2.8.11.5</t>
   </si>
   <si>
-    <t>2019-10-07 08:15:10</t>
-  </si>
-  <si>
-    <t>2023-11-07 11:06:12</t>
+    <t>2019 年 10 月 07 日 08:15:10</t>
+  </si>
+  <si>
+    <t>2023 年 11 月 07 日 11:06:12</t>
   </si>
   <si>
     <t>CVE-2019-17531</t>
@@ -4111,7 +4111,7 @@
     <t>jackson-databind: Serialization gadgets in org.apache.log4j.receivers.db.*</t>
   </si>
   <si>
-    <t>2019-10-13 05:15:08</t>
+    <t>2019 年 10 月 13 日 05:15:08</t>
   </si>
   <si>
     <t>CVE-2019-20330</t>
@@ -4123,10 +4123,10 @@
     <t>2.6.7.4, 2.7.9.7, 2.8.11.5, 2.9.10.2</t>
   </si>
   <si>
-    <t>2020-01-03 12:15:12</t>
-  </si>
-  <si>
-    <t>2023-11-07 11:09:07</t>
+    <t>2020 年 01 月 03 日 12:15:12</t>
+  </si>
+  <si>
+    <t>2023 年 11 月 07 日 11:09:07</t>
   </si>
   <si>
     <t>CVE-2020-8840</t>
@@ -4138,10 +4138,10 @@
     <t>2.6.7.4, 2.7.9.7, 2.8.11.5, 2.9.10.3</t>
   </si>
   <si>
-    <t>2020-02-11 05:56:10</t>
-  </si>
-  <si>
-    <t>2023-11-07 11:26:46</t>
+    <t>2020 年 02 月 11 日 05:56:10</t>
+  </si>
+  <si>
+    <t>2023 年 11 月 07 日 11:26:46</t>
   </si>
   <si>
     <t>CVE-2020-9546</t>
@@ -4153,10 +4153,10 @@
     <t>2.9.10.4</t>
   </si>
   <si>
-    <t>2020-03-02 12:15:10</t>
-  </si>
-  <si>
-    <t>2023-11-07 11:26:58</t>
+    <t>2020 年 03 月 02 日 12:15:10</t>
+  </si>
+  <si>
+    <t>2023 年 11 月 07 日 11:26:58</t>
   </si>
   <si>
     <t>CVE-2020-9547</t>
@@ -4168,7 +4168,7 @@
     <t>2.9.10.4, 2.8.11.6, 2.7.9.7</t>
   </si>
   <si>
-    <t>2020-03-02 12:15:11</t>
+    <t>2020 年 03 月 02 日 12:15:11</t>
   </si>
   <si>
     <t>CVE-2020-9548</t>
@@ -4186,10 +4186,10 @@
     <t>2.9.9.2, 2.8.11.4, 2.7.9.6, 2.6.7.3</t>
   </si>
   <si>
-    <t>2019-07-30 19:15:11</t>
-  </si>
-  <si>
-    <t>2023-11-07 11:04:55</t>
+    <t>2019 年 07 月 30 日 19:15:11</t>
+  </si>
+  <si>
+    <t>2023 年 11 月 07 日 11:04:55</t>
   </si>
   <si>
     <t>CVE-2019-14892</t>
@@ -4201,10 +4201,10 @@
     <t>2.6.7.3, 2.8.11.5, 2.9.10</t>
   </si>
   <si>
-    <t>2020-03-03 01:15:17</t>
-  </si>
-  <si>
-    <t>2023-11-07 11:05:21</t>
+    <t>2020 年 03 月 03 日 01:15:17</t>
+  </si>
+  <si>
+    <t>2023 年 11 月 07 日 11:05:21</t>
   </si>
   <si>
     <t>CVE-2019-14893</t>
@@ -4216,7 +4216,7 @@
     <t>2.9.10</t>
   </si>
   <si>
-    <t>2020-03-03 05:15:17</t>
+    <t>2020 年 03 月 03 日 05:15:17</t>
   </si>
   <si>
     <t>CVE-2020-10650</t>
@@ -4225,10 +4225,10 @@
     <t>A deserialization flaw was discovered in jackson-databind through 2.9. ...</t>
   </si>
   <si>
-    <t>2022-12-27 04:15:10</t>
-  </si>
-  <si>
-    <t>2023-08-18 22:15:18</t>
+    <t>2022 年 12 月 27 日 04:15:10</t>
+  </si>
+  <si>
+    <t>2023 年 08 月 18 日 22:15:18</t>
   </si>
   <si>
     <t>CVE-2020-10672</t>
@@ -4237,10 +4237,10 @@
     <t>jackson-databind: mishandles the interaction between serialization gadgets and typing which could result in remote command execution</t>
   </si>
   <si>
-    <t>2020-03-19 06:15:12</t>
-  </si>
-  <si>
-    <t>2023-11-07 11:14:11</t>
+    <t>2020 年 03 月 19 日 06:15:12</t>
+  </si>
+  <si>
+    <t>2023 年 11 月 07 日 11:14:11</t>
   </si>
   <si>
     <t>CVE-2020-10673</t>
@@ -4255,10 +4255,10 @@
     <t>jackson-databind: Serialization gadgets in org.aoju.bus.proxy.provider.*.RmiProvider</t>
   </si>
   <si>
-    <t>2020-03-26 21:15:12</t>
-  </si>
-  <si>
-    <t>2023-11-07 11:14:26</t>
+    <t>2020 年 03 月 26 日 21:15:12</t>
+  </si>
+  <si>
+    <t>2023 年 11 月 07 日 11:14:26</t>
   </si>
   <si>
     <t>CVE-2020-10969</t>
@@ -4267,7 +4267,7 @@
     <t>jackson-databind: Serialization gadgets in javax.swing.JEditorPane</t>
   </si>
   <si>
-    <t>2020-03-26 21:15:13</t>
+    <t>2020 年 03 月 26 日 21:15:13</t>
   </si>
   <si>
     <t>CVE-2020-11111</t>
@@ -4276,10 +4276,10 @@
     <t>jackson-databind: Serialization gadgets in org.apache.activemq.jms.pool.XaPooledConnectionFactory</t>
   </si>
   <si>
-    <t>2020-03-31 13:15:13</t>
-  </si>
-  <si>
-    <t>2023-11-07 11:14:30</t>
+    <t>2020 年 03 月 31 日 13:15:13</t>
+  </si>
+  <si>
+    <t>2023 年 11 月 07 日 11:14:30</t>
   </si>
   <si>
     <t>CVE-2020-11112</t>
@@ -4300,10 +4300,10 @@
     <t>jackson-databind: Serialization gadgets in org.springframework:spring-aop</t>
   </si>
   <si>
-    <t>2020-04-08 07:15:12</t>
-  </si>
-  <si>
-    <t>2023-11-07 11:15:00</t>
+    <t>2020 年 04 月 08 日 07:15:12</t>
+  </si>
+  <si>
+    <t>2023 年 11 月 07 日 11:15:00</t>
   </si>
   <si>
     <t>CVE-2020-11620</t>
@@ -4321,10 +4321,10 @@
     <t>2.9.10.5</t>
   </si>
   <si>
-    <t>2020-06-15 05:15:09</t>
-  </si>
-  <si>
-    <t>2023-11-07 11:17:05</t>
+    <t>2020 年 06 月 15 日 05:15:09</t>
+  </si>
+  <si>
+    <t>2023 年 11 月 07 日 11:17:05</t>
   </si>
   <si>
     <t>CVE-2020-14061</t>
@@ -4333,7 +4333,7 @@
     <t>jackson-databind: serialization in weblogic/oracle-aqjms</t>
   </si>
   <si>
-    <t>2020-06-15 04:15:10</t>
+    <t>2020 年 06 月 15 日 04:15:10</t>
   </si>
   <si>
     <t>CVE-2020-14062</t>
@@ -4348,10 +4348,10 @@
     <t>jackson-databind: serialization in org.jsecurity.realm.jndi.JndiRealmFactory</t>
   </si>
   <si>
-    <t>2020-06-17 00:15:11</t>
-  </si>
-  <si>
-    <t>2021-11-18 04:20:55</t>
+    <t>2020 年 06 月 17 日 00:15:11</t>
+  </si>
+  <si>
+    <t>2021 年 11 月 18 日 04:20:55</t>
   </si>
   <si>
     <t>CVE-2020-24616</t>
@@ -4363,10 +4363,10 @@
     <t>2.9.10.6</t>
   </si>
   <si>
-    <t>2020-08-26 02:15:11</t>
-  </si>
-  <si>
-    <t>2023-11-07 11:20:08</t>
+    <t>2020 年 08 月 26 日 02:15:11</t>
+  </si>
+  <si>
+    <t>2023 年 11 月 07 日 11:20:08</t>
   </si>
   <si>
     <t>CVE-2020-24750</t>
@@ -4378,10 +4378,10 @@
     <t>2.6.7.5, 2.9.10.6</t>
   </si>
   <si>
-    <t>2020-09-18 03:15:13</t>
-  </si>
-  <si>
-    <t>2023-09-13 22:56:17</t>
+    <t>2020 年 09 月 18 日 03:15:13</t>
+  </si>
+  <si>
+    <t>2023 年 09 月 13 日 22:56:17</t>
   </si>
   <si>
     <t>CVE-2020-25649</t>
@@ -4393,10 +4393,10 @@
     <t>2.6.7.4, 2.9.10.7, 2.10.5.1</t>
   </si>
   <si>
-    <t>2020-12-04 01:15:12</t>
-  </si>
-  <si>
-    <t>2023-11-07 11:20:18</t>
+    <t>2020 年 12 月 04 日 01:15:12</t>
+  </si>
+  <si>
+    <t>2023 年 11 月 07 日 11:20:18</t>
   </si>
   <si>
     <t>CVE-2020-35490</t>
@@ -4408,10 +4408,10 @@
     <t>2.9.10.8</t>
   </si>
   <si>
-    <t>2020-12-18 03:15:14</t>
-  </si>
-  <si>
-    <t>2022-09-09 05:32:11</t>
+    <t>2020 年 12 月 18 日 03:15:14</t>
+  </si>
+  <si>
+    <t>2022 年 09 月 09 日 05:32:11</t>
   </si>
   <si>
     <t>CVE-2020-35491</t>
@@ -4420,7 +4420,7 @@
     <t>jackson-databind: mishandles the interaction between serialization gadgets and typing, related to org.apache.commons.dbcp2.datasources.SharedPoolDataSource</t>
   </si>
   <si>
-    <t>2022-09-09 05:32:07</t>
+    <t>2022 年 09 月 09 日 05:32:07</t>
   </si>
   <si>
     <t>CVE-2020-35728</t>
@@ -4429,10 +4429,10 @@
     <t>jackson-databind: mishandles the interaction between serialization gadgets and typing, related to com.oracle.wls.shaded.org.apache.xalan.lib.sql.JNDIConnectionPool</t>
   </si>
   <si>
-    <t>2020-12-27 13:15:11</t>
-  </si>
-  <si>
-    <t>2023-11-07 11:22:02</t>
+    <t>2020 年 12 月 27 日 13:15:11</t>
+  </si>
+  <si>
+    <t>2023 年 11 月 07 日 11:22:02</t>
   </si>
   <si>
     <t>CVE-2020-36179</t>
@@ -4444,10 +4444,10 @@
     <t>2.9.10.8, 2.6.7.5</t>
   </si>
   <si>
-    <t>2021-01-07 08:15:14</t>
-  </si>
-  <si>
-    <t>2023-11-07 11:22:06</t>
+    <t>2021 年 01 月 07 日 08:15:14</t>
+  </si>
+  <si>
+    <t>2023 年 11 月 07 日 11:22:06</t>
   </si>
   <si>
     <t>CVE-2020-36180</t>
@@ -4456,7 +4456,7 @@
     <t>jackson-databind: mishandles the interaction between serialization gadgets and typing, related to org.apache.commons.dbcp2.cpdsadapter.DriverAdapterCPDS</t>
   </si>
   <si>
-    <t>2023-09-13 22:56:32</t>
+    <t>2023 年 09 月 13 日 22:56:32</t>
   </si>
   <si>
     <t>CVE-2020-36181</t>
@@ -4465,10 +4465,10 @@
     <t>jackson-databind: mishandles the interaction between serialization gadgets and typing, related to org.apache.tomcat.dbcp.dbcp.cpdsadapter.DriverAdapterCPDS</t>
   </si>
   <si>
-    <t>2021-01-07 07:15:12</t>
-  </si>
-  <si>
-    <t>2023-09-13 22:56:39</t>
+    <t>2021 年 01 月 07 日 07:15:12</t>
+  </si>
+  <si>
+    <t>2023 年 09 月 13 日 22:56:39</t>
   </si>
   <si>
     <t>CVE-2020-36182</t>
@@ -4477,7 +4477,7 @@
     <t>jackson-databind: mishandles the interaction between serialization gadgets and typing, related to org.apache.tomcat.dbcp.dbcp2.cpdsadapter.DriverAdapterCPDS</t>
   </si>
   <si>
-    <t>2023-09-13 22:56:46</t>
+    <t>2023 年 09 月 13 日 22:56:46</t>
   </si>
   <si>
     <t>CVE-2020-36183</t>
@@ -4486,10 +4486,10 @@
     <t>jackson-databind: mishandles the interaction between serialization gadgets and typing, related to org.docx4j.org.apache.xalan.lib.sql.JNDIConnectionPool</t>
   </si>
   <si>
-    <t>2021-01-07 08:15:15</t>
-  </si>
-  <si>
-    <t>2023-09-13 22:56:58</t>
+    <t>2021 年 01 月 07 日 08:15:15</t>
+  </si>
+  <si>
+    <t>2023 年 09 月 13 日 22:56:58</t>
   </si>
   <si>
     <t>CVE-2020-36184</t>
@@ -4498,10 +4498,10 @@
     <t>jackson-databind: mishandles the interaction between serialization gadgets and typing, related to org.apache.tomcat.dbcp.dbcp2.datasources.PerUserPoolDataSource</t>
   </si>
   <si>
-    <t>2021-01-07 07:15:13</t>
-  </si>
-  <si>
-    <t>2023-09-13 22:57:10</t>
+    <t>2021 年 01 月 07 日 07:15:13</t>
+  </si>
+  <si>
+    <t>2023 年 09 月 13 日 22:57:10</t>
   </si>
   <si>
     <t>CVE-2020-36185</t>
@@ -4510,7 +4510,7 @@
     <t>jackson-databind: mishandles the interaction between serialization gadgets and typing, related to org.apache.tomcat.dbcp.dbcp2.datasources.SharedPoolDataSource</t>
   </si>
   <si>
-    <t>2023-09-13 22:57:03</t>
+    <t>2023 年 09 月 13 日 22:57:03</t>
   </si>
   <si>
     <t>CVE-2020-36186</t>
@@ -4519,7 +4519,7 @@
     <t>jackson-databind: mishandles the interaction between serialization gadgets and typing, related to org.apache.tomcat.dbcp.dbcp.datasources.PerUserPoolDataSource</t>
   </si>
   <si>
-    <t>2023-09-13 22:57:19</t>
+    <t>2023 年 09 月 13 日 22:57:19</t>
   </si>
   <si>
     <t>CVE-2020-36187</t>
@@ -4528,7 +4528,7 @@
     <t>jackson-databind: mishandles the interaction between serialization gadgets and typing, related to org.apache.tomcat.dbcp.dbcp.datasources.SharedPoolDataSource</t>
   </si>
   <si>
-    <t>2023-09-13 22:57:25</t>
+    <t>2023 年 09 月 13 日 22:57:25</t>
   </si>
   <si>
     <t>CVE-2020-36188</t>
@@ -4537,7 +4537,7 @@
     <t>jackson-databind: mishandles the interaction between serialization gadgets and typing, related to com.newrelic.agent.deps.ch.qos.logback.core.db.JNDIConnectionSource</t>
   </si>
   <si>
-    <t>2023-09-13 22:57:31</t>
+    <t>2023 年 09 月 13 日 22:57:31</t>
   </si>
   <si>
     <t>CVE-2020-36189</t>
@@ -4546,7 +4546,7 @@
     <t>jackson-databind: mishandles the interaction between serialization gadgets and typing, related to com.newrelic.agent.deps.ch.qos.logback.core.db.DriverManagerConnectionSource</t>
   </si>
   <si>
-    <t>2023-09-13 22:57:37</t>
+    <t>2023 年 09 月 13 日 22:57:37</t>
   </si>
   <si>
     <t>CVE-2020-36518</t>
@@ -4558,10 +4558,10 @@
     <t>2.13.2.1, 2.12.6.1</t>
   </si>
   <si>
-    <t>2022-03-11 15:15:07</t>
-  </si>
-  <si>
-    <t>2022-11-30 06:12:38</t>
+    <t>2022 年 03 月 11 日 15:15:07</t>
+  </si>
+  <si>
+    <t>2022 年 11 月 30 日 06:12:38</t>
   </si>
   <si>
     <t>CVE-2021-20190</t>
@@ -4573,10 +4573,10 @@
     <t>2.9.10.7, 2.6.7.5</t>
   </si>
   <si>
-    <t>2021-01-20 01:15:13</t>
-  </si>
-  <si>
-    <t>2023-11-07 11:28:59</t>
+    <t>2021 年 01 月 20 日 01:15:13</t>
+  </si>
+  <si>
+    <t>2023 年 11 月 07 日 11:28:59</t>
   </si>
   <si>
     <t>CVE-2022-42003</t>
@@ -4588,10 +4588,10 @@
     <t>2.12.7.1, 2.13.4.2</t>
   </si>
   <si>
-    <t>2022-10-02 13:15:09</t>
-  </si>
-  <si>
-    <t>2023-12-20 18:15:07</t>
+    <t>2022 年 10 月 02 日 13:15:09</t>
+  </si>
+  <si>
+    <t>2023 年 12 月 20 日 18:15:07</t>
   </si>
   <si>
     <t>CVE-2022-42004</t>
@@ -4603,7 +4603,7 @@
     <t>2.12.7.1, 2.13.4</t>
   </si>
   <si>
-    <t>2022-12-02 23:10:05</t>
+    <t>2022 年 12 月 02 日 23:10:05</t>
   </si>
   <si>
     <t>CVE-2019-12384</t>
@@ -4615,10 +4615,10 @@
     <t>2.9.9.1, 2.8.11.4, 2.7.9.6, 2.6.7.3</t>
   </si>
   <si>
-    <t>2019-06-25 00:15:15</t>
-  </si>
-  <si>
-    <t>2023-11-07 11:03:32</t>
+    <t>2019 年 06 月 25 日 00:15:15</t>
+  </si>
+  <si>
+    <t>2023 年 11 月 07 日 11:03:32</t>
   </si>
   <si>
     <t>CVE-2019-12814</t>
@@ -4627,10 +4627,10 @@
     <t>jackson-databind: polymorphic typing issue allows attacker to read arbitrary local files on the server via crafted JSON message.</t>
   </si>
   <si>
-    <t>2019-06-19 22:15:10</t>
-  </si>
-  <si>
-    <t>2023-11-07 11:03:41</t>
+    <t>2019 年 06 月 19 日 22:15:10</t>
+  </si>
+  <si>
+    <t>2023 年 11 月 07 日 11:03:41</t>
   </si>
   <si>
     <t>CVE-2020-1938</t>
@@ -4651,10 +4651,10 @@
     <t>9.0.31, 8.5.51, 7.0.100</t>
   </si>
   <si>
-    <t>2020-02-25 06:15:12</t>
-  </si>
-  <si>
-    <t>2023-11-07 11:19:36</t>
+    <t>2020 年 02 月 25 日 06:15:12</t>
+  </si>
+  <si>
+    <t>2023 年 11 月 07 日 11:19:36</t>
   </si>
   <si>
     <t>CVE-2019-12418</t>
@@ -4666,10 +4666,10 @@
     <t>7.0.99, 8.5.49, 9.0.29</t>
   </si>
   <si>
-    <t>2019-12-24 02:15:10</t>
-  </si>
-  <si>
-    <t>2023-11-07 11:03:34</t>
+    <t>2019 年 12 月 24 日 02:15:10</t>
+  </si>
+  <si>
+    <t>2023 年 11 月 07 日 11:03:34</t>
   </si>
   <si>
     <t>CVE-2019-17563</t>
@@ -4681,10 +4681,10 @@
     <t>7.0.99, 8.5.50, 9.0.30</t>
   </si>
   <si>
-    <t>2019-12-24 01:15:11</t>
-  </si>
-  <si>
-    <t>2023-11-07 11:06:19</t>
+    <t>2019 年 12 月 24 日 01:15:11</t>
+  </si>
+  <si>
+    <t>2023 年 11 月 07 日 11:06:19</t>
   </si>
   <si>
     <t>CVE-2021-25122</t>
@@ -4696,10 +4696,10 @@
     <t>10.0.2, 9.0.43, 8.5.63</t>
   </si>
   <si>
-    <t>2021-03-01 20:15:13</t>
-  </si>
-  <si>
-    <t>2023-11-07 11:31:23</t>
+    <t>2021 年 03 月 01 日 20:15:13</t>
+  </si>
+  <si>
+    <t>2023 年 11 月 07 日 11:31:23</t>
   </si>
   <si>
     <t>CVE-2021-25329</t>
@@ -4711,10 +4711,10 @@
     <t>10.0.2, 9.0.41, 8.5.61, 7.0.108</t>
   </si>
   <si>
-    <t>2021-03-01 20:15:14</t>
-  </si>
-  <si>
-    <t>2023-11-07 11:31:27</t>
+    <t>2021 年 03 月 01 日 20:15:14</t>
+  </si>
+  <si>
+    <t>2023 年 11 月 07 日 11:31:27</t>
   </si>
   <si>
     <t>CVE-2023-46589</t>
@@ -4726,10 +4726,10 @@
     <t>11.0.0-M11, 10.1.16, 9.0.83, 8.5.96</t>
   </si>
   <si>
-    <t>2023-11-29 00:15:06</t>
-  </si>
-  <si>
-    <t>2024-01-05 19:15:09</t>
+    <t>2023 年 11 月 29 日 00:15:06</t>
+  </si>
+  <si>
+    <t>2024 年 01 月 05 日 19:15:09</t>
   </si>
   <si>
     <t>CVE-2020-1935</t>
@@ -4741,7 +4741,7 @@
     <t>7.0.100, 8.5.51, 9.0.31</t>
   </si>
   <si>
-    <t>2020-02-25 06:15:11</t>
+    <t>2020 年 02 月 25 日 06:15:11</t>
   </si>
   <si>
     <t>CVE-2021-24122</t>
@@ -4753,10 +4753,10 @@
     <t>10.0.0-M10, 9.0.40, 8.5.60, 7.0.107</t>
   </si>
   <si>
-    <t>2021-01-14 23:15:13</t>
-  </si>
-  <si>
-    <t>2023-11-07 11:31:06</t>
+    <t>2021 年 01 月 14 日 23:15:13</t>
+  </si>
+  <si>
+    <t>2023 年 11 月 07 日 11:31:06</t>
   </si>
   <si>
     <t>CVE-2023-41080</t>
@@ -4768,10 +4768,10 @@
     <t>8.5.93, 9.0.80, 10.1.13, 11.0.0-M11</t>
   </si>
   <si>
-    <t>2023-08-26 05:15:09</t>
-  </si>
-  <si>
-    <t>2023-11-04 03:00:56</t>
+    <t>2023 年 08 月 26 日 05:15:09</t>
+  </si>
+  <si>
+    <t>2023 年 11 月 04 日 03:00:56</t>
   </si>
   <si>
     <t>CVE-2023-42795</t>
@@ -4783,10 +4783,10 @@
     <t>11.0.0-M12, 10.1.14, 9.0.81, 8.5.94</t>
   </si>
   <si>
-    <t>2023-10-11 02:15:18</t>
-  </si>
-  <si>
-    <t>2023-11-04 14:15:51</t>
+    <t>2023 年 10 月 11 日 02:15:18</t>
+  </si>
+  <si>
+    <t>2023 年 11 月 04 日 14:15:51</t>
   </si>
   <si>
     <t>CVE-2023-44487</t>
@@ -4795,10 +4795,10 @@
     <t>HTTP/2: Multiple HTTP/2 enabled web servers are vulnerable to a DDoS attack (Rapid Reset Attack)</t>
   </si>
   <si>
-    <t>2023-10-10 22:15:10</t>
-  </si>
-  <si>
-    <t>2024-02-02 23:40:23</t>
+    <t>2023 年 10 月 10 日 22:15:10</t>
+  </si>
+  <si>
+    <t>2024 年 02 月 02 日 23:40:23</t>
   </si>
   <si>
     <t>CVE-2023-45648</t>
@@ -4807,10 +4807,10 @@
     <t>tomcat: incorrectly parsed http trailer headers can cause request smuggling</t>
   </si>
   <si>
-    <t>2023-10-11 03:15:09</t>
-  </si>
-  <si>
-    <t>2023-11-04 14:15:52</t>
+    <t>2023 年 10 月 11 日 03:15:09</t>
+  </si>
+  <si>
+    <t>2023 年 11 月 04 日 14:15:52</t>
   </si>
   <si>
     <t>CVE-2024-24549</t>
@@ -4822,10 +4822,10 @@
     <t>8.5.99, 9.0.86, 10.1.19, 11.0.0-M17</t>
   </si>
   <si>
-    <t>2024-03-14 00:15:29</t>
-  </si>
-  <si>
-    <t>2024-03-14 02:15:58</t>
+    <t>2024 年 03 月 14 日 00:15:29</t>
+  </si>
+  <si>
+    <t>2024 年 03 月 14 日 02:15:58</t>
   </si>
   <si>
     <t>CVE-2019-10219</t>
@@ -4846,10 +4846,10 @@
     <t>6.0.18</t>
   </si>
   <si>
-    <t>2019-11-08 23:15:11</t>
-  </si>
-  <si>
-    <t>2023-11-07 11:02:27</t>
+    <t>2019 年 11 月 08 日 23:15:11</t>
+  </si>
+  <si>
+    <t>2023 年 11 月 07 日 11:02:27</t>
   </si>
   <si>
     <t>CVE-2020-10693</t>
@@ -4861,10 +4861,10 @@
     <t>6.1.5.Final, 6.0.20.Final</t>
   </si>
   <si>
-    <t>2020-05-06 22:15:10</t>
-  </si>
-  <si>
-    <t>2023-11-07 11:14:13</t>
+    <t>2020 年 05 月 06 日 22:15:10</t>
+  </si>
+  <si>
+    <t>2023 年 11 月 07 日 11:14:13</t>
   </si>
   <si>
     <t>CVE-2022-27772</t>
@@ -4885,10 +4885,10 @@
     <t>2.2.11.RELEASE</t>
   </si>
   <si>
-    <t>2022-03-31 02:15:08</t>
-  </si>
-  <si>
-    <t>2024-03-21 10:42:31</t>
+    <t>2022 年 03 月 31 日 02:15:08</t>
+  </si>
+  <si>
+    <t>2024 年 03 月 21 日 10:42:31</t>
   </si>
   <si>
     <t>CVE-2023-34055</t>
@@ -4900,10 +4900,10 @@
     <t>2.7.18, 3.0.13, 3.1.6</t>
   </si>
   <si>
-    <t>2023-11-28 17:15:07</t>
-  </si>
-  <si>
-    <t>2023-12-22 06:15:13</t>
+    <t>2023 年 11 月 28 日 17:15:07</t>
+  </si>
+  <si>
+    <t>2023 年 12 月 22 日 06:15:13</t>
   </si>
   <si>
     <t>CVE-2023-20883</t>
@@ -4921,10 +4921,10 @@
     <t>3.0.7, 2.7.12, 2.6.15, 2.5.15</t>
   </si>
   <si>
-    <t>2023-05-27 01:15:14</t>
-  </si>
-  <si>
-    <t>2023-07-04 00:15:09</t>
+    <t>2023 年 05 月 27 日 01:15:14</t>
+  </si>
+  <si>
+    <t>2023 年 07 月 04 日 00:15:09</t>
   </si>
   <si>
     <t>CVE-2022-22965</t>
@@ -4942,10 +4942,10 @@
     <t>2.5.12, 2.6.6</t>
   </si>
   <si>
-    <t>2022-04-02 07:15:13</t>
-  </si>
-  <si>
-    <t>2023-02-09 10:07:02</t>
+    <t>2022 年 04 月 02 日 07:15:13</t>
+  </si>
+  <si>
+    <t>2023 年 02 月 09 日 10:07:02</t>
   </si>
   <si>
     <t>org.springframework:spring-beans</t>
@@ -4969,10 +4969,10 @@
     <t>5.2.22.RELEASE, 5.3.20</t>
   </si>
   <si>
-    <t>2022-05-13 04:15:15</t>
-  </si>
-  <si>
-    <t>2022-10-07 21:17:11</t>
+    <t>2022 年 05 月 13 日 04:15:15</t>
+  </si>
+  <si>
+    <t>2022 年 10 月 07 日 21:17:11</t>
   </si>
   <si>
     <t>CVE-2022-22968</t>
@@ -4990,10 +4990,10 @@
     <t>5.3.19, 5.2.21</t>
   </si>
   <si>
-    <t>2022-04-15 05:15:08</t>
-  </si>
-  <si>
-    <t>2022-10-19 23:15:02</t>
+    <t>2022 年 04 月 15 日 05:15:08</t>
+  </si>
+  <si>
+    <t>2022 年 10 月 19 日 23:15:02</t>
   </si>
   <si>
     <t>CVE-2023-20863</t>
@@ -5011,10 +5011,10 @@
     <t>6.0.8, 5.3.27, 5.2.24.RELEASE</t>
   </si>
   <si>
-    <t>2023-04-14 04:15:07</t>
-  </si>
-  <si>
-    <t>2023-04-22 02:04:37</t>
+    <t>2023 年 04 月 14 日 04:15:07</t>
+  </si>
+  <si>
+    <t>2023 年 04 月 22 日 02:04:37</t>
   </si>
   <si>
     <t>CVE-2022-22950</t>
@@ -5026,7 +5026,7 @@
     <t>5.3.17, 5.2.20.RELEASE</t>
   </si>
   <si>
-    <t>2022-06-22 21:53:48</t>
+    <t>2022 年 06 月 22 日 21:53:48</t>
   </si>
   <si>
     <t>CVE-2023-20861</t>
@@ -5038,10 +5038,10 @@
     <t>6.0.7, 5.3.26, 5.2.23.RELEASE</t>
   </si>
   <si>
-    <t>2023-03-24 05:15:19</t>
-  </si>
-  <si>
-    <t>2023-04-20 17:15:09</t>
+    <t>2023 年 03 月 24 日 05:15:19</t>
+  </si>
+  <si>
+    <t>2023 年 04 月 20 日 17:15:09</t>
   </si>
   <si>
     <t>CVE-2016-1000027</t>
@@ -5059,10 +5059,10 @@
     <t>6.0.0</t>
   </si>
   <si>
-    <t>2020-01-03 07:15:11</t>
-  </si>
-  <si>
-    <t>2023-04-20 17:15:07</t>
+    <t>2020 年 01 月 03 日 07:15:11</t>
+  </si>
+  <si>
+    <t>2023 年 04 月 20 日 17:15:07</t>
   </si>
   <si>
     <t>CVE-2024-22243</t>
@@ -5074,10 +5074,10 @@
     <t>6.1.4, 6.0.17, 5.3.32</t>
   </si>
   <si>
-    <t>2024-02-23 13:15:08</t>
-  </si>
-  <si>
-    <t>2024-02-24 00:14:43</t>
+    <t>2024 年 02 月 23 日 13:15:08</t>
+  </si>
+  <si>
+    <t>2024 年 02 月 24 日 00:14:43</t>
   </si>
   <si>
     <t>CVE-2024-22259</t>
@@ -5086,10 +5086,10 @@
     <t>6.1.5, 6.0.18, 5.3.33</t>
   </si>
   <si>
-    <t>2024-03-16 13:15:20</t>
-  </si>
-  <si>
-    <t>2024-03-18 06:38:29</t>
+    <t>2024 年 03 月 16 日 13:15:20</t>
+  </si>
+  <si>
+    <t>2024 年 03 月 18 日 06:38:29</t>
   </si>
   <si>
     <t>org.springframework:spring-webmvc</t>
@@ -5107,10 +5107,10 @@
     <t>5.2.3.RELEASE, 5.1.13.RELEASE, 5.0.16.RELEASE</t>
   </si>
   <si>
-    <t>2020-01-17 08:15:12</t>
-  </si>
-  <si>
-    <t>2023-11-07 11:23:46</t>
+    <t>2020 年 01 月 17 日 08:15:12</t>
+  </si>
+  <si>
+    <t>2023 年 11 月 07 日 11:23:46</t>
   </si>
   <si>
     <t>CVE-2017-18640</t>
@@ -5131,10 +5131,10 @@
     <t>1.26</t>
   </si>
   <si>
-    <t>2019-12-12 11:15:10</t>
-  </si>
-  <si>
-    <t>2023-11-07 10:41:56</t>
+    <t>2019 年 12 月 12 日 11:15:10</t>
+  </si>
+  <si>
+    <t>2023 年 11 月 07 日 10:41:56</t>
   </si>
   <si>
     <t>CVE-2022-1471</t>
@@ -5146,10 +5146,10 @@
     <t>2.0</t>
   </si>
   <si>
-    <t>2022-12-01 19:15:10</t>
-  </si>
-  <si>
-    <t>2023-11-19 23:15:20</t>
+    <t>2022 年 12 月 01 日 19:15:10</t>
+  </si>
+  <si>
+    <t>2023 年 11 月 19 日 23:15:20</t>
   </si>
   <si>
     <t>CVE-2022-25857</t>
@@ -5161,10 +5161,10 @@
     <t>1.31</t>
   </si>
   <si>
-    <t>2022-08-30 13:15:07</t>
-  </si>
-  <si>
-    <t>2024-03-15 19:15:07</t>
+    <t>2022 年 08 月 30 日 13:15:07</t>
+  </si>
+  <si>
+    <t>2024 年 03 月 15 日 19:15:07</t>
   </si>
   <si>
     <t>CVE-2022-38749</t>
@@ -5173,7 +5173,7 @@
     <t>snakeyaml: Uncaught exception in org.yaml.snakeyaml.composer.Composer.composeSequenceNode</t>
   </si>
   <si>
-    <t>2022-09-05 18:15:09</t>
+    <t>2022 年 09 月 05 日 18:15:09</t>
   </si>
   <si>
     <t>CVE-2022-38750</t>
@@ -5182,7 +5182,7 @@
     <t>snakeyaml: Uncaught exception in org.yaml.snakeyaml.constructor.BaseConstructor.constructObject</t>
   </si>
   <si>
-    <t>2024-03-15 19:15:08</t>
+    <t>2024 年 03 月 15 日 19:15:08</t>
   </si>
   <si>
     <t>CVE-2022-38751</t>
@@ -5206,7 +5206,7 @@
     <t>dev-java/snakeyaml: DoS via stack overflow</t>
   </si>
   <si>
-    <t>2022-11-11 21:15:11</t>
+    <t>2022 年 11 月 11 日 21:15:11</t>
   </si>
 </sst>
 </file>
@@ -5526,7 +5526,7 @@
     <col customWidth="true" max="10" min="10" width="50"/>
     <col customWidth="true" max="11" min="11" width="20"/>
     <col customWidth="true" max="12" min="12" width="42"/>
-    <col customWidth="true" max="14" min="13" width="20"/>
+    <col customWidth="true" max="14" min="13" width="25"/>
   </cols>
   <sheetData>
     <row r="1">
